--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286057656466922</v>
+        <v>0.9286057656466921</v>
       </c>
       <c r="D2">
         <v>1.024735426795714</v>
       </c>
       <c r="E2">
-        <v>0.9432924718848404</v>
+        <v>0.9432924718848403</v>
       </c>
       <c r="F2">
-        <v>0.9265101129443504</v>
+        <v>0.9265101129443503</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041489692129629</v>
+        <v>1.041489692129628</v>
       </c>
       <c r="J2">
-        <v>0.9531538039433088</v>
+        <v>0.9531538039433087</v>
       </c>
       <c r="K2">
         <v>1.03586058664523</v>
       </c>
       <c r="L2">
-        <v>0.9556027558158737</v>
+        <v>0.9556027558158736</v>
       </c>
       <c r="M2">
-        <v>0.9390979999639275</v>
+        <v>0.9390979999639274</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9419162068951579</v>
+        <v>0.9419162068951566</v>
       </c>
       <c r="D3">
         <v>1.027969165744538</v>
       </c>
       <c r="E3">
-        <v>0.9548452065100851</v>
+        <v>0.954845206510084</v>
       </c>
       <c r="F3">
-        <v>0.9408180895422921</v>
+        <v>0.9408180895422912</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043558118220478</v>
       </c>
       <c r="J3">
-        <v>0.9641260778047974</v>
+        <v>0.9641260778047965</v>
       </c>
       <c r="K3">
         <v>1.038256258756356</v>
       </c>
       <c r="L3">
-        <v>0.9660904240295023</v>
+        <v>0.966090424029501</v>
       </c>
       <c r="M3">
-        <v>0.9522687366993572</v>
+        <v>0.9522687366993564</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9500537160837582</v>
+        <v>0.9500537160837595</v>
       </c>
       <c r="D4">
         <v>1.029974552623253</v>
       </c>
       <c r="E4">
-        <v>0.9619178216759744</v>
+        <v>0.9619178216759757</v>
       </c>
       <c r="F4">
-        <v>0.9495743842343818</v>
+        <v>0.949574384234383</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044810153270511</v>
       </c>
       <c r="J4">
-        <v>0.9708274929242342</v>
+        <v>0.9708274929242353</v>
       </c>
       <c r="K4">
         <v>1.039724185786342</v>
       </c>
       <c r="L4">
-        <v>0.9724986853293494</v>
+        <v>0.9724986853293507</v>
       </c>
       <c r="M4">
-        <v>0.9603220740074436</v>
+        <v>0.9603220740074448</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9533727350044849</v>
+        <v>0.9533727350044868</v>
       </c>
       <c r="D5">
         <v>1.030798273088405</v>
       </c>
       <c r="E5">
-        <v>0.9648045595629997</v>
+        <v>0.9648045595630014</v>
       </c>
       <c r="F5">
-        <v>0.953148035458766</v>
+        <v>0.9531480354587679</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045317334407883</v>
       </c>
       <c r="J5">
-        <v>0.9735590000128208</v>
+        <v>0.9735590000128225</v>
       </c>
       <c r="K5">
         <v>1.040323024837192</v>
       </c>
       <c r="L5">
-        <v>0.9751113724977398</v>
+        <v>0.9751113724977414</v>
       </c>
       <c r="M5">
-        <v>0.9636070909014621</v>
+        <v>0.9636070909014638</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9539243369418346</v>
+        <v>0.9539243369418348</v>
       </c>
       <c r="D6">
         <v>1.030935484129855</v>
       </c>
       <c r="E6">
-        <v>0.9652844326211293</v>
+        <v>0.9652844326211292</v>
       </c>
       <c r="F6">
-        <v>0.9537420911060652</v>
+        <v>0.9537420911060651</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.045401407051494</v>
       </c>
       <c r="J6">
-        <v>0.9740128512719114</v>
+        <v>0.9740128512719112</v>
       </c>
       <c r="K6">
         <v>1.040422537458535</v>
@@ -600,7 +600,7 @@
         <v>0.9755455206272202</v>
       </c>
       <c r="M6">
-        <v>0.9641530620647264</v>
+        <v>0.9641530620647265</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.950098451675999</v>
+        <v>0.9500984516759976</v>
       </c>
       <c r="D7">
         <v>1.029985633423645</v>
       </c>
       <c r="E7">
-        <v>0.9619567229049661</v>
+        <v>0.9619567229049649</v>
       </c>
       <c r="F7">
-        <v>0.9496225428221617</v>
+        <v>0.9496225428221601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044817003789503</v>
+        <v>1.044817003789502</v>
       </c>
       <c r="J7">
-        <v>0.9708643170012482</v>
+        <v>0.9708643170012468</v>
       </c>
       <c r="K7">
-        <v>1.039732257628809</v>
+        <v>1.03973225762881</v>
       </c>
       <c r="L7">
-        <v>0.9725339049091167</v>
+        <v>0.9725339049091155</v>
       </c>
       <c r="M7">
-        <v>0.9603663499556525</v>
+        <v>0.960366349955651</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.933210291185579</v>
+        <v>0.9332102911855783</v>
       </c>
       <c r="D8">
         <v>1.025847294364691</v>
       </c>
       <c r="E8">
-        <v>0.9472866750805208</v>
+        <v>0.9472866750805203</v>
       </c>
       <c r="F8">
-        <v>0.9314578750732173</v>
+        <v>0.9314578750732168</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042207602509842</v>
       </c>
       <c r="J8">
-        <v>0.9569507759311551</v>
+        <v>0.9569507759311547</v>
       </c>
       <c r="K8">
-        <v>1.036688169862633</v>
+        <v>1.036688169862632</v>
       </c>
       <c r="L8">
-        <v>0.9592314163892945</v>
+        <v>0.9592314163892941</v>
       </c>
       <c r="M8">
-        <v>0.943653953321916</v>
+        <v>0.9436539533219155</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,10 +690,10 @@
         <v>0.8991345996273066</v>
       </c>
       <c r="D9">
-        <v>1.017803875012986</v>
+        <v>1.017803875012987</v>
       </c>
       <c r="E9">
-        <v>0.9177876752666296</v>
+        <v>0.9177876752666297</v>
       </c>
       <c r="F9">
         <v>0.8948765843624112</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036862519445057</v>
+        <v>1.036862519445056</v>
       </c>
       <c r="J9">
-        <v>0.9288314367400047</v>
+        <v>0.9288314367400048</v>
       </c>
       <c r="K9">
         <v>1.030614553036884</v>
       </c>
       <c r="L9">
-        <v>0.9323720584139051</v>
+        <v>0.9323720584139054</v>
       </c>
       <c r="M9">
         <v>0.9099414268769771</v>
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8722109926075019</v>
+        <v>0.8722109926075015</v>
       </c>
       <c r="D10">
         <v>1.011777901432975</v>
       </c>
       <c r="E10">
-        <v>0.8945856469473843</v>
+        <v>0.8945856469473841</v>
       </c>
       <c r="F10">
-        <v>0.8660075100695844</v>
+        <v>0.8660075100695842</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.032634562922582</v>
       </c>
       <c r="J10">
-        <v>0.9066046203227862</v>
+        <v>0.9066046203227859</v>
       </c>
       <c r="K10">
-        <v>1.025937709323153</v>
+        <v>1.025937709323154</v>
       </c>
       <c r="L10">
-        <v>0.9111602993025362</v>
+        <v>0.9111602993025358</v>
       </c>
       <c r="M10">
         <v>0.8833059348204608</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8590918528326557</v>
+        <v>0.8590918528326561</v>
       </c>
       <c r="D11">
-        <v>1.008956475549329</v>
+        <v>1.00895647554933</v>
       </c>
       <c r="E11">
-        <v>0.8833170654245107</v>
+        <v>0.8833170654245114</v>
       </c>
       <c r="F11">
-        <v>0.8519428036624589</v>
+        <v>0.8519428036624596</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030589560593987</v>
       </c>
       <c r="J11">
-        <v>0.8957796724181659</v>
+        <v>0.8957796724181664</v>
       </c>
       <c r="K11">
         <v>1.023711439626386</v>
       </c>
       <c r="L11">
-        <v>0.9008348946494998</v>
+        <v>0.9008348946495005</v>
       </c>
       <c r="M11">
-        <v>0.8703255207394324</v>
+        <v>0.8703255207394327</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -807,10 +807,10 @@
         <v>1.007869505668612</v>
       </c>
       <c r="E12">
-        <v>0.8788971365734728</v>
+        <v>0.8788971365734729</v>
       </c>
       <c r="F12">
-        <v>0.8464168700808079</v>
+        <v>0.8464168700808083</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0.8967810407162757</v>
       </c>
       <c r="M12">
-        <v>0.8652254789205746</v>
+        <v>0.8652254789205748</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8550574032458861</v>
+        <v>0.8550574032458862</v>
       </c>
       <c r="D13">
         <v>1.008104575381145</v>
       </c>
       <c r="E13">
-        <v>0.8798568934062737</v>
+        <v>0.8798568934062742</v>
       </c>
       <c r="F13">
         <v>0.8476172589517498</v>
@@ -857,16 +857,16 @@
         <v>1.029963733956072</v>
       </c>
       <c r="J13">
-        <v>0.8924520700489854</v>
+        <v>0.8924520700489856</v>
       </c>
       <c r="K13">
         <v>1.023034616324305</v>
       </c>
       <c r="L13">
-        <v>0.8976614875437371</v>
+        <v>0.8976614875437376</v>
       </c>
       <c r="M13">
-        <v>0.8663333477098428</v>
+        <v>0.8663333477098429</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,10 +880,10 @@
         <v>0.8586720073926521</v>
       </c>
       <c r="D14">
-        <v>1.008867473129785</v>
+        <v>1.008867473129784</v>
       </c>
       <c r="E14">
-        <v>0.8829568664187036</v>
+        <v>0.8829568664187039</v>
       </c>
       <c r="F14">
         <v>0.8514926763589714</v>
@@ -895,13 +895,13 @@
         <v>1.030524360289881</v>
       </c>
       <c r="J14">
-        <v>0.8954333521849493</v>
+        <v>0.8954333521849495</v>
       </c>
       <c r="K14">
         <v>1.023640829368541</v>
       </c>
       <c r="L14">
-        <v>0.9005046086180366</v>
+        <v>0.9005046086180368</v>
       </c>
       <c r="M14">
         <v>0.8699100844138016</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8608595493787868</v>
+        <v>0.8608595493787875</v>
       </c>
       <c r="D15">
-        <v>1.00933209300757</v>
+        <v>1.009332093007571</v>
       </c>
       <c r="E15">
-        <v>0.8848339223803247</v>
+        <v>0.8848339223803253</v>
       </c>
       <c r="F15">
-        <v>0.8538379740336797</v>
+        <v>0.8538379740336806</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030864257366558</v>
       </c>
       <c r="J15">
-        <v>0.8972378818628022</v>
+        <v>0.8972378818628028</v>
       </c>
       <c r="K15">
         <v>1.024009177792783</v>
       </c>
       <c r="L15">
-        <v>0.9022256258836432</v>
+        <v>0.9022256258836439</v>
       </c>
       <c r="M15">
-        <v>0.8720746301890866</v>
+        <v>0.8720746301890874</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.873046211482041</v>
+        <v>0.8730462114820412</v>
       </c>
       <c r="D16">
         <v>1.011960138205903</v>
       </c>
       <c r="E16">
-        <v>0.8953039041532802</v>
+        <v>0.8953039041532804</v>
       </c>
       <c r="F16">
-        <v>0.8669029179639703</v>
+        <v>0.8669029179639708</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032765203322695</v>
       </c>
       <c r="J16">
-        <v>0.9072939656948869</v>
+        <v>0.9072939656948872</v>
       </c>
       <c r="K16">
         <v>1.026080701404433</v>
       </c>
       <c r="L16">
-        <v>0.911817943018609</v>
+        <v>0.9118179430186096</v>
       </c>
       <c r="M16">
-        <v>0.8841322686577292</v>
+        <v>0.8841322686577296</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8802634909014476</v>
+        <v>0.8802634909014473</v>
       </c>
       <c r="D17">
-        <v>1.013547659227382</v>
+        <v>1.013547659227381</v>
       </c>
       <c r="E17">
-        <v>0.9015146286508796</v>
+        <v>0.9015146286508793</v>
       </c>
       <c r="F17">
-        <v>0.8746405058805116</v>
+        <v>0.8746405058805113</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033895893901697</v>
       </c>
       <c r="J17">
-        <v>0.9132514055527077</v>
+        <v>0.9132514055527073</v>
       </c>
       <c r="K17">
         <v>1.027322246650682</v>
       </c>
       <c r="L17">
-        <v>0.9175019788749825</v>
+        <v>0.9175019788749821</v>
       </c>
       <c r="M17">
-        <v>0.8912725722633793</v>
+        <v>0.8912725722633791</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8843374014101328</v>
+        <v>0.8843374014101333</v>
       </c>
       <c r="D18">
         <v>1.014453756151755</v>
       </c>
       <c r="E18">
-        <v>0.905023591420769</v>
+        <v>0.9050235914207695</v>
       </c>
       <c r="F18">
         <v>0.8790083903984531</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034535351941335</v>
+        <v>1.034535351941336</v>
       </c>
       <c r="J18">
         <v>0.9166146055155829</v>
@@ -1053,10 +1053,10 @@
         <v>1.028027577282716</v>
       </c>
       <c r="L18">
-        <v>0.9207112908038794</v>
+        <v>0.9207112908038796</v>
       </c>
       <c r="M18">
-        <v>0.895302904944701</v>
+        <v>0.8953029049447011</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8857049402654117</v>
+        <v>0.885704940265411</v>
       </c>
       <c r="D19">
         <v>1.014759512668709</v>
       </c>
       <c r="E19">
-        <v>0.9062019994426463</v>
+        <v>0.906201999442646</v>
       </c>
       <c r="F19">
-        <v>0.8804746756871799</v>
+        <v>0.8804746756871797</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.034750168230437</v>
       </c>
       <c r="J19">
-        <v>0.9177436212497573</v>
+        <v>0.9177436212497571</v>
       </c>
       <c r="K19">
         <v>1.028265045944437</v>
       </c>
       <c r="L19">
-        <v>0.9217887228418475</v>
+        <v>0.9217887228418472</v>
       </c>
       <c r="M19">
         <v>0.8966557998193235</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8795035561972282</v>
+        <v>0.8795035561972268</v>
       </c>
       <c r="D20">
-        <v>1.013379431683751</v>
+        <v>1.01337943168375</v>
       </c>
       <c r="E20">
-        <v>0.9008603323833398</v>
+        <v>0.9008603323833388</v>
       </c>
       <c r="F20">
-        <v>0.873825761275175</v>
+        <v>0.8738257612751738</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033776700004855</v>
       </c>
       <c r="J20">
-        <v>0.9126240738384114</v>
+        <v>0.91262407383841</v>
       </c>
       <c r="K20">
-        <v>1.027191030120411</v>
+        <v>1.02719103012041</v>
       </c>
       <c r="L20">
-        <v>0.9169033887047776</v>
+        <v>0.9169033887047763</v>
       </c>
       <c r="M20">
-        <v>0.8905207574966745</v>
+        <v>0.890520757496673</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8576159855741301</v>
+        <v>0.8576159855741303</v>
       </c>
       <c r="D21">
-        <v>1.008643966658296</v>
+        <v>1.008643966658297</v>
       </c>
       <c r="E21">
         <v>0.8820509896238071</v>
       </c>
       <c r="F21">
-        <v>0.8503604772100097</v>
+        <v>0.8503604772100104</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030360438718545</v>
       </c>
       <c r="J21">
-        <v>0.8945622987093669</v>
+        <v>0.8945622987093671</v>
       </c>
       <c r="K21">
         <v>1.023463406309085</v>
       </c>
       <c r="L21">
-        <v>0.8996738979343193</v>
+        <v>0.8996738979343196</v>
       </c>
       <c r="M21">
-        <v>0.8688651430488656</v>
+        <v>0.8688651430488661</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8421740925399783</v>
+        <v>0.8421740925399792</v>
       </c>
       <c r="D22">
         <v>1.005434980447984</v>
       </c>
       <c r="E22">
-        <v>0.8688244527023168</v>
+        <v>0.868824452702318</v>
       </c>
       <c r="F22">
-        <v>0.8338020803942958</v>
+        <v>0.8338020803942972</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027976890373562</v>
+        <v>1.027976890373561</v>
       </c>
       <c r="J22">
-        <v>0.881831325427057</v>
+        <v>0.881831325427058</v>
       </c>
       <c r="K22">
         <v>1.020899532766932</v>
       </c>
       <c r="L22">
-        <v>0.887534815358143</v>
+        <v>0.8875348153581444</v>
       </c>
       <c r="M22">
-        <v>0.8535834501190844</v>
+        <v>0.8535834501190857</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1225,7 +1225,7 @@
         <v>1.007161354988911</v>
       </c>
       <c r="E23">
-        <v>0.8759925322790275</v>
+        <v>0.8759925322790276</v>
       </c>
       <c r="F23">
         <v>0.8427823805957182</v>
@@ -1240,13 +1240,13 @@
         <v>0.888733797554488</v>
       </c>
       <c r="K23">
-        <v>1.022282710347276</v>
+        <v>1.022282710347277</v>
       </c>
       <c r="L23">
-        <v>0.8941158568670871</v>
+        <v>0.8941158568670873</v>
       </c>
       <c r="M23">
-        <v>0.8618711495978972</v>
+        <v>0.8618711495978975</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8798473533767703</v>
+        <v>0.8798473533767707</v>
       </c>
       <c r="D24">
-        <v>1.013455507399747</v>
+        <v>1.013455507399746</v>
       </c>
       <c r="E24">
-        <v>0.9011563283724666</v>
+        <v>0.9011563283724667</v>
       </c>
       <c r="F24">
-        <v>0.8741943537291252</v>
+        <v>0.8741943537291254</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033830620053067</v>
       </c>
       <c r="J24">
-        <v>0.9129078796805931</v>
+        <v>0.9129078796805932</v>
       </c>
       <c r="K24">
-        <v>1.027250378972803</v>
+        <v>1.027250378972802</v>
       </c>
       <c r="L24">
         <v>0.9171741903958565</v>
       </c>
       <c r="M24">
-        <v>0.8908608815692253</v>
+        <v>0.8908608815692254</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9085667990693137</v>
+        <v>0.9085667990693129</v>
       </c>
       <c r="D25">
-        <v>1.019986031751085</v>
+        <v>1.019986031751084</v>
       </c>
       <c r="E25">
-        <v>0.9259387992148747</v>
+        <v>0.925938799214874</v>
       </c>
       <c r="F25">
-        <v>0.9049955300699637</v>
+        <v>0.9049955300699626</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038346838142157</v>
       </c>
       <c r="J25">
-        <v>0.9366182677860092</v>
+        <v>0.9366182677860083</v>
       </c>
       <c r="K25">
         <v>1.032281815017536</v>
       </c>
       <c r="L25">
-        <v>0.9398070213353635</v>
+        <v>0.9398070213353626</v>
       </c>
       <c r="M25">
-        <v>0.9192724939586873</v>
+        <v>0.9192724939586862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286057656466921</v>
+        <v>0.9286057656466922</v>
       </c>
       <c r="D2">
         <v>1.024735426795714</v>
       </c>
       <c r="E2">
-        <v>0.9432924718848403</v>
+        <v>0.9432924718848404</v>
       </c>
       <c r="F2">
-        <v>0.9265101129443503</v>
+        <v>0.9265101129443504</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041489692129628</v>
+        <v>1.041489692129629</v>
       </c>
       <c r="J2">
-        <v>0.9531538039433087</v>
+        <v>0.9531538039433088</v>
       </c>
       <c r="K2">
         <v>1.03586058664523</v>
       </c>
       <c r="L2">
-        <v>0.9556027558158736</v>
+        <v>0.9556027558158737</v>
       </c>
       <c r="M2">
-        <v>0.9390979999639274</v>
+        <v>0.9390979999639275</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9419162068951566</v>
+        <v>0.9419162068951579</v>
       </c>
       <c r="D3">
         <v>1.027969165744538</v>
       </c>
       <c r="E3">
-        <v>0.954845206510084</v>
+        <v>0.9548452065100851</v>
       </c>
       <c r="F3">
-        <v>0.9408180895422912</v>
+        <v>0.9408180895422921</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.043558118220478</v>
       </c>
       <c r="J3">
-        <v>0.9641260778047965</v>
+        <v>0.9641260778047974</v>
       </c>
       <c r="K3">
         <v>1.038256258756356</v>
       </c>
       <c r="L3">
-        <v>0.966090424029501</v>
+        <v>0.9660904240295023</v>
       </c>
       <c r="M3">
-        <v>0.9522687366993564</v>
+        <v>0.9522687366993572</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9500537160837595</v>
+        <v>0.9500537160837582</v>
       </c>
       <c r="D4">
         <v>1.029974552623253</v>
       </c>
       <c r="E4">
-        <v>0.9619178216759757</v>
+        <v>0.9619178216759744</v>
       </c>
       <c r="F4">
-        <v>0.949574384234383</v>
+        <v>0.9495743842343818</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044810153270511</v>
       </c>
       <c r="J4">
-        <v>0.9708274929242353</v>
+        <v>0.9708274929242342</v>
       </c>
       <c r="K4">
         <v>1.039724185786342</v>
       </c>
       <c r="L4">
-        <v>0.9724986853293507</v>
+        <v>0.9724986853293494</v>
       </c>
       <c r="M4">
-        <v>0.9603220740074448</v>
+        <v>0.9603220740074436</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9533727350044868</v>
+        <v>0.9533727350044849</v>
       </c>
       <c r="D5">
         <v>1.030798273088405</v>
       </c>
       <c r="E5">
-        <v>0.9648045595630014</v>
+        <v>0.9648045595629997</v>
       </c>
       <c r="F5">
-        <v>0.9531480354587679</v>
+        <v>0.953148035458766</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.045317334407883</v>
       </c>
       <c r="J5">
-        <v>0.9735590000128225</v>
+        <v>0.9735590000128208</v>
       </c>
       <c r="K5">
         <v>1.040323024837192</v>
       </c>
       <c r="L5">
-        <v>0.9751113724977414</v>
+        <v>0.9751113724977398</v>
       </c>
       <c r="M5">
-        <v>0.9636070909014638</v>
+        <v>0.9636070909014621</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9539243369418348</v>
+        <v>0.9539243369418346</v>
       </c>
       <c r="D6">
         <v>1.030935484129855</v>
       </c>
       <c r="E6">
-        <v>0.9652844326211292</v>
+        <v>0.9652844326211293</v>
       </c>
       <c r="F6">
-        <v>0.9537420911060651</v>
+        <v>0.9537420911060652</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.045401407051494</v>
       </c>
       <c r="J6">
-        <v>0.9740128512719112</v>
+        <v>0.9740128512719114</v>
       </c>
       <c r="K6">
         <v>1.040422537458535</v>
@@ -600,7 +600,7 @@
         <v>0.9755455206272202</v>
       </c>
       <c r="M6">
-        <v>0.9641530620647265</v>
+        <v>0.9641530620647264</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9500984516759976</v>
+        <v>0.950098451675999</v>
       </c>
       <c r="D7">
         <v>1.029985633423645</v>
       </c>
       <c r="E7">
-        <v>0.9619567229049649</v>
+        <v>0.9619567229049661</v>
       </c>
       <c r="F7">
-        <v>0.9496225428221601</v>
+        <v>0.9496225428221617</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044817003789502</v>
+        <v>1.044817003789503</v>
       </c>
       <c r="J7">
-        <v>0.9708643170012468</v>
+        <v>0.9708643170012482</v>
       </c>
       <c r="K7">
-        <v>1.03973225762881</v>
+        <v>1.039732257628809</v>
       </c>
       <c r="L7">
-        <v>0.9725339049091155</v>
+        <v>0.9725339049091167</v>
       </c>
       <c r="M7">
-        <v>0.960366349955651</v>
+        <v>0.9603663499556525</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9332102911855783</v>
+        <v>0.933210291185579</v>
       </c>
       <c r="D8">
         <v>1.025847294364691</v>
       </c>
       <c r="E8">
-        <v>0.9472866750805203</v>
+        <v>0.9472866750805208</v>
       </c>
       <c r="F8">
-        <v>0.9314578750732168</v>
+        <v>0.9314578750732173</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042207602509842</v>
       </c>
       <c r="J8">
-        <v>0.9569507759311547</v>
+        <v>0.9569507759311551</v>
       </c>
       <c r="K8">
-        <v>1.036688169862632</v>
+        <v>1.036688169862633</v>
       </c>
       <c r="L8">
-        <v>0.9592314163892941</v>
+        <v>0.9592314163892945</v>
       </c>
       <c r="M8">
-        <v>0.9436539533219155</v>
+        <v>0.943653953321916</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -690,10 +690,10 @@
         <v>0.8991345996273066</v>
       </c>
       <c r="D9">
-        <v>1.017803875012987</v>
+        <v>1.017803875012986</v>
       </c>
       <c r="E9">
-        <v>0.9177876752666297</v>
+        <v>0.9177876752666296</v>
       </c>
       <c r="F9">
         <v>0.8948765843624112</v>
@@ -702,16 +702,16 @@
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036862519445056</v>
+        <v>1.036862519445057</v>
       </c>
       <c r="J9">
-        <v>0.9288314367400048</v>
+        <v>0.9288314367400047</v>
       </c>
       <c r="K9">
         <v>1.030614553036884</v>
       </c>
       <c r="L9">
-        <v>0.9323720584139054</v>
+        <v>0.9323720584139051</v>
       </c>
       <c r="M9">
         <v>0.9099414268769771</v>
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8722109926075015</v>
+        <v>0.8722109926075019</v>
       </c>
       <c r="D10">
         <v>1.011777901432975</v>
       </c>
       <c r="E10">
-        <v>0.8945856469473841</v>
+        <v>0.8945856469473843</v>
       </c>
       <c r="F10">
-        <v>0.8660075100695842</v>
+        <v>0.8660075100695844</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1.032634562922582</v>
       </c>
       <c r="J10">
-        <v>0.9066046203227859</v>
+        <v>0.9066046203227862</v>
       </c>
       <c r="K10">
-        <v>1.025937709323154</v>
+        <v>1.025937709323153</v>
       </c>
       <c r="L10">
-        <v>0.9111602993025358</v>
+        <v>0.9111602993025362</v>
       </c>
       <c r="M10">
         <v>0.8833059348204608</v>
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8590918528326561</v>
+        <v>0.8590918528326557</v>
       </c>
       <c r="D11">
-        <v>1.00895647554933</v>
+        <v>1.008956475549329</v>
       </c>
       <c r="E11">
-        <v>0.8833170654245114</v>
+        <v>0.8833170654245107</v>
       </c>
       <c r="F11">
-        <v>0.8519428036624596</v>
+        <v>0.8519428036624589</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030589560593987</v>
       </c>
       <c r="J11">
-        <v>0.8957796724181664</v>
+        <v>0.8957796724181659</v>
       </c>
       <c r="K11">
         <v>1.023711439626386</v>
       </c>
       <c r="L11">
-        <v>0.9008348946495005</v>
+        <v>0.9008348946494998</v>
       </c>
       <c r="M11">
-        <v>0.8703255207394327</v>
+        <v>0.8703255207394324</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -807,10 +807,10 @@
         <v>1.007869505668612</v>
       </c>
       <c r="E12">
-        <v>0.8788971365734729</v>
+        <v>0.8788971365734728</v>
       </c>
       <c r="F12">
-        <v>0.8464168700808083</v>
+        <v>0.8464168700808079</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -828,7 +828,7 @@
         <v>0.8967810407162757</v>
       </c>
       <c r="M12">
-        <v>0.8652254789205748</v>
+        <v>0.8652254789205746</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,13 +839,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8550574032458862</v>
+        <v>0.8550574032458861</v>
       </c>
       <c r="D13">
         <v>1.008104575381145</v>
       </c>
       <c r="E13">
-        <v>0.8798568934062742</v>
+        <v>0.8798568934062737</v>
       </c>
       <c r="F13">
         <v>0.8476172589517498</v>
@@ -857,16 +857,16 @@
         <v>1.029963733956072</v>
       </c>
       <c r="J13">
-        <v>0.8924520700489856</v>
+        <v>0.8924520700489854</v>
       </c>
       <c r="K13">
         <v>1.023034616324305</v>
       </c>
       <c r="L13">
-        <v>0.8976614875437376</v>
+        <v>0.8976614875437371</v>
       </c>
       <c r="M13">
-        <v>0.8663333477098429</v>
+        <v>0.8663333477098428</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -880,10 +880,10 @@
         <v>0.8586720073926521</v>
       </c>
       <c r="D14">
-        <v>1.008867473129784</v>
+        <v>1.008867473129785</v>
       </c>
       <c r="E14">
-        <v>0.8829568664187039</v>
+        <v>0.8829568664187036</v>
       </c>
       <c r="F14">
         <v>0.8514926763589714</v>
@@ -895,13 +895,13 @@
         <v>1.030524360289881</v>
       </c>
       <c r="J14">
-        <v>0.8954333521849495</v>
+        <v>0.8954333521849493</v>
       </c>
       <c r="K14">
         <v>1.023640829368541</v>
       </c>
       <c r="L14">
-        <v>0.9005046086180368</v>
+        <v>0.9005046086180366</v>
       </c>
       <c r="M14">
         <v>0.8699100844138016</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8608595493787875</v>
+        <v>0.8608595493787868</v>
       </c>
       <c r="D15">
-        <v>1.009332093007571</v>
+        <v>1.00933209300757</v>
       </c>
       <c r="E15">
-        <v>0.8848339223803253</v>
+        <v>0.8848339223803247</v>
       </c>
       <c r="F15">
-        <v>0.8538379740336806</v>
+        <v>0.8538379740336797</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030864257366558</v>
       </c>
       <c r="J15">
-        <v>0.8972378818628028</v>
+        <v>0.8972378818628022</v>
       </c>
       <c r="K15">
         <v>1.024009177792783</v>
       </c>
       <c r="L15">
-        <v>0.9022256258836439</v>
+        <v>0.9022256258836432</v>
       </c>
       <c r="M15">
-        <v>0.8720746301890874</v>
+        <v>0.8720746301890866</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8730462114820412</v>
+        <v>0.873046211482041</v>
       </c>
       <c r="D16">
         <v>1.011960138205903</v>
       </c>
       <c r="E16">
-        <v>0.8953039041532804</v>
+        <v>0.8953039041532802</v>
       </c>
       <c r="F16">
-        <v>0.8669029179639708</v>
+        <v>0.8669029179639703</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032765203322695</v>
       </c>
       <c r="J16">
-        <v>0.9072939656948872</v>
+        <v>0.9072939656948869</v>
       </c>
       <c r="K16">
         <v>1.026080701404433</v>
       </c>
       <c r="L16">
-        <v>0.9118179430186096</v>
+        <v>0.911817943018609</v>
       </c>
       <c r="M16">
-        <v>0.8841322686577296</v>
+        <v>0.8841322686577292</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8802634909014473</v>
+        <v>0.8802634909014476</v>
       </c>
       <c r="D17">
-        <v>1.013547659227381</v>
+        <v>1.013547659227382</v>
       </c>
       <c r="E17">
-        <v>0.9015146286508793</v>
+        <v>0.9015146286508796</v>
       </c>
       <c r="F17">
-        <v>0.8746405058805113</v>
+        <v>0.8746405058805116</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.033895893901697</v>
       </c>
       <c r="J17">
-        <v>0.9132514055527073</v>
+        <v>0.9132514055527077</v>
       </c>
       <c r="K17">
         <v>1.027322246650682</v>
       </c>
       <c r="L17">
-        <v>0.9175019788749821</v>
+        <v>0.9175019788749825</v>
       </c>
       <c r="M17">
-        <v>0.8912725722633791</v>
+        <v>0.8912725722633793</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,13 +1029,13 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8843374014101333</v>
+        <v>0.8843374014101328</v>
       </c>
       <c r="D18">
         <v>1.014453756151755</v>
       </c>
       <c r="E18">
-        <v>0.9050235914207695</v>
+        <v>0.905023591420769</v>
       </c>
       <c r="F18">
         <v>0.8790083903984531</v>
@@ -1044,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034535351941336</v>
+        <v>1.034535351941335</v>
       </c>
       <c r="J18">
         <v>0.9166146055155829</v>
@@ -1053,10 +1053,10 @@
         <v>1.028027577282716</v>
       </c>
       <c r="L18">
-        <v>0.9207112908038796</v>
+        <v>0.9207112908038794</v>
       </c>
       <c r="M18">
-        <v>0.8953029049447011</v>
+        <v>0.895302904944701</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.885704940265411</v>
+        <v>0.8857049402654117</v>
       </c>
       <c r="D19">
         <v>1.014759512668709</v>
       </c>
       <c r="E19">
-        <v>0.906201999442646</v>
+        <v>0.9062019994426463</v>
       </c>
       <c r="F19">
-        <v>0.8804746756871797</v>
+        <v>0.8804746756871799</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,13 +1085,13 @@
         <v>1.034750168230437</v>
       </c>
       <c r="J19">
-        <v>0.9177436212497571</v>
+        <v>0.9177436212497573</v>
       </c>
       <c r="K19">
         <v>1.028265045944437</v>
       </c>
       <c r="L19">
-        <v>0.9217887228418472</v>
+        <v>0.9217887228418475</v>
       </c>
       <c r="M19">
         <v>0.8966557998193235</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8795035561972268</v>
+        <v>0.8795035561972282</v>
       </c>
       <c r="D20">
-        <v>1.01337943168375</v>
+        <v>1.013379431683751</v>
       </c>
       <c r="E20">
-        <v>0.9008603323833388</v>
+        <v>0.9008603323833398</v>
       </c>
       <c r="F20">
-        <v>0.8738257612751738</v>
+        <v>0.873825761275175</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033776700004855</v>
       </c>
       <c r="J20">
-        <v>0.91262407383841</v>
+        <v>0.9126240738384114</v>
       </c>
       <c r="K20">
-        <v>1.02719103012041</v>
+        <v>1.027191030120411</v>
       </c>
       <c r="L20">
-        <v>0.9169033887047763</v>
+        <v>0.9169033887047776</v>
       </c>
       <c r="M20">
-        <v>0.890520757496673</v>
+        <v>0.8905207574966745</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8576159855741303</v>
+        <v>0.8576159855741301</v>
       </c>
       <c r="D21">
-        <v>1.008643966658297</v>
+        <v>1.008643966658296</v>
       </c>
       <c r="E21">
         <v>0.8820509896238071</v>
       </c>
       <c r="F21">
-        <v>0.8503604772100104</v>
+        <v>0.8503604772100097</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030360438718545</v>
       </c>
       <c r="J21">
-        <v>0.8945622987093671</v>
+        <v>0.8945622987093669</v>
       </c>
       <c r="K21">
         <v>1.023463406309085</v>
       </c>
       <c r="L21">
-        <v>0.8996738979343196</v>
+        <v>0.8996738979343193</v>
       </c>
       <c r="M21">
-        <v>0.8688651430488661</v>
+        <v>0.8688651430488656</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8421740925399792</v>
+        <v>0.8421740925399783</v>
       </c>
       <c r="D22">
         <v>1.005434980447984</v>
       </c>
       <c r="E22">
-        <v>0.868824452702318</v>
+        <v>0.8688244527023168</v>
       </c>
       <c r="F22">
-        <v>0.8338020803942972</v>
+        <v>0.8338020803942958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027976890373561</v>
+        <v>1.027976890373562</v>
       </c>
       <c r="J22">
-        <v>0.881831325427058</v>
+        <v>0.881831325427057</v>
       </c>
       <c r="K22">
         <v>1.020899532766932</v>
       </c>
       <c r="L22">
-        <v>0.8875348153581444</v>
+        <v>0.887534815358143</v>
       </c>
       <c r="M22">
-        <v>0.8535834501190857</v>
+        <v>0.8535834501190844</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1225,7 +1225,7 @@
         <v>1.007161354988911</v>
       </c>
       <c r="E23">
-        <v>0.8759925322790276</v>
+        <v>0.8759925322790275</v>
       </c>
       <c r="F23">
         <v>0.8427823805957182</v>
@@ -1240,13 +1240,13 @@
         <v>0.888733797554488</v>
       </c>
       <c r="K23">
-        <v>1.022282710347277</v>
+        <v>1.022282710347276</v>
       </c>
       <c r="L23">
-        <v>0.8941158568670873</v>
+        <v>0.8941158568670871</v>
       </c>
       <c r="M23">
-        <v>0.8618711495978975</v>
+        <v>0.8618711495978972</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8798473533767707</v>
+        <v>0.8798473533767703</v>
       </c>
       <c r="D24">
-        <v>1.013455507399746</v>
+        <v>1.013455507399747</v>
       </c>
       <c r="E24">
-        <v>0.9011563283724667</v>
+        <v>0.9011563283724666</v>
       </c>
       <c r="F24">
-        <v>0.8741943537291254</v>
+        <v>0.8741943537291252</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033830620053067</v>
       </c>
       <c r="J24">
-        <v>0.9129078796805932</v>
+        <v>0.9129078796805931</v>
       </c>
       <c r="K24">
-        <v>1.027250378972802</v>
+        <v>1.027250378972803</v>
       </c>
       <c r="L24">
         <v>0.9171741903958565</v>
       </c>
       <c r="M24">
-        <v>0.8908608815692254</v>
+        <v>0.8908608815692253</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9085667990693129</v>
+        <v>0.9085667990693137</v>
       </c>
       <c r="D25">
-        <v>1.019986031751084</v>
+        <v>1.019986031751085</v>
       </c>
       <c r="E25">
-        <v>0.925938799214874</v>
+        <v>0.9259387992148747</v>
       </c>
       <c r="F25">
-        <v>0.9049955300699626</v>
+        <v>0.9049955300699637</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.038346838142157</v>
       </c>
       <c r="J25">
-        <v>0.9366182677860083</v>
+        <v>0.9366182677860092</v>
       </c>
       <c r="K25">
         <v>1.032281815017536</v>
       </c>
       <c r="L25">
-        <v>0.9398070213353626</v>
+        <v>0.9398070213353635</v>
       </c>
       <c r="M25">
-        <v>0.9192724939586862</v>
+        <v>0.9192724939586873</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9286057656466922</v>
+        <v>0.9287006392130398</v>
       </c>
       <c r="D2">
-        <v>1.024735426795714</v>
+        <v>1.024746352093902</v>
       </c>
       <c r="E2">
-        <v>0.9432924718848404</v>
+        <v>0.9433773228226823</v>
       </c>
       <c r="F2">
-        <v>0.9265101129443504</v>
+        <v>0.9266038745689035</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041489692129629</v>
+        <v>1.041502754245644</v>
       </c>
       <c r="J2">
-        <v>0.9531538039433088</v>
+        <v>0.9532451913517317</v>
       </c>
       <c r="K2">
-        <v>1.03586058664523</v>
+        <v>1.03587136881063</v>
       </c>
       <c r="L2">
-        <v>0.9556027558158737</v>
+        <v>0.9556862354178673</v>
       </c>
       <c r="M2">
-        <v>0.9390979999639275</v>
+        <v>0.9391901745984936</v>
+      </c>
+      <c r="N2">
+        <v>0.9693226076207616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9419162068951579</v>
+        <v>0.9419937343284085</v>
       </c>
       <c r="D3">
-        <v>1.027969165744538</v>
+        <v>1.027978090712746</v>
       </c>
       <c r="E3">
-        <v>0.9548452065100851</v>
+        <v>0.9549147161494362</v>
       </c>
       <c r="F3">
-        <v>0.9408180895422921</v>
+        <v>0.9408945434588243</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043558118220478</v>
+        <v>1.043568858283006</v>
       </c>
       <c r="J3">
-        <v>0.9641260778047974</v>
+        <v>0.9642011143570225</v>
       </c>
       <c r="K3">
-        <v>1.038256258756356</v>
+        <v>1.038265077108943</v>
       </c>
       <c r="L3">
-        <v>0.9660904240295023</v>
+        <v>0.9661589347214155</v>
       </c>
       <c r="M3">
-        <v>0.9522687366993572</v>
+        <v>0.9523440498212811</v>
+      </c>
+      <c r="N3">
+        <v>0.9769539451720959</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9500537160837582</v>
+        <v>0.9501211573542504</v>
       </c>
       <c r="D4">
-        <v>1.029974552623253</v>
+        <v>1.029982316106055</v>
       </c>
       <c r="E4">
-        <v>0.9619178216759744</v>
+        <v>0.9619783890315359</v>
       </c>
       <c r="F4">
-        <v>0.9495743842343818</v>
+        <v>0.949640813912851</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044810153270511</v>
+        <v>1.044819537798356</v>
       </c>
       <c r="J4">
-        <v>0.9708274929242342</v>
+        <v>0.9708929507192597</v>
       </c>
       <c r="K4">
-        <v>1.039724185786342</v>
+        <v>1.039731862170617</v>
       </c>
       <c r="L4">
-        <v>0.9724986853293494</v>
+        <v>0.9725584473455332</v>
       </c>
       <c r="M4">
-        <v>0.9603220740074436</v>
+        <v>0.9603875912424065</v>
+      </c>
+      <c r="N4">
+        <v>0.9816114051137076</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9533727350044849</v>
+        <v>0.9534361653961075</v>
       </c>
       <c r="D5">
-        <v>1.030798273088405</v>
+        <v>1.030805575099233</v>
       </c>
       <c r="E5">
-        <v>0.9648045595629997</v>
+        <v>0.9648615667003344</v>
       </c>
       <c r="F5">
-        <v>0.953148035458766</v>
+        <v>0.9532104871594006</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045317334407883</v>
+        <v>1.04532617886662</v>
       </c>
       <c r="J5">
-        <v>0.9735590000128208</v>
+        <v>0.9736206338242982</v>
       </c>
       <c r="K5">
-        <v>1.040323024837192</v>
+        <v>1.040330247123407</v>
       </c>
       <c r="L5">
-        <v>0.9751113724977398</v>
+        <v>0.9751676463859266</v>
       </c>
       <c r="M5">
-        <v>0.9636070909014621</v>
+        <v>0.963668714490731</v>
+      </c>
+      <c r="N5">
+        <v>0.9835089013268336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9539243369418346</v>
+        <v>0.9539871062749347</v>
       </c>
       <c r="D6">
-        <v>1.030935484129855</v>
+        <v>1.030942710106304</v>
       </c>
       <c r="E6">
-        <v>0.9652844326211293</v>
+        <v>0.9653408527537825</v>
       </c>
       <c r="F6">
-        <v>0.9537420911060652</v>
+        <v>0.9538038876277428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045401407051494</v>
+        <v>1.045410162443891</v>
       </c>
       <c r="J6">
-        <v>0.9740128512719114</v>
+        <v>0.9740738540084571</v>
       </c>
       <c r="K6">
-        <v>1.040422537458535</v>
+        <v>1.040429684903573</v>
       </c>
       <c r="L6">
-        <v>0.9755455206272202</v>
+        <v>0.9756012191191993</v>
       </c>
       <c r="M6">
-        <v>0.9641530620647264</v>
+        <v>0.964214044017863</v>
+      </c>
+      <c r="N6">
+        <v>0.9838241240324862</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.950098451675999</v>
+        <v>0.9501658385010715</v>
       </c>
       <c r="D7">
-        <v>1.029985633423645</v>
+        <v>1.0299933906406</v>
       </c>
       <c r="E7">
-        <v>0.9619567229049661</v>
+        <v>0.9620172419482681</v>
       </c>
       <c r="F7">
-        <v>0.9496225428221617</v>
+        <v>0.9496889184700615</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044817003789503</v>
+        <v>1.04482638099003</v>
       </c>
       <c r="J7">
-        <v>0.9708643170012482</v>
+        <v>0.9709297229448867</v>
       </c>
       <c r="K7">
-        <v>1.039732257628809</v>
+        <v>1.039739927848856</v>
       </c>
       <c r="L7">
-        <v>0.9725339049091167</v>
+        <v>0.9725936196105585</v>
       </c>
       <c r="M7">
-        <v>0.9603663499556525</v>
+        <v>0.9604318143296112</v>
+      </c>
+      <c r="N7">
+        <v>0.98163698932334</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.933210291185579</v>
+        <v>0.9332990373463254</v>
       </c>
       <c r="D8">
-        <v>1.025847294364691</v>
+        <v>1.025857512717474</v>
       </c>
       <c r="E8">
-        <v>0.9472866750805208</v>
+        <v>0.9473661124124962</v>
       </c>
       <c r="F8">
-        <v>0.9314578750732173</v>
+        <v>0.931545513184368</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042207602509842</v>
+        <v>1.042219845753646</v>
       </c>
       <c r="J8">
-        <v>0.9569507759311551</v>
+        <v>0.9570364049534449</v>
       </c>
       <c r="K8">
-        <v>1.036688169862633</v>
+        <v>1.036698258379588</v>
       </c>
       <c r="L8">
-        <v>0.9592314163892945</v>
+        <v>0.9593096194462091</v>
       </c>
       <c r="M8">
-        <v>0.943653953321916</v>
+        <v>0.9437401696803548</v>
+      </c>
+      <c r="N8">
+        <v>0.9719641408364927</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8991345996273066</v>
+        <v>0.8992724507339035</v>
       </c>
       <c r="D9">
-        <v>1.017803875012986</v>
+        <v>1.017819763366648</v>
       </c>
       <c r="E9">
-        <v>0.9177876752666296</v>
+        <v>0.9179103163254658</v>
       </c>
       <c r="F9">
-        <v>0.8948765843624112</v>
+        <v>0.8950135803258731</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036862519445057</v>
+        <v>1.036881279597464</v>
       </c>
       <c r="J9">
-        <v>0.9288314367400047</v>
+        <v>0.9289627049614895</v>
       </c>
       <c r="K9">
-        <v>1.030614553036884</v>
+        <v>1.030630195012062</v>
       </c>
       <c r="L9">
-        <v>0.9323720584139051</v>
+        <v>0.9324922126236822</v>
       </c>
       <c r="M9">
-        <v>0.9099414268769771</v>
+        <v>0.9100754528941788</v>
+      </c>
+      <c r="N9">
+        <v>0.9523895654326029</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8722109926075019</v>
+        <v>0.8723954232135868</v>
       </c>
       <c r="D10">
-        <v>1.011777901432975</v>
+        <v>1.011799160751925</v>
       </c>
       <c r="E10">
-        <v>0.8945856469473843</v>
+        <v>0.8947488816961648</v>
       </c>
       <c r="F10">
-        <v>0.8660075100695844</v>
+        <v>0.8661918845509964</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032634562922582</v>
+        <v>1.032659403570451</v>
       </c>
       <c r="J10">
-        <v>0.9066046203227862</v>
+        <v>0.9067782003642181</v>
       </c>
       <c r="K10">
-        <v>1.025937709323153</v>
+        <v>1.025958596299078</v>
       </c>
       <c r="L10">
-        <v>0.9111602993025362</v>
+        <v>0.9113195783554623</v>
       </c>
       <c r="M10">
-        <v>0.8833059348204608</v>
+        <v>0.883485431950814</v>
+      </c>
+      <c r="N10">
+        <v>0.9369073569952098</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8590918528326557</v>
+        <v>0.8593023782043901</v>
       </c>
       <c r="D11">
-        <v>1.008956475549329</v>
+        <v>1.00898073281494</v>
       </c>
       <c r="E11">
-        <v>0.8833170654245107</v>
+        <v>0.8835028815858508</v>
       </c>
       <c r="F11">
-        <v>0.8519428036624589</v>
+        <v>0.8521539350773611</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030589560593987</v>
+        <v>1.030617764180192</v>
       </c>
       <c r="J11">
-        <v>0.8957796724181659</v>
+        <v>0.8959765947753897</v>
       </c>
       <c r="K11">
-        <v>1.023711439626386</v>
+        <v>1.023735249971343</v>
       </c>
       <c r="L11">
-        <v>0.9008348946494998</v>
+        <v>0.9010158363788054</v>
       </c>
       <c r="M11">
-        <v>0.8703255207394324</v>
+        <v>0.8705305399723705</v>
+      </c>
+      <c r="N11">
+        <v>0.9293680612581356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8539378407609537</v>
+        <v>0.8541593642668714</v>
       </c>
       <c r="D12">
-        <v>1.007869505668612</v>
+        <v>1.007895023342379</v>
       </c>
       <c r="E12">
-        <v>0.8788971365734728</v>
+        <v>0.879092437392204</v>
       </c>
       <c r="F12">
-        <v>0.8464168700808079</v>
+        <v>0.8466393215054288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029790354677671</v>
+        <v>1.029819966558304</v>
       </c>
       <c r="J12">
-        <v>0.8915287882904465</v>
+        <v>0.8917354788891012</v>
       </c>
       <c r="K12">
-        <v>1.022847475576821</v>
+        <v>1.022872514306445</v>
       </c>
       <c r="L12">
-        <v>0.8967810407162757</v>
+        <v>0.8969710622880814</v>
       </c>
       <c r="M12">
-        <v>0.8652254789205746</v>
+        <v>0.8654412649550642</v>
+      </c>
+      <c r="N12">
+        <v>0.9264079955249946</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8550574032458861</v>
+        <v>0.8552764988876048</v>
       </c>
       <c r="D13">
-        <v>1.008104575381145</v>
+        <v>1.008129814988343</v>
       </c>
       <c r="E13">
-        <v>0.8798568934062737</v>
+        <v>0.8800501020896367</v>
       </c>
       <c r="F13">
-        <v>0.8476172589517498</v>
+        <v>0.8478372093438817</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029963733956072</v>
+        <v>1.029993035406769</v>
       </c>
       <c r="J13">
-        <v>0.8924520700489854</v>
+        <v>0.8926566076850647</v>
       </c>
       <c r="K13">
-        <v>1.023034616324305</v>
+        <v>1.023059384082171</v>
       </c>
       <c r="L13">
-        <v>0.8976614875437371</v>
+        <v>0.8978495071837352</v>
       </c>
       <c r="M13">
-        <v>0.8663333477098428</v>
+        <v>0.8665467564433018</v>
+      </c>
+      <c r="N13">
+        <v>0.9270508801699351</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8586720073926521</v>
+        <v>0.8588834118825928</v>
       </c>
       <c r="D14">
-        <v>1.008867473129785</v>
+        <v>1.008891831216449</v>
       </c>
       <c r="E14">
-        <v>0.8829568664187036</v>
+        <v>0.883143441419973</v>
       </c>
       <c r="F14">
-        <v>0.8514926763589714</v>
+        <v>0.8517047117106172</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030524360289881</v>
+        <v>1.030552676641006</v>
       </c>
       <c r="J14">
-        <v>0.8954333521849493</v>
+        <v>0.8956310568194528</v>
       </c>
       <c r="K14">
-        <v>1.023640829368541</v>
+        <v>1.023664737986135</v>
       </c>
       <c r="L14">
-        <v>0.9005046086180366</v>
+        <v>0.9006862771933338</v>
       </c>
       <c r="M14">
-        <v>0.8699100844138016</v>
+        <v>0.8701159640575448</v>
+      </c>
+      <c r="N14">
+        <v>0.9291268897266791</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8608595493787868</v>
+        <v>0.8610664049335586</v>
       </c>
       <c r="D15">
-        <v>1.00933209300757</v>
+        <v>1.009355929270728</v>
       </c>
       <c r="E15">
-        <v>0.8848339223803247</v>
+        <v>0.8850165694911075</v>
       </c>
       <c r="F15">
-        <v>0.8538379740336797</v>
+        <v>0.8540453337595559</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030864257366558</v>
+        <v>1.030891989854194</v>
       </c>
       <c r="J15">
-        <v>0.8972378818628022</v>
+        <v>0.8974315358485012</v>
       </c>
       <c r="K15">
-        <v>1.024009177792783</v>
+        <v>1.024032577750709</v>
       </c>
       <c r="L15">
-        <v>0.9022256258836432</v>
+        <v>0.9024035314159654</v>
       </c>
       <c r="M15">
-        <v>0.8720746301890866</v>
+        <v>0.8722760581060133</v>
+      </c>
+      <c r="N15">
+        <v>0.9303835591921228</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.873046211482041</v>
+        <v>0.8732290651505002</v>
       </c>
       <c r="D16">
-        <v>1.011960138205903</v>
+        <v>1.011981216052168</v>
       </c>
       <c r="E16">
-        <v>0.8953039041532802</v>
+        <v>0.8954657706870999</v>
       </c>
       <c r="F16">
-        <v>0.8669029179639703</v>
+        <v>0.8670856802332945</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032765203322695</v>
+        <v>1.03278983975525</v>
       </c>
       <c r="J16">
-        <v>0.9072939656948869</v>
+        <v>0.9074661272784011</v>
       </c>
       <c r="K16">
-        <v>1.026080701404433</v>
+        <v>1.026101411339364</v>
       </c>
       <c r="L16">
-        <v>0.911817943018609</v>
+        <v>0.9119759073532022</v>
       </c>
       <c r="M16">
-        <v>0.8841322686577292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8843102245469967</v>
+      </c>
+      <c r="N16">
+        <v>0.9373875169399078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8802634909014476</v>
+        <v>0.8804330993657887</v>
       </c>
       <c r="D17">
-        <v>1.013547659227382</v>
+        <v>1.013567211647563</v>
       </c>
       <c r="E17">
-        <v>0.9015146286508796</v>
+        <v>0.9016649865396816</v>
       </c>
       <c r="F17">
-        <v>0.8746405058805116</v>
+        <v>0.8748097487880885</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033895893901697</v>
+        <v>1.033918810551678</v>
       </c>
       <c r="J17">
-        <v>0.9132514055527077</v>
+        <v>0.9134116158308466</v>
       </c>
       <c r="K17">
-        <v>1.027322246650682</v>
+        <v>1.027341467980232</v>
       </c>
       <c r="L17">
-        <v>0.9175019788749825</v>
+        <v>0.9176488740774703</v>
       </c>
       <c r="M17">
-        <v>0.8912725722633793</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8914375877620376</v>
+      </c>
+      <c r="N17">
+        <v>0.9415372666134648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8843374014101328</v>
+        <v>0.8844998193737947</v>
       </c>
       <c r="D18">
-        <v>1.014453756151755</v>
+        <v>1.014472479660495</v>
       </c>
       <c r="E18">
-        <v>0.905023591420769</v>
+        <v>0.9051676890046846</v>
       </c>
       <c r="F18">
-        <v>0.8790083903984531</v>
+        <v>0.8791703108546645</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034535351941335</v>
+        <v>1.034557331569218</v>
       </c>
       <c r="J18">
-        <v>0.9166146055155829</v>
+        <v>0.9167682990837086</v>
       </c>
       <c r="K18">
-        <v>1.028027577282716</v>
+        <v>1.028045989359355</v>
       </c>
       <c r="L18">
-        <v>0.9207112908038794</v>
+        <v>0.9208521566450699</v>
       </c>
       <c r="M18">
-        <v>0.895302904944701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8954608991858531</v>
+      </c>
+      <c r="N18">
+        <v>0.943880003122606</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8857049402654117</v>
+        <v>0.8858649882338667</v>
       </c>
       <c r="D19">
-        <v>1.014759512668709</v>
+        <v>1.014777962860147</v>
       </c>
       <c r="E19">
-        <v>0.9062019994426463</v>
+        <v>0.906344031671283</v>
       </c>
       <c r="F19">
-        <v>0.8804746756871799</v>
+        <v>0.8806341853124087</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034750168230437</v>
+        <v>1.034771838490023</v>
       </c>
       <c r="J19">
-        <v>0.9177436212497573</v>
+        <v>0.9178951623643905</v>
       </c>
       <c r="K19">
-        <v>1.028265045944437</v>
+        <v>1.028283191127312</v>
       </c>
       <c r="L19">
-        <v>0.9217887228418475</v>
+        <v>0.921927598216094</v>
       </c>
       <c r="M19">
-        <v>0.8966557998193235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8968114804345687</v>
+      </c>
+      <c r="N19">
+        <v>0.9446664507774382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8795035561972282</v>
+        <v>0.8796745281370695</v>
       </c>
       <c r="D20">
-        <v>1.013379431683751</v>
+        <v>1.013399141224453</v>
       </c>
       <c r="E20">
-        <v>0.9008603323833398</v>
+        <v>0.9010118763613412</v>
       </c>
       <c r="F20">
-        <v>0.873825761275175</v>
+        <v>0.8739963940329077</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033776700004855</v>
+        <v>1.033799794064697</v>
       </c>
       <c r="J20">
-        <v>0.9126240738384114</v>
+        <v>0.912785517520457</v>
       </c>
       <c r="K20">
-        <v>1.027191030120411</v>
+        <v>1.027210404815264</v>
       </c>
       <c r="L20">
-        <v>0.9169033887047776</v>
+        <v>0.9170514255834705</v>
       </c>
       <c r="M20">
-        <v>0.8905207574966745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8906871046791677</v>
+      </c>
+      <c r="N20">
+        <v>0.9411002815177906</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8576159855741301</v>
+        <v>0.8578296142067224</v>
       </c>
       <c r="D21">
-        <v>1.008643966658296</v>
+        <v>1.008668579763865</v>
       </c>
       <c r="E21">
-        <v>0.8820509896238071</v>
+        <v>0.8822394839215717</v>
       </c>
       <c r="F21">
-        <v>0.8503604772100097</v>
+        <v>0.8505748002057351</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030360438718545</v>
+        <v>1.030389040209404</v>
       </c>
       <c r="J21">
-        <v>0.8945622987093669</v>
+        <v>0.8947619813304379</v>
       </c>
       <c r="K21">
-        <v>1.023463406309085</v>
+        <v>1.023487563489046</v>
       </c>
       <c r="L21">
-        <v>0.8996738979343193</v>
+        <v>0.8998574045755228</v>
       </c>
       <c r="M21">
-        <v>0.8688651430488656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8690731996743963</v>
+      </c>
+      <c r="N21">
+        <v>0.9285203136840244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8421740925399783</v>
+        <v>0.8424225455424041</v>
       </c>
       <c r="D22">
-        <v>1.005434980447984</v>
+        <v>1.005463575518722</v>
       </c>
       <c r="E22">
-        <v>0.8688244527023168</v>
+        <v>0.869042899326</v>
       </c>
       <c r="F22">
-        <v>0.8338020803942958</v>
+        <v>0.8340523503945733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027976890373562</v>
+        <v>1.02800992865753</v>
       </c>
       <c r="J22">
-        <v>0.881831325427057</v>
+        <v>0.8820617735856805</v>
       </c>
       <c r="K22">
-        <v>1.020899532766932</v>
+        <v>1.020927569389688</v>
       </c>
       <c r="L22">
-        <v>0.887534815358143</v>
+        <v>0.887746952512345</v>
       </c>
       <c r="M22">
-        <v>0.8535834501190844</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8538256236542</v>
+      </c>
+      <c r="N22">
+        <v>0.9196570183154367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8505482156909963</v>
+        <v>0.8507772269414413</v>
       </c>
       <c r="D23">
-        <v>1.007161354988911</v>
+        <v>1.007187729614127</v>
       </c>
       <c r="E23">
-        <v>0.8759925322790275</v>
+        <v>0.8761942797123669</v>
       </c>
       <c r="F23">
-        <v>0.8427823805957182</v>
+        <v>0.8430125528345982</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029266227358304</v>
+        <v>1.029296795029294</v>
       </c>
       <c r="J23">
-        <v>0.888733797554488</v>
+        <v>0.8889471162432918</v>
       </c>
       <c r="K23">
-        <v>1.022282710347276</v>
+        <v>1.022308584063949</v>
       </c>
       <c r="L23">
-        <v>0.8941158568670871</v>
+        <v>0.8943120439652292</v>
       </c>
       <c r="M23">
-        <v>0.8618711495978972</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8620942692202237</v>
+      </c>
+      <c r="N23">
+        <v>0.9244619618932914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8798473533767703</v>
+        <v>0.8800177075942871</v>
       </c>
       <c r="D24">
-        <v>1.013455507399747</v>
+        <v>1.013475145759469</v>
       </c>
       <c r="E24">
-        <v>0.9011563283724666</v>
+        <v>0.9013073350323697</v>
       </c>
       <c r="F24">
-        <v>0.8741943537291252</v>
+        <v>0.8743643567623915</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033830620053067</v>
+        <v>1.033853633748054</v>
       </c>
       <c r="J24">
-        <v>0.9129078796805931</v>
+        <v>0.913068764659433</v>
       </c>
       <c r="K24">
-        <v>1.027250378972803</v>
+        <v>1.027269684189029</v>
       </c>
       <c r="L24">
-        <v>0.9171741903958565</v>
+        <v>0.9173217101019256</v>
       </c>
       <c r="M24">
-        <v>0.8908608815692253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8910266254207725</v>
+      </c>
+      <c r="N24">
+        <v>0.9412979741379096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9085667990693137</v>
+        <v>0.9086901168187086</v>
       </c>
       <c r="D25">
-        <v>1.019986031751085</v>
+        <v>1.020000241561082</v>
       </c>
       <c r="E25">
-        <v>0.9259387992148747</v>
+        <v>0.9260486971196198</v>
       </c>
       <c r="F25">
-        <v>0.9049955300699637</v>
+        <v>0.9051178516549828</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038346838142157</v>
+        <v>1.03836368063426</v>
       </c>
       <c r="J25">
-        <v>0.9366182677860092</v>
+        <v>0.9367361462059235</v>
       </c>
       <c r="K25">
-        <v>1.032281815017536</v>
+        <v>1.032295815089178</v>
       </c>
       <c r="L25">
-        <v>0.9398070213353635</v>
+        <v>0.9399148381393847</v>
       </c>
       <c r="M25">
-        <v>0.9192724939586873</v>
+        <v>0.9193923559540399</v>
+      </c>
+      <c r="N25">
+        <v>0.957812429542689</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9287006392130398</v>
+        <v>1.024502886288964</v>
       </c>
       <c r="D2">
-        <v>1.024746352093902</v>
+        <v>1.061677652983896</v>
       </c>
       <c r="E2">
-        <v>0.9433773228226823</v>
+        <v>1.038610458408569</v>
       </c>
       <c r="F2">
-        <v>0.9266038745689035</v>
+        <v>1.057729806267885</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041502754245644</v>
+        <v>1.068780647341578</v>
       </c>
       <c r="J2">
-        <v>0.9532451913517317</v>
+        <v>1.045974629010545</v>
       </c>
       <c r="K2">
-        <v>1.03587136881063</v>
+        <v>1.072339736048742</v>
       </c>
       <c r="L2">
-        <v>0.9556862354178673</v>
+        <v>1.049556870887827</v>
       </c>
       <c r="M2">
-        <v>0.9391901745984936</v>
+        <v>1.068439458437537</v>
       </c>
       <c r="N2">
-        <v>0.9693226076207616</v>
+        <v>1.047460032958706</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9419937343284085</v>
+        <v>1.035063032477212</v>
       </c>
       <c r="D3">
-        <v>1.027978090712746</v>
+        <v>1.067889025314592</v>
       </c>
       <c r="E3">
-        <v>0.9549147161494362</v>
+        <v>1.047471022512526</v>
       </c>
       <c r="F3">
-        <v>0.9408945434588243</v>
+        <v>1.065755066146626</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043568858283006</v>
+        <v>1.072116753992571</v>
       </c>
       <c r="J3">
-        <v>0.9642011143570225</v>
+        <v>1.054641431611548</v>
       </c>
       <c r="K3">
-        <v>1.038265077108943</v>
+        <v>1.077721138274967</v>
       </c>
       <c r="L3">
-        <v>0.9661589347214155</v>
+        <v>1.057530501684965</v>
       </c>
       <c r="M3">
-        <v>0.9523440498212811</v>
+        <v>1.075610441342955</v>
       </c>
       <c r="N3">
-        <v>0.9769539451720959</v>
+        <v>1.056139143413499</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9501211573542504</v>
+        <v>1.041633670851783</v>
       </c>
       <c r="D4">
-        <v>1.029982316106055</v>
+        <v>1.071761694786855</v>
       </c>
       <c r="E4">
-        <v>0.9619783890315359</v>
+        <v>1.052987805670158</v>
       </c>
       <c r="F4">
-        <v>0.949640813912851</v>
+        <v>1.070756693740835</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044819537798356</v>
+        <v>1.074179193185621</v>
       </c>
       <c r="J4">
-        <v>0.9708929507192597</v>
+        <v>1.060029181676431</v>
       </c>
       <c r="K4">
-        <v>1.039731862170617</v>
+        <v>1.081064806694567</v>
       </c>
       <c r="L4">
-        <v>0.9725584473455332</v>
+        <v>1.062486161647469</v>
       </c>
       <c r="M4">
-        <v>0.9603875912424065</v>
+        <v>1.080070046048489</v>
       </c>
       <c r="N4">
-        <v>0.9816114051137076</v>
+        <v>1.061534544701458</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9534361653961075</v>
+        <v>1.044337801553527</v>
       </c>
       <c r="D5">
-        <v>1.030805575099233</v>
+        <v>1.073357035136276</v>
       </c>
       <c r="E5">
-        <v>0.9648615667003344</v>
+        <v>1.055258922827971</v>
       </c>
       <c r="F5">
-        <v>0.9532104871594006</v>
+        <v>1.072816797561921</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04532617886662</v>
+        <v>1.075024641345233</v>
       </c>
       <c r="J5">
-        <v>0.9736206338242982</v>
+        <v>1.062245234487677</v>
       </c>
       <c r="K5">
-        <v>1.040330247123407</v>
+        <v>1.082439520440769</v>
       </c>
       <c r="L5">
-        <v>0.9751676463859266</v>
+        <v>1.064524163627275</v>
       </c>
       <c r="M5">
-        <v>0.963668714490731</v>
+        <v>1.08190462975163</v>
       </c>
       <c r="N5">
-        <v>0.9835089013268336</v>
+        <v>1.063753744561881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9539871062749347</v>
+        <v>1.044788551977918</v>
       </c>
       <c r="D6">
-        <v>1.030942710106304</v>
+        <v>1.07362304379771</v>
       </c>
       <c r="E6">
-        <v>0.9653408527537825</v>
+        <v>1.055637530700826</v>
       </c>
       <c r="F6">
-        <v>0.9538038876277428</v>
+        <v>1.073160287632571</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045410162443891</v>
+        <v>1.07516536795824</v>
       </c>
       <c r="J6">
-        <v>0.9740738540084571</v>
+        <v>1.062614550263805</v>
       </c>
       <c r="K6">
-        <v>1.040429684903573</v>
+        <v>1.082668584073363</v>
       </c>
       <c r="L6">
-        <v>0.9756012191191993</v>
+        <v>1.064863785978313</v>
       </c>
       <c r="M6">
-        <v>0.964214044017863</v>
+        <v>1.082210385419454</v>
       </c>
       <c r="N6">
-        <v>0.9838241240324862</v>
+        <v>1.064123584808772</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9501658385010715</v>
+        <v>1.041670026356237</v>
       </c>
       <c r="D7">
-        <v>1.0299933906406</v>
+        <v>1.071783137505137</v>
       </c>
       <c r="E7">
-        <v>0.9620172419482681</v>
+        <v>1.053018337004644</v>
       </c>
       <c r="F7">
-        <v>0.9496889184700615</v>
+        <v>1.070784384292217</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04482638099003</v>
+        <v>1.074190573200638</v>
       </c>
       <c r="J7">
-        <v>0.9709297229448867</v>
+        <v>1.060058980388328</v>
       </c>
       <c r="K7">
-        <v>1.039739927848856</v>
+        <v>1.081083294653016</v>
       </c>
       <c r="L7">
-        <v>0.9725936196105585</v>
+        <v>1.062513567503674</v>
       </c>
       <c r="M7">
-        <v>0.9604318143296112</v>
+        <v>1.080094714252518</v>
       </c>
       <c r="N7">
-        <v>0.98163698932334</v>
+        <v>1.061564385730944</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9332990373463254</v>
+        <v>1.02812908002306</v>
       </c>
       <c r="D8">
-        <v>1.025857512717474</v>
+        <v>1.06380864785923</v>
       </c>
       <c r="E8">
-        <v>0.9473661124124962</v>
+        <v>1.041652152225706</v>
       </c>
       <c r="F8">
-        <v>0.931545513184368</v>
+        <v>1.06048363100686</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042219845753646</v>
+        <v>1.069928949427594</v>
       </c>
       <c r="J8">
-        <v>0.9570364049534449</v>
+        <v>1.048951634568462</v>
       </c>
       <c r="K8">
-        <v>1.036698258379588</v>
+        <v>1.074188470949914</v>
       </c>
       <c r="L8">
-        <v>0.9593096194462091</v>
+        <v>1.052295996518934</v>
       </c>
       <c r="M8">
-        <v>0.9437401696803548</v>
+        <v>1.070902205050579</v>
       </c>
       <c r="N8">
-        <v>0.9719641408364927</v>
+        <v>1.050441266205984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8992724507339035</v>
+        <v>1.002013382419642</v>
       </c>
       <c r="D9">
-        <v>1.017819763366648</v>
+        <v>1.048512682651573</v>
       </c>
       <c r="E9">
-        <v>0.9179103163254658</v>
+        <v>1.019770836592166</v>
       </c>
       <c r="F9">
-        <v>0.8950135803258731</v>
+        <v>1.040700630058121</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036881279597464</v>
+        <v>1.06160729690504</v>
       </c>
       <c r="J9">
-        <v>0.9289627049614895</v>
+        <v>1.027495242748609</v>
       </c>
       <c r="K9">
-        <v>1.030630195012062</v>
+        <v>1.060864825462966</v>
       </c>
       <c r="L9">
-        <v>0.9324922126236822</v>
+        <v>1.032551087730412</v>
       </c>
       <c r="M9">
-        <v>0.9100754528941788</v>
+        <v>1.053166162455735</v>
       </c>
       <c r="N9">
-        <v>0.9523895654326029</v>
+        <v>1.028954403848663</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8723954232135868</v>
+        <v>0.9826755134664359</v>
       </c>
       <c r="D10">
-        <v>1.011799160751925</v>
+        <v>1.037275627324998</v>
       </c>
       <c r="E10">
-        <v>0.8947488816961648</v>
+        <v>1.00361283450012</v>
       </c>
       <c r="F10">
-        <v>0.8661918845509964</v>
+        <v>1.026135451487876</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032659403570451</v>
+        <v>1.055388040787382</v>
       </c>
       <c r="J10">
-        <v>0.9067782003642181</v>
+        <v>1.011593759282188</v>
       </c>
       <c r="K10">
-        <v>1.025958596299078</v>
+        <v>1.051002966350979</v>
       </c>
       <c r="L10">
-        <v>0.9113195783554623</v>
+        <v>1.017917163059097</v>
       </c>
       <c r="M10">
-        <v>0.883485431950814</v>
+        <v>1.040048329059669</v>
       </c>
       <c r="N10">
-        <v>0.9369073569952098</v>
+        <v>1.013030338451794</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8593023782043901</v>
+        <v>0.9737259611278996</v>
       </c>
       <c r="D11">
-        <v>1.00898073281494</v>
+        <v>1.032105067324481</v>
       </c>
       <c r="E11">
-        <v>0.8835028815858508</v>
+        <v>0.9961503383089194</v>
       </c>
       <c r="F11">
-        <v>0.8521539350773611</v>
+        <v>1.019421928375233</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030617764180192</v>
+        <v>1.052499800198239</v>
       </c>
       <c r="J11">
-        <v>0.8959765947753897</v>
+        <v>1.004234145407466</v>
       </c>
       <c r="K11">
-        <v>1.023735249971343</v>
+        <v>1.046445905227403</v>
       </c>
       <c r="L11">
-        <v>0.9010158363788054</v>
+        <v>1.011145220615485</v>
       </c>
       <c r="M11">
-        <v>0.8705305399723705</v>
+        <v>1.033986640404767</v>
       </c>
       <c r="N11">
-        <v>0.9293680612581356</v>
+        <v>1.005660273081211</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8541593642668714</v>
+        <v>0.9703022985084507</v>
       </c>
       <c r="D12">
-        <v>1.007895023342379</v>
+        <v>1.030132461565547</v>
       </c>
       <c r="E12">
-        <v>0.879092437392204</v>
+        <v>0.9932983783077245</v>
       </c>
       <c r="F12">
-        <v>0.8466393215054288</v>
+        <v>1.016858519098252</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029819966558304</v>
+        <v>1.051393784192535</v>
       </c>
       <c r="J12">
-        <v>0.8917354788891012</v>
+        <v>1.001418955242579</v>
       </c>
       <c r="K12">
-        <v>1.022872514306445</v>
+        <v>1.044704277822462</v>
       </c>
       <c r="L12">
-        <v>0.8969710622880814</v>
+        <v>1.008555107007318</v>
       </c>
       <c r="M12">
-        <v>0.8654412649550642</v>
+        <v>1.031669710083857</v>
       </c>
       <c r="N12">
-        <v>0.9264079955249946</v>
+        <v>1.002841085023383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8552764988876048</v>
+        <v>0.9710414210090834</v>
       </c>
       <c r="D13">
-        <v>1.008129814988343</v>
+        <v>1.030558061151898</v>
       </c>
       <c r="E13">
-        <v>0.8800501020896367</v>
+        <v>0.9939139412786095</v>
       </c>
       <c r="F13">
-        <v>0.8478372093438817</v>
+        <v>1.017411691875569</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029993035406769</v>
+        <v>1.051632601504448</v>
       </c>
       <c r="J13">
-        <v>0.8926566076850647</v>
+        <v>1.002026700471082</v>
       </c>
       <c r="K13">
-        <v>1.023059384082171</v>
+        <v>1.045080184542255</v>
       </c>
       <c r="L13">
-        <v>0.8978495071837352</v>
+        <v>1.009114247529412</v>
       </c>
       <c r="M13">
-        <v>0.8665467564433018</v>
+        <v>1.032169804370406</v>
       </c>
       <c r="N13">
-        <v>0.9270508801699351</v>
+        <v>1.00344969331982</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8588834118825928</v>
+        <v>0.973445072199979</v>
       </c>
       <c r="D14">
-        <v>1.008891831216449</v>
+        <v>1.031943113246759</v>
       </c>
       <c r="E14">
-        <v>0.883143441419973</v>
+        <v>0.9959162933971095</v>
       </c>
       <c r="F14">
-        <v>0.8517047117106172</v>
+        <v>1.019211514522766</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030552676641006</v>
+        <v>1.052409078990867</v>
       </c>
       <c r="J14">
-        <v>0.8956310568194528</v>
+        <v>1.004003170842475</v>
       </c>
       <c r="K14">
-        <v>1.023664737986135</v>
+        <v>1.046302978190668</v>
       </c>
       <c r="L14">
-        <v>0.9006862771933338</v>
+        <v>1.010932706124631</v>
       </c>
       <c r="M14">
-        <v>0.8701159640575448</v>
+        <v>1.033796507863287</v>
       </c>
       <c r="N14">
-        <v>0.9291268897266791</v>
+        <v>1.005428970505845</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8610664049335586</v>
+        <v>0.9749124376418628</v>
       </c>
       <c r="D15">
-        <v>1.009355929270728</v>
+        <v>1.032789386466817</v>
       </c>
       <c r="E15">
-        <v>0.8850165694911075</v>
+        <v>0.9971390630940121</v>
       </c>
       <c r="F15">
-        <v>0.8540453337595559</v>
+        <v>1.020310919173642</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030891989854194</v>
+        <v>1.052882964416294</v>
       </c>
       <c r="J15">
-        <v>0.8974315358485012</v>
+        <v>1.005209794988314</v>
       </c>
       <c r="K15">
-        <v>1.024032577750709</v>
+        <v>1.047049701964039</v>
       </c>
       <c r="L15">
-        <v>0.9024035314159654</v>
+        <v>1.012042906012564</v>
       </c>
       <c r="M15">
-        <v>0.8722760581060133</v>
+        <v>1.034789845127713</v>
       </c>
       <c r="N15">
-        <v>0.9303835591921228</v>
+        <v>1.006637308196372</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732290651505002</v>
+        <v>0.983256292517575</v>
       </c>
       <c r="D16">
-        <v>1.011981216052168</v>
+        <v>1.037611854612484</v>
       </c>
       <c r="E16">
-        <v>0.8954657706870999</v>
+        <v>1.004097467678946</v>
       </c>
       <c r="F16">
-        <v>0.8670856802332945</v>
+        <v>1.026571742686125</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03278983975525</v>
+        <v>1.055575298392714</v>
       </c>
       <c r="J16">
-        <v>0.9074661272784011</v>
+        <v>1.012071374914148</v>
       </c>
       <c r="K16">
-        <v>1.026101411339364</v>
+        <v>1.051298889174065</v>
       </c>
       <c r="L16">
-        <v>0.9119759073532022</v>
+        <v>1.018356671602041</v>
       </c>
       <c r="M16">
-        <v>0.8843102245469967</v>
+        <v>1.040441936744367</v>
       </c>
       <c r="N16">
-        <v>0.9373875169399078</v>
+        <v>1.013508632352735</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8804330993657887</v>
+        <v>0.9883276809322638</v>
       </c>
       <c r="D17">
-        <v>1.013567211647563</v>
+        <v>1.040551233026416</v>
       </c>
       <c r="E17">
-        <v>0.9016649865396816</v>
+        <v>1.008331074034007</v>
       </c>
       <c r="F17">
-        <v>0.8748097487880885</v>
+        <v>1.030384567359713</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033918810551678</v>
+        <v>1.057209366952723</v>
       </c>
       <c r="J17">
-        <v>0.9134116158308466</v>
+        <v>1.016241918630391</v>
       </c>
       <c r="K17">
-        <v>1.027341467980232</v>
+        <v>1.053883743470849</v>
       </c>
       <c r="L17">
-        <v>0.9176488740774703</v>
+        <v>1.022194589313176</v>
       </c>
       <c r="M17">
-        <v>0.8914375877620376</v>
+        <v>1.043880023982018</v>
       </c>
       <c r="N17">
-        <v>0.9415372666134648</v>
+        <v>1.017685098719424</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8844998193737947</v>
+        <v>0.9912311439619668</v>
       </c>
       <c r="D18">
-        <v>1.014472479660495</v>
+        <v>1.042236791119253</v>
       </c>
       <c r="E18">
-        <v>0.9051676890046846</v>
+        <v>1.010756282864938</v>
       </c>
       <c r="F18">
-        <v>0.8791703108546645</v>
+        <v>1.032569947645312</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034557331569218</v>
+        <v>1.058143949819555</v>
       </c>
       <c r="J18">
-        <v>0.9167682990837086</v>
+        <v>1.01862957087301</v>
       </c>
       <c r="K18">
-        <v>1.028045989359355</v>
+        <v>1.055364223585263</v>
       </c>
       <c r="L18">
-        <v>0.9208521566450699</v>
+        <v>1.024391896378685</v>
       </c>
       <c r="M18">
-        <v>0.8954608991858531</v>
+        <v>1.045849205502495</v>
       </c>
       <c r="N18">
-        <v>0.943880003122606</v>
+        <v>1.020076141702094</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8858649882338667</v>
+        <v>0.9922122371013311</v>
       </c>
       <c r="D19">
-        <v>1.014777962860147</v>
+        <v>1.04280678464245</v>
       </c>
       <c r="E19">
-        <v>0.906344031671283</v>
+        <v>1.011575994440495</v>
       </c>
       <c r="F19">
-        <v>0.8806341853124087</v>
+        <v>1.033308795939785</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034771838490023</v>
+        <v>1.058459578063444</v>
       </c>
       <c r="J19">
-        <v>0.9178951623643905</v>
+        <v>1.019436351066189</v>
       </c>
       <c r="K19">
-        <v>1.028283191127312</v>
+        <v>1.055864570182355</v>
       </c>
       <c r="L19">
-        <v>0.921927598216094</v>
+        <v>1.025134370501963</v>
       </c>
       <c r="M19">
-        <v>0.8968114804345687</v>
+        <v>1.04651472325248</v>
       </c>
       <c r="N19">
-        <v>0.9446664507774382</v>
+        <v>1.020884067615687</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8796745281370695</v>
+        <v>0.9877892998346162</v>
       </c>
       <c r="D20">
-        <v>1.013399141224453</v>
+        <v>1.040238899054468</v>
       </c>
       <c r="E20">
-        <v>0.9010118763613412</v>
+        <v>1.007881484078934</v>
       </c>
       <c r="F20">
-        <v>0.8739963940329077</v>
+        <v>1.029979533978404</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033799794064697</v>
+        <v>1.057035990078187</v>
       </c>
       <c r="J20">
-        <v>0.912785517520457</v>
+        <v>1.015799176041943</v>
       </c>
       <c r="K20">
-        <v>1.027210404815264</v>
+        <v>1.053609267132436</v>
       </c>
       <c r="L20">
-        <v>0.9170514255834705</v>
+        <v>1.021787148492275</v>
       </c>
       <c r="M20">
-        <v>0.8906871046791677</v>
+        <v>1.043514946430439</v>
       </c>
       <c r="N20">
-        <v>0.9411002815177906</v>
+        <v>1.017241727385717</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8578296142067224</v>
+        <v>0.9727401180599642</v>
       </c>
       <c r="D21">
-        <v>1.008668579763865</v>
+        <v>1.031536742846102</v>
       </c>
       <c r="E21">
-        <v>0.8822394839215717</v>
+        <v>0.9953289521346739</v>
       </c>
       <c r="F21">
-        <v>0.8505748002057351</v>
+        <v>1.018683514225608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030389040209404</v>
+        <v>1.052181377180988</v>
       </c>
       <c r="J21">
-        <v>0.8947619813304379</v>
+        <v>1.00342349303285</v>
       </c>
       <c r="K21">
-        <v>1.023487563489046</v>
+        <v>1.045944299857068</v>
       </c>
       <c r="L21">
-        <v>0.8998574045755228</v>
+        <v>1.010399362632801</v>
       </c>
       <c r="M21">
-        <v>0.8690731996743963</v>
+        <v>1.033319361236762</v>
       </c>
       <c r="N21">
-        <v>0.9285203136840244</v>
+        <v>1.004848469487241</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8424225455424041</v>
+        <v>0.9626943945563317</v>
       </c>
       <c r="D22">
-        <v>1.005463575518722</v>
+        <v>1.025760191758397</v>
       </c>
       <c r="E22">
-        <v>0.869042899326</v>
+        <v>0.9869667936007706</v>
       </c>
       <c r="F22">
-        <v>0.8340523503945733</v>
+        <v>1.011172225740878</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02800992865753</v>
+        <v>1.048934469345981</v>
       </c>
       <c r="J22">
-        <v>0.8820617735856805</v>
+        <v>0.9951640094728189</v>
       </c>
       <c r="K22">
-        <v>1.020927569389688</v>
+        <v>1.040838043191346</v>
       </c>
       <c r="L22">
-        <v>0.887746952512345</v>
+        <v>1.002800939063334</v>
       </c>
       <c r="M22">
-        <v>0.8538256236542</v>
+        <v>1.026525560773137</v>
       </c>
       <c r="N22">
-        <v>0.9196570183154367</v>
+        <v>0.9965772565131776</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8507772269414413</v>
+        <v>0.968080226292889</v>
       </c>
       <c r="D23">
-        <v>1.007187729614127</v>
+        <v>1.028853824078813</v>
       </c>
       <c r="E23">
-        <v>0.8761942797123669</v>
+        <v>0.9914482311409726</v>
       </c>
       <c r="F23">
-        <v>0.8430125528345982</v>
+        <v>1.015196259408046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029296795029294</v>
+        <v>1.050675682038534</v>
       </c>
       <c r="J23">
-        <v>0.8889471162432918</v>
+        <v>0.999591913121179</v>
       </c>
       <c r="K23">
-        <v>1.022308584063949</v>
+        <v>1.0435744668419</v>
       </c>
       <c r="L23">
-        <v>0.8943120439652292</v>
+        <v>1.00687423616706</v>
       </c>
       <c r="M23">
-        <v>0.8620942692202237</v>
+        <v>1.030166585699193</v>
       </c>
       <c r="N23">
-        <v>0.9244619618932914</v>
+        <v>1.001011448292606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8800177075942871</v>
+        <v>0.9880327388403226</v>
       </c>
       <c r="D24">
-        <v>1.013475145759469</v>
+        <v>1.040380118281483</v>
       </c>
       <c r="E24">
-        <v>0.9013073350323697</v>
+        <v>1.008084770224605</v>
       </c>
       <c r="F24">
-        <v>0.8743643567623915</v>
+        <v>1.030162669707336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033853633748054</v>
+        <v>1.057114388640369</v>
       </c>
       <c r="J24">
-        <v>0.913068764659433</v>
+        <v>1.015999370531108</v>
       </c>
       <c r="K24">
-        <v>1.027269684189029</v>
+        <v>1.053733374868648</v>
       </c>
       <c r="L24">
-        <v>0.9173217101019256</v>
+        <v>1.021971380361341</v>
       </c>
       <c r="M24">
-        <v>0.8910266254207725</v>
+        <v>1.043680020530072</v>
       </c>
       <c r="N24">
-        <v>0.9412979741379096</v>
+        <v>1.017442206174019</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9086901168187086</v>
+        <v>1.009070167178488</v>
       </c>
       <c r="D25">
-        <v>1.020000241561082</v>
+        <v>1.052633356852647</v>
       </c>
       <c r="E25">
-        <v>0.9260486971196198</v>
+        <v>1.025677330636438</v>
       </c>
       <c r="F25">
-        <v>0.9051178516549828</v>
+        <v>1.046034299287686</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03836368063426</v>
+        <v>1.063866524855865</v>
       </c>
       <c r="J25">
-        <v>0.9367361462059235</v>
+        <v>1.033296092686928</v>
       </c>
       <c r="K25">
-        <v>1.032295815089178</v>
+        <v>1.064466077198128</v>
       </c>
       <c r="L25">
-        <v>0.9399148381393847</v>
+        <v>1.037889699452786</v>
       </c>
       <c r="M25">
-        <v>0.9193923559540399</v>
+        <v>1.057957679493983</v>
       </c>
       <c r="N25">
-        <v>0.957812429542689</v>
+        <v>1.034763491659262</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024502886288964</v>
+        <v>1.008174010021908</v>
       </c>
       <c r="D2">
-        <v>1.061677652983896</v>
+        <v>1.040762222379935</v>
       </c>
       <c r="E2">
-        <v>1.038610458408569</v>
+        <v>1.025347557479589</v>
       </c>
       <c r="F2">
-        <v>1.057729806267885</v>
+        <v>1.040587393783587</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.068780647341578</v>
+        <v>1.050972522937891</v>
       </c>
       <c r="J2">
-        <v>1.045974629010545</v>
+        <v>1.030112956553493</v>
       </c>
       <c r="K2">
-        <v>1.072339736048742</v>
+        <v>1.05168144707911</v>
       </c>
       <c r="L2">
-        <v>1.049556870887827</v>
+        <v>1.036464703670908</v>
       </c>
       <c r="M2">
-        <v>1.068439458437537</v>
+        <v>1.051508822225597</v>
       </c>
       <c r="N2">
-        <v>1.047460032958706</v>
+        <v>1.013917578306982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035063032477212</v>
+        <v>1.011698458465332</v>
       </c>
       <c r="D3">
-        <v>1.067889025314592</v>
+        <v>1.043177683184746</v>
       </c>
       <c r="E3">
-        <v>1.047471022512526</v>
+        <v>1.02814223287873</v>
       </c>
       <c r="F3">
-        <v>1.065755066146626</v>
+        <v>1.043493472585408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.072116753992571</v>
+        <v>1.051831193499356</v>
       </c>
       <c r="J3">
-        <v>1.054641431611548</v>
+        <v>1.031875213569079</v>
       </c>
       <c r="K3">
-        <v>1.077721138274967</v>
+        <v>1.053286369256421</v>
       </c>
       <c r="L3">
-        <v>1.057530501684965</v>
+        <v>1.038427258879595</v>
       </c>
       <c r="M3">
-        <v>1.075610441342955</v>
+        <v>1.053598522290085</v>
       </c>
       <c r="N3">
-        <v>1.056139143413499</v>
+        <v>1.014510521176379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041633670851783</v>
+        <v>1.013941392821106</v>
       </c>
       <c r="D4">
-        <v>1.071761694786855</v>
+        <v>1.044718047874582</v>
       </c>
       <c r="E4">
-        <v>1.052987805670158</v>
+        <v>1.029926387923721</v>
       </c>
       <c r="F4">
-        <v>1.070756693740835</v>
+        <v>1.045348162978456</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.074179193185621</v>
+        <v>1.052370320155885</v>
       </c>
       <c r="J4">
-        <v>1.060029181676431</v>
+        <v>1.032995076667435</v>
       </c>
       <c r="K4">
-        <v>1.081064806694567</v>
+        <v>1.054305136585166</v>
       </c>
       <c r="L4">
-        <v>1.062486161647469</v>
+        <v>1.039676561482789</v>
       </c>
       <c r="M4">
-        <v>1.080070046048489</v>
+        <v>1.054928430100476</v>
       </c>
       <c r="N4">
-        <v>1.061534544701458</v>
+        <v>1.014887205277766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044337801553527</v>
+        <v>1.014875566515527</v>
       </c>
       <c r="D5">
-        <v>1.073357035136276</v>
+        <v>1.045360319562202</v>
       </c>
       <c r="E5">
-        <v>1.055258922827971</v>
+        <v>1.030670802943862</v>
       </c>
       <c r="F5">
-        <v>1.072816797561921</v>
+        <v>1.046121862243452</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.075024641345233</v>
+        <v>1.052593076068799</v>
       </c>
       <c r="J5">
-        <v>1.062245234487677</v>
+        <v>1.033461082749285</v>
       </c>
       <c r="K5">
-        <v>1.082439520440769</v>
+        <v>1.054728788697871</v>
       </c>
       <c r="L5">
-        <v>1.064524163627275</v>
+        <v>1.040196946657086</v>
       </c>
       <c r="M5">
-        <v>1.08190462975163</v>
+        <v>1.055482304773063</v>
       </c>
       <c r="N5">
-        <v>1.063753744561881</v>
+        <v>1.015043924886421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.044788551977918</v>
+        <v>1.015031912040891</v>
       </c>
       <c r="D6">
-        <v>1.07362304379771</v>
+        <v>1.04546785235976</v>
       </c>
       <c r="E6">
-        <v>1.055637530700826</v>
+        <v>1.030795466717975</v>
       </c>
       <c r="F6">
-        <v>1.073160287632571</v>
+        <v>1.046251421409816</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07516536795824</v>
+        <v>1.052630251041236</v>
       </c>
       <c r="J6">
-        <v>1.062614550263805</v>
+        <v>1.033539049724043</v>
       </c>
       <c r="K6">
-        <v>1.082668584073363</v>
+        <v>1.054799652195178</v>
       </c>
       <c r="L6">
-        <v>1.064863785978313</v>
+        <v>1.040284042012874</v>
       </c>
       <c r="M6">
-        <v>1.082210385419454</v>
+        <v>1.055574999942419</v>
       </c>
       <c r="N6">
-        <v>1.064123584808772</v>
+        <v>1.015070143713588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041670026356237</v>
+        <v>1.013953909374888</v>
       </c>
       <c r="D7">
-        <v>1.071783137505137</v>
+        <v>1.044726650608638</v>
       </c>
       <c r="E7">
-        <v>1.053018337004644</v>
+        <v>1.029936356818303</v>
       </c>
       <c r="F7">
-        <v>1.070784384292217</v>
+        <v>1.045358524616629</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.074190573200638</v>
+        <v>1.052373311856004</v>
       </c>
       <c r="J7">
-        <v>1.060058980388328</v>
+        <v>1.033001322122193</v>
       </c>
       <c r="K7">
-        <v>1.081083294653016</v>
+        <v>1.054310815557861</v>
       </c>
       <c r="L7">
-        <v>1.062513567503674</v>
+        <v>1.039683533696496</v>
       </c>
       <c r="M7">
-        <v>1.080094714252518</v>
+        <v>1.054935851359517</v>
       </c>
       <c r="N7">
-        <v>1.061564385730944</v>
+        <v>1.01488930576503</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02812908002306</v>
+        <v>1.009373056963085</v>
       </c>
       <c r="D8">
-        <v>1.06380864785923</v>
+        <v>1.041583287328229</v>
       </c>
       <c r="E8">
-        <v>1.041652152225706</v>
+        <v>1.026297129064945</v>
       </c>
       <c r="F8">
-        <v>1.06048363100686</v>
+        <v>1.041574937007049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.069928949427594</v>
+        <v>1.051266162948441</v>
       </c>
       <c r="J8">
-        <v>1.048951634568462</v>
+        <v>1.030712816992486</v>
       </c>
       <c r="K8">
-        <v>1.074188470949914</v>
+        <v>1.052227973995422</v>
       </c>
       <c r="L8">
-        <v>1.052295996518934</v>
+        <v>1.037132291956928</v>
       </c>
       <c r="M8">
-        <v>1.070902205050579</v>
+        <v>1.052219725827032</v>
       </c>
       <c r="N8">
-        <v>1.050441266205984</v>
+        <v>1.014119434828307</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002013382419642</v>
+        <v>1.001001169638706</v>
       </c>
       <c r="D9">
-        <v>1.048512682651573</v>
+        <v>1.035865931083564</v>
       </c>
       <c r="E9">
-        <v>1.019770836592166</v>
+        <v>1.019692264625594</v>
       </c>
       <c r="F9">
-        <v>1.040700630058121</v>
+        <v>1.034703717833338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06160729690504</v>
+        <v>1.049186348506625</v>
       </c>
       <c r="J9">
-        <v>1.027495242748609</v>
+        <v>1.026518623493119</v>
       </c>
       <c r="K9">
-        <v>1.060864825462966</v>
+        <v>1.048402726465784</v>
       </c>
       <c r="L9">
-        <v>1.032551087730412</v>
+        <v>1.032473728317793</v>
       </c>
       <c r="M9">
-        <v>1.053166162455735</v>
+        <v>1.047257770352117</v>
       </c>
       <c r="N9">
-        <v>1.028954403848663</v>
+        <v>1.012707655348281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9826755134664359</v>
+        <v>0.9952011862099628</v>
       </c>
       <c r="D10">
-        <v>1.037275627324998</v>
+        <v>1.031926802824136</v>
       </c>
       <c r="E10">
-        <v>1.00361283450012</v>
+        <v>1.015149928653701</v>
       </c>
       <c r="F10">
-        <v>1.026135451487876</v>
+        <v>1.029975619627981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055388040787382</v>
+        <v>1.047709381835096</v>
       </c>
       <c r="J10">
-        <v>1.011593759282188</v>
+        <v>1.023606501806324</v>
       </c>
       <c r="K10">
-        <v>1.051002966350979</v>
+        <v>1.045742582063971</v>
       </c>
       <c r="L10">
-        <v>1.017917163059097</v>
+        <v>1.029250930004061</v>
       </c>
       <c r="M10">
-        <v>1.040048329059669</v>
+        <v>1.043823955400706</v>
       </c>
       <c r="N10">
-        <v>1.013030338451794</v>
+        <v>1.01172698395805</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9737259611278996</v>
+        <v>0.9926338053092729</v>
       </c>
       <c r="D11">
-        <v>1.032105067324481</v>
+        <v>1.030189070235971</v>
       </c>
       <c r="E11">
-        <v>0.9961503383089194</v>
+        <v>1.013147721094064</v>
       </c>
       <c r="F11">
-        <v>1.019421928375233</v>
+        <v>1.027891001073279</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052499800198239</v>
+        <v>1.047047499408168</v>
       </c>
       <c r="J11">
-        <v>1.004234145407466</v>
+        <v>1.02231627016704</v>
       </c>
       <c r="K11">
-        <v>1.046445905227403</v>
+        <v>1.044563270252862</v>
       </c>
       <c r="L11">
-        <v>1.011145220615485</v>
+        <v>1.027825878183732</v>
       </c>
       <c r="M11">
-        <v>1.033986640404767</v>
+        <v>1.042305428587892</v>
       </c>
       <c r="N11">
-        <v>1.005660273081211</v>
+        <v>1.011292412044824</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9703022985084507</v>
+        <v>0.9916713952490052</v>
       </c>
       <c r="D12">
-        <v>1.030132461565547</v>
+        <v>1.029538621184269</v>
       </c>
       <c r="E12">
-        <v>0.9932983783077245</v>
+        <v>1.012398492264202</v>
       </c>
       <c r="F12">
-        <v>1.016858519098252</v>
+        <v>1.027110861865751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051393784192535</v>
+        <v>1.046798209006995</v>
       </c>
       <c r="J12">
-        <v>1.001418955242579</v>
+        <v>1.021832467529542</v>
       </c>
       <c r="K12">
-        <v>1.044704277822462</v>
+        <v>1.044120975273759</v>
       </c>
       <c r="L12">
-        <v>1.008555107007318</v>
+        <v>1.027291950221454</v>
       </c>
       <c r="M12">
-        <v>1.031669710083857</v>
+        <v>1.041736461668006</v>
       </c>
       <c r="N12">
-        <v>1.002841085023383</v>
+        <v>1.011129449168153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9710414210090834</v>
+        <v>0.9918782384226389</v>
       </c>
       <c r="D13">
-        <v>1.030558061151898</v>
+        <v>1.029678372629115</v>
       </c>
       <c r="E13">
-        <v>0.9939139412786095</v>
+        <v>1.012559457647473</v>
       </c>
       <c r="F13">
-        <v>1.017411691875569</v>
+        <v>1.027278471213234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051632601504448</v>
+        <v>1.046851839550211</v>
       </c>
       <c r="J13">
-        <v>1.002026700471082</v>
+        <v>1.021936453480171</v>
       </c>
       <c r="K13">
-        <v>1.045080184542255</v>
+        <v>1.044216043211438</v>
       </c>
       <c r="L13">
-        <v>1.009114247529412</v>
+        <v>1.027406690399596</v>
       </c>
       <c r="M13">
-        <v>1.032169804370406</v>
+        <v>1.041858732254267</v>
       </c>
       <c r="N13">
-        <v>1.00344969331982</v>
+        <v>1.011164475952587</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.973445072199979</v>
+        <v>0.9925544332839213</v>
       </c>
       <c r="D14">
-        <v>1.031943113246759</v>
+        <v>1.030135406413892</v>
       </c>
       <c r="E14">
-        <v>0.9959162933971095</v>
+        <v>1.013085903453271</v>
       </c>
       <c r="F14">
-        <v>1.019211514522766</v>
+        <v>1.027826634490651</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052409078990867</v>
+        <v>1.047026963595793</v>
       </c>
       <c r="J14">
-        <v>1.004003170842475</v>
+        <v>1.022276372706485</v>
       </c>
       <c r="K14">
-        <v>1.046302978190668</v>
+        <v>1.044526797354758</v>
       </c>
       <c r="L14">
-        <v>1.010932706124631</v>
+        <v>1.027781838324816</v>
       </c>
       <c r="M14">
-        <v>1.033796507863287</v>
+        <v>1.042258498900988</v>
       </c>
       <c r="N14">
-        <v>1.005428970505845</v>
+        <v>1.011278973273557</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9749124376418628</v>
+        <v>0.9929698858547065</v>
       </c>
       <c r="D15">
-        <v>1.032789386466817</v>
+        <v>1.030416335481717</v>
       </c>
       <c r="E15">
-        <v>0.9971390630940121</v>
+        <v>1.013409526231424</v>
       </c>
       <c r="F15">
-        <v>1.020310919173642</v>
+        <v>1.02816359838811</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052882964416294</v>
+        <v>1.047134405281392</v>
       </c>
       <c r="J15">
-        <v>1.005209794988314</v>
+        <v>1.022485200005552</v>
       </c>
       <c r="K15">
-        <v>1.047049701964039</v>
+        <v>1.044717696854398</v>
       </c>
       <c r="L15">
-        <v>1.012042906012564</v>
+        <v>1.028012364864715</v>
       </c>
       <c r="M15">
-        <v>1.034789845127713</v>
+        <v>1.042504151621414</v>
       </c>
       <c r="N15">
-        <v>1.006637308196372</v>
+        <v>1.011349312753493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.983256292517575</v>
+        <v>0.9953703653298964</v>
       </c>
       <c r="D16">
-        <v>1.037611854612484</v>
+        <v>1.032041441323373</v>
       </c>
       <c r="E16">
-        <v>1.004097467678946</v>
+        <v>1.015282046220937</v>
       </c>
       <c r="F16">
-        <v>1.026571742686125</v>
+        <v>1.030113164714461</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055575298392714</v>
+        <v>1.047752831201335</v>
       </c>
       <c r="J16">
-        <v>1.012071374914148</v>
+        <v>1.023691500488211</v>
       </c>
       <c r="K16">
-        <v>1.051298889174065</v>
+        <v>1.045820260468137</v>
       </c>
       <c r="L16">
-        <v>1.018356671602041</v>
+        <v>1.029344869801081</v>
       </c>
       <c r="M16">
-        <v>1.040441936744367</v>
+        <v>1.043924054322326</v>
       </c>
       <c r="N16">
-        <v>1.013508632352735</v>
+        <v>1.011755611462077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9883276809322638</v>
+        <v>0.9968608917809895</v>
       </c>
       <c r="D17">
-        <v>1.040551233026416</v>
+        <v>1.033052131770239</v>
       </c>
       <c r="E17">
-        <v>1.008331074034007</v>
+        <v>1.016447020606518</v>
       </c>
       <c r="F17">
-        <v>1.030384567359713</v>
+        <v>1.031325937699969</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057209366952723</v>
+        <v>1.048134715146492</v>
       </c>
       <c r="J17">
-        <v>1.016241918630391</v>
+        <v>1.024440238063897</v>
       </c>
       <c r="K17">
-        <v>1.053883743470849</v>
+        <v>1.046504435744346</v>
       </c>
       <c r="L17">
-        <v>1.022194589313176</v>
+        <v>1.030172691099396</v>
       </c>
       <c r="M17">
-        <v>1.043880023982018</v>
+        <v>1.044806133240052</v>
       </c>
       <c r="N17">
-        <v>1.017685098719424</v>
+        <v>1.012007776942016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9912311439619668</v>
+        <v>0.9977249178979771</v>
       </c>
       <c r="D18">
-        <v>1.042236791119253</v>
+        <v>1.033638567909911</v>
       </c>
       <c r="E18">
-        <v>1.010756282864938</v>
+        <v>1.017123134722178</v>
       </c>
       <c r="F18">
-        <v>1.032569947645312</v>
+        <v>1.032029741569805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.058143949819555</v>
+        <v>1.048355311164644</v>
       </c>
       <c r="J18">
-        <v>1.01862957087301</v>
+        <v>1.024874151481549</v>
       </c>
       <c r="K18">
-        <v>1.055364223585263</v>
+        <v>1.046900863436942</v>
       </c>
       <c r="L18">
-        <v>1.024391896378685</v>
+        <v>1.03065270441846</v>
       </c>
       <c r="M18">
-        <v>1.045849205502495</v>
+        <v>1.045317591307183</v>
       </c>
       <c r="N18">
-        <v>1.020076141702094</v>
+        <v>1.012153905816495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9922122371013311</v>
+        <v>0.9980186279286649</v>
       </c>
       <c r="D19">
-        <v>1.04280678464245</v>
+        <v>1.033838009387681</v>
       </c>
       <c r="E19">
-        <v>1.011575994440495</v>
+        <v>1.017353102385106</v>
       </c>
       <c r="F19">
-        <v>1.033308795939785</v>
+        <v>1.032269118514196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.058459578063444</v>
+        <v>1.048430166335975</v>
       </c>
       <c r="J19">
-        <v>1.019436351066189</v>
+        <v>1.025021632314247</v>
       </c>
       <c r="K19">
-        <v>1.055864570182355</v>
+        <v>1.047035590818064</v>
       </c>
       <c r="L19">
-        <v>1.025134370501963</v>
+        <v>1.030815899411868</v>
       </c>
       <c r="M19">
-        <v>1.04651472325248</v>
+        <v>1.045491473814828</v>
       </c>
       <c r="N19">
-        <v>1.020884067615687</v>
+        <v>1.012203571508963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9877892998346162</v>
+        <v>0.9967015307027937</v>
       </c>
       <c r="D20">
-        <v>1.040238899054468</v>
+        <v>1.032944014225109</v>
       </c>
       <c r="E20">
-        <v>1.007881484078934</v>
+        <v>1.016322382599439</v>
       </c>
       <c r="F20">
-        <v>1.029979533978404</v>
+        <v>1.031196191064277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057035990078187</v>
+        <v>1.048093965611542</v>
       </c>
       <c r="J20">
-        <v>1.015799176041943</v>
+        <v>1.024360197629653</v>
       </c>
       <c r="K20">
-        <v>1.053609267132436</v>
+        <v>1.046431304159239</v>
       </c>
       <c r="L20">
-        <v>1.021787148492275</v>
+        <v>1.030084168677223</v>
       </c>
       <c r="M20">
-        <v>1.043514946430439</v>
+        <v>1.044711810481647</v>
       </c>
       <c r="N20">
-        <v>1.017241727385717</v>
+        <v>1.011980821110968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727401180599642</v>
+        <v>0.9923555558836404</v>
       </c>
       <c r="D21">
-        <v>1.031536742846102</v>
+        <v>1.030000960093437</v>
       </c>
       <c r="E21">
-        <v>0.9953289521346739</v>
+        <v>1.012931032390387</v>
       </c>
       <c r="F21">
-        <v>1.018683514225608</v>
+        <v>1.027665376455311</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052181377180988</v>
+        <v>1.046975489496582</v>
       </c>
       <c r="J21">
-        <v>1.00342349303285</v>
+        <v>1.022176401953761</v>
       </c>
       <c r="K21">
-        <v>1.045944299857068</v>
+        <v>1.04443540622432</v>
       </c>
       <c r="L21">
-        <v>1.010399362632801</v>
+        <v>1.027671494920473</v>
       </c>
       <c r="M21">
-        <v>1.033319361236762</v>
+        <v>1.042140914697348</v>
       </c>
       <c r="N21">
-        <v>1.004848469487241</v>
+        <v>1.011245299697159</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9626943945563317</v>
+        <v>0.9895721311196204</v>
       </c>
       <c r="D22">
-        <v>1.025760191758397</v>
+        <v>1.028121660269476</v>
       </c>
       <c r="E22">
-        <v>0.9869667936007706</v>
+        <v>1.010766709048595</v>
       </c>
       <c r="F22">
-        <v>1.011172225740878</v>
+        <v>1.025411633625728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048934469345981</v>
+        <v>1.046252326271174</v>
       </c>
       <c r="J22">
-        <v>0.9951640094728189</v>
+        <v>1.020776936382739</v>
       </c>
       <c r="K22">
-        <v>1.040838043191346</v>
+        <v>1.043155874978015</v>
       </c>
       <c r="L22">
-        <v>1.002800939063334</v>
+        <v>1.02612785076869</v>
       </c>
       <c r="M22">
-        <v>1.026525560773137</v>
+        <v>1.040495948137864</v>
       </c>
       <c r="N22">
-        <v>0.9965772565131776</v>
+        <v>1.010773890731641</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.968080226292889</v>
+        <v>0.9910526323602448</v>
       </c>
       <c r="D23">
-        <v>1.028853824078813</v>
+        <v>1.029120706152926</v>
       </c>
       <c r="E23">
-        <v>0.9914482311409726</v>
+        <v>1.01191716803181</v>
       </c>
       <c r="F23">
-        <v>1.015196259408046</v>
+        <v>1.026609660655553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050675682038534</v>
+        <v>1.046637606150144</v>
       </c>
       <c r="J23">
-        <v>0.999591913121179</v>
+        <v>1.021521378874003</v>
       </c>
       <c r="K23">
-        <v>1.0435744668419</v>
+        <v>1.043836555626782</v>
       </c>
       <c r="L23">
-        <v>1.00687423616706</v>
+        <v>1.026948751910424</v>
       </c>
       <c r="M23">
-        <v>1.030166585699193</v>
+        <v>1.041370737508022</v>
       </c>
       <c r="N23">
-        <v>1.001011448292606</v>
+        <v>1.011024660300676</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9880327388403226</v>
+        <v>0.9967735556919155</v>
       </c>
       <c r="D24">
-        <v>1.040380118281483</v>
+        <v>1.032992877404822</v>
       </c>
       <c r="E24">
-        <v>1.008084770224605</v>
+        <v>1.016378711629255</v>
       </c>
       <c r="F24">
-        <v>1.030162669707336</v>
+        <v>1.0312548290516</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057114388640369</v>
+        <v>1.048112385212139</v>
       </c>
       <c r="J24">
-        <v>1.015999370531108</v>
+        <v>1.024396373137212</v>
       </c>
       <c r="K24">
-        <v>1.053733374868648</v>
+        <v>1.046464357325159</v>
       </c>
       <c r="L24">
-        <v>1.021971380361341</v>
+        <v>1.030124176917368</v>
       </c>
       <c r="M24">
-        <v>1.043680020530072</v>
+        <v>1.044754440270692</v>
       </c>
       <c r="N24">
-        <v>1.017442206174019</v>
+        <v>1.011993004238346</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009070167178488</v>
+        <v>1.003202747856578</v>
       </c>
       <c r="D25">
-        <v>1.052633356852647</v>
+        <v>1.037365906609259</v>
       </c>
       <c r="E25">
-        <v>1.025677330636438</v>
+        <v>1.021423539816719</v>
       </c>
       <c r="F25">
-        <v>1.046034299287686</v>
+        <v>1.036505285729992</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063866524855865</v>
+        <v>1.049739680137414</v>
       </c>
       <c r="J25">
-        <v>1.033296092686928</v>
+        <v>1.027622805414691</v>
       </c>
       <c r="K25">
-        <v>1.064466077198128</v>
+        <v>1.049410590982396</v>
       </c>
       <c r="L25">
-        <v>1.037889699452786</v>
+        <v>1.033698142850112</v>
       </c>
       <c r="M25">
-        <v>1.057957679493983</v>
+        <v>1.048562153484446</v>
       </c>
       <c r="N25">
-        <v>1.034763491659262</v>
+        <v>1.013079411140248</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008174010021908</v>
+        <v>1.033048350214858</v>
       </c>
       <c r="D2">
-        <v>1.040762222379935</v>
+        <v>1.049936085579724</v>
       </c>
       <c r="E2">
-        <v>1.025347557479589</v>
+        <v>1.043392414093089</v>
       </c>
       <c r="F2">
-        <v>1.040587393783587</v>
+        <v>1.056693077107794</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050972522937891</v>
+        <v>1.041599793834862</v>
       </c>
       <c r="J2">
-        <v>1.030112956553493</v>
+        <v>1.03817521648763</v>
       </c>
       <c r="K2">
-        <v>1.05168144707911</v>
+        <v>1.052691758345476</v>
       </c>
       <c r="L2">
-        <v>1.036464703670908</v>
+        <v>1.046166408771222</v>
       </c>
       <c r="M2">
-        <v>1.051508822225597</v>
+        <v>1.059430088694119</v>
       </c>
       <c r="N2">
-        <v>1.013917578306982</v>
+        <v>1.016701521056828</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011698458465332</v>
+        <v>1.033809436172126</v>
       </c>
       <c r="D3">
-        <v>1.043177683184746</v>
+        <v>1.050478445362427</v>
       </c>
       <c r="E3">
-        <v>1.02814223287873</v>
+        <v>1.044044506942185</v>
       </c>
       <c r="F3">
-        <v>1.043493472585408</v>
+        <v>1.0573685816333</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051831193499356</v>
+        <v>1.041744946503135</v>
       </c>
       <c r="J3">
-        <v>1.031875213569079</v>
+        <v>1.038579809084225</v>
       </c>
       <c r="K3">
-        <v>1.053286369256421</v>
+        <v>1.053047160829539</v>
       </c>
       <c r="L3">
-        <v>1.038427258879595</v>
+        <v>1.046629943025823</v>
       </c>
       <c r="M3">
-        <v>1.053598522290085</v>
+        <v>1.05991963423988</v>
       </c>
       <c r="N3">
-        <v>1.014510521176379</v>
+        <v>1.016836773943497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013941392821106</v>
+        <v>1.034302767882629</v>
       </c>
       <c r="D4">
-        <v>1.044718047874582</v>
+        <v>1.050830023517636</v>
       </c>
       <c r="E4">
-        <v>1.029926387923721</v>
+        <v>1.04446756476127</v>
       </c>
       <c r="F4">
-        <v>1.045348162978456</v>
+        <v>1.057806739653426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052370320155885</v>
+        <v>1.041838097727256</v>
       </c>
       <c r="J4">
-        <v>1.032995076667435</v>
+        <v>1.038841770502437</v>
       </c>
       <c r="K4">
-        <v>1.054305136585166</v>
+        <v>1.05327705418585</v>
       </c>
       <c r="L4">
-        <v>1.039676561482789</v>
+        <v>1.046930302783533</v>
       </c>
       <c r="M4">
-        <v>1.054928430100476</v>
+        <v>1.060236780014811</v>
       </c>
       <c r="N4">
-        <v>1.014887205277766</v>
+        <v>1.016924315018851</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014875566515527</v>
+        <v>1.034510367969049</v>
       </c>
       <c r="D5">
-        <v>1.045360319562202</v>
+        <v>1.050977976941212</v>
       </c>
       <c r="E5">
-        <v>1.030670802943862</v>
+        <v>1.044645681917386</v>
       </c>
       <c r="F5">
-        <v>1.046121862243452</v>
+        <v>1.057991193119305</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052593076068799</v>
+        <v>1.041877072809386</v>
       </c>
       <c r="J5">
-        <v>1.033461082749285</v>
+        <v>1.038951936708822</v>
       </c>
       <c r="K5">
-        <v>1.054728788697871</v>
+        <v>1.053373681719965</v>
       </c>
       <c r="L5">
-        <v>1.040196946657086</v>
+        <v>1.047056673479358</v>
       </c>
       <c r="M5">
-        <v>1.055482304773063</v>
+        <v>1.060370196593117</v>
       </c>
       <c r="N5">
-        <v>1.015043924886421</v>
+        <v>1.016961122392146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015031912040891</v>
+        <v>1.034545236807876</v>
       </c>
       <c r="D6">
-        <v>1.04546785235976</v>
+        <v>1.051002827705643</v>
       </c>
       <c r="E6">
-        <v>1.030795466717975</v>
+        <v>1.044675603970403</v>
       </c>
       <c r="F6">
-        <v>1.046251421409816</v>
+        <v>1.058022178369385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052630251041236</v>
+        <v>1.041883605984481</v>
       </c>
       <c r="J6">
-        <v>1.033539049724043</v>
+        <v>1.038970436265748</v>
       </c>
       <c r="K6">
-        <v>1.054799652195178</v>
+        <v>1.0533899047137</v>
       </c>
       <c r="L6">
-        <v>1.040284042012874</v>
+        <v>1.04707789746076</v>
       </c>
       <c r="M6">
-        <v>1.055574999942419</v>
+        <v>1.060392602961312</v>
       </c>
       <c r="N6">
-        <v>1.015070143713588</v>
+        <v>1.016967302796903</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013953909374888</v>
+        <v>1.034305541048315</v>
       </c>
       <c r="D7">
-        <v>1.044726650608638</v>
+        <v>1.050831999891878</v>
       </c>
       <c r="E7">
-        <v>1.029936356818303</v>
+        <v>1.044469943738141</v>
       </c>
       <c r="F7">
-        <v>1.045358524616629</v>
+        <v>1.057809203342993</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052373311856004</v>
+        <v>1.041838619244869</v>
       </c>
       <c r="J7">
-        <v>1.033001322122193</v>
+        <v>1.038843242402574</v>
       </c>
       <c r="K7">
-        <v>1.054310815557861</v>
+        <v>1.053278345406699</v>
       </c>
       <c r="L7">
-        <v>1.039683533696496</v>
+        <v>1.046931990966182</v>
       </c>
       <c r="M7">
-        <v>1.054935851359517</v>
+        <v>1.060238562388175</v>
       </c>
       <c r="N7">
-        <v>1.01488930576503</v>
+        <v>1.016924806821343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009373056963085</v>
+        <v>1.033305383865525</v>
       </c>
       <c r="D8">
-        <v>1.041583287328229</v>
+        <v>1.050119245855258</v>
       </c>
       <c r="E8">
-        <v>1.026297129064945</v>
+        <v>1.043612560788099</v>
       </c>
       <c r="F8">
-        <v>1.041574937007049</v>
+        <v>1.05692114588517</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051266162948441</v>
+        <v>1.041649008271236</v>
       </c>
       <c r="J8">
-        <v>1.030712816992486</v>
+        <v>1.038311915876606</v>
       </c>
       <c r="K8">
-        <v>1.052227973995422</v>
+        <v>1.052811883086454</v>
       </c>
       <c r="L8">
-        <v>1.037132291956928</v>
+        <v>1.046322973984301</v>
       </c>
       <c r="M8">
-        <v>1.052219725827032</v>
+        <v>1.059595453760283</v>
       </c>
       <c r="N8">
-        <v>1.014119434828307</v>
+        <v>1.016747225254732</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.001001169638706</v>
+        <v>1.031549641428315</v>
       </c>
       <c r="D9">
-        <v>1.035865931083564</v>
+        <v>1.048868238231785</v>
       </c>
       <c r="E9">
-        <v>1.019692264625594</v>
+        <v>1.042110338619025</v>
       </c>
       <c r="F9">
-        <v>1.034703717833338</v>
+        <v>1.055364504875898</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049186348506625</v>
+        <v>1.041309010926926</v>
       </c>
       <c r="J9">
-        <v>1.026518623493119</v>
+        <v>1.037376959972023</v>
       </c>
       <c r="K9">
-        <v>1.048402726465784</v>
+        <v>1.051989401769398</v>
       </c>
       <c r="L9">
-        <v>1.032473728317793</v>
+        <v>1.045253111683132</v>
       </c>
       <c r="M9">
-        <v>1.047257770352117</v>
+        <v>1.058465180698677</v>
       </c>
       <c r="N9">
-        <v>1.012707655348281</v>
+        <v>1.016434505274183</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9952011862099628</v>
+        <v>1.030383746951402</v>
       </c>
       <c r="D10">
-        <v>1.031926802824136</v>
+        <v>1.048037689823383</v>
       </c>
       <c r="E10">
-        <v>1.015149928653701</v>
+        <v>1.041114763783994</v>
       </c>
       <c r="F10">
-        <v>1.029975619627981</v>
+        <v>1.054332413528241</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047709381835096</v>
+        <v>1.041078442389534</v>
       </c>
       <c r="J10">
-        <v>1.023606501806324</v>
+        <v>1.036754619339119</v>
       </c>
       <c r="K10">
-        <v>1.045742582063971</v>
+        <v>1.051440823377287</v>
       </c>
       <c r="L10">
-        <v>1.029250930004061</v>
+        <v>1.044542186896776</v>
       </c>
       <c r="M10">
-        <v>1.043823955400706</v>
+        <v>1.05771376631326</v>
       </c>
       <c r="N10">
-        <v>1.01172698395805</v>
+        <v>1.01622619064853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9926338053092729</v>
+        <v>1.02988001864528</v>
       </c>
       <c r="D11">
-        <v>1.030189070235971</v>
+        <v>1.04767889954844</v>
       </c>
       <c r="E11">
-        <v>1.013147721094064</v>
+        <v>1.040685096876186</v>
       </c>
       <c r="F11">
-        <v>1.027891001073279</v>
+        <v>1.053886880223416</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047047499408168</v>
+        <v>1.040977688135388</v>
       </c>
       <c r="J11">
-        <v>1.02231627016704</v>
+        <v>1.036485385078916</v>
       </c>
       <c r="K11">
-        <v>1.044563270252862</v>
+        <v>1.051203240674697</v>
       </c>
       <c r="L11">
-        <v>1.027825878183732</v>
+        <v>1.044234918453614</v>
       </c>
       <c r="M11">
-        <v>1.042305428587892</v>
+        <v>1.057388916547737</v>
       </c>
       <c r="N11">
-        <v>1.011292412044824</v>
+        <v>1.016136033691413</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9916713952490052</v>
+        <v>1.029693080636446</v>
       </c>
       <c r="D12">
-        <v>1.029538621184269</v>
+        <v>1.04754575763448</v>
       </c>
       <c r="E12">
-        <v>1.012398492264202</v>
+        <v>1.040525715545588</v>
       </c>
       <c r="F12">
-        <v>1.027110861865751</v>
+        <v>1.053721597375656</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046798209006995</v>
+        <v>1.040940126649484</v>
       </c>
       <c r="J12">
-        <v>1.021832467529542</v>
+        <v>1.036385417480344</v>
       </c>
       <c r="K12">
-        <v>1.044120975273759</v>
+        <v>1.051114986711069</v>
       </c>
       <c r="L12">
-        <v>1.027291950221454</v>
+        <v>1.044120872070487</v>
       </c>
       <c r="M12">
-        <v>1.041736461668006</v>
+        <v>1.05726833249583</v>
       </c>
       <c r="N12">
-        <v>1.011129449168153</v>
+        <v>1.016102552608464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9918782384226389</v>
+        <v>1.029733171787604</v>
       </c>
       <c r="D13">
-        <v>1.029678372629115</v>
+        <v>1.047574311165155</v>
       </c>
       <c r="E13">
-        <v>1.012559457647473</v>
+        <v>1.040559893567994</v>
       </c>
       <c r="F13">
-        <v>1.027278471213234</v>
+        <v>1.053757041654404</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046851839550211</v>
+        <v>1.040948189895993</v>
       </c>
       <c r="J13">
-        <v>1.021936453480171</v>
+        <v>1.036406859127296</v>
       </c>
       <c r="K13">
-        <v>1.044216043211438</v>
+        <v>1.051133917695136</v>
       </c>
       <c r="L13">
-        <v>1.027406690399596</v>
+        <v>1.044145331452394</v>
       </c>
       <c r="M13">
-        <v>1.041858732254267</v>
+        <v>1.057294194551914</v>
       </c>
       <c r="N13">
-        <v>1.011164475952587</v>
+        <v>1.016109734079166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9925544332839213</v>
+        <v>1.029864562829201</v>
       </c>
       <c r="D14">
-        <v>1.030135406413892</v>
+        <v>1.047667891356928</v>
       </c>
       <c r="E14">
-        <v>1.013085903453271</v>
+        <v>1.040671917944718</v>
       </c>
       <c r="F14">
-        <v>1.027826634490651</v>
+        <v>1.053873213633612</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047026963595793</v>
+        <v>1.040974586078532</v>
       </c>
       <c r="J14">
-        <v>1.022276372706485</v>
+        <v>1.036477120942692</v>
       </c>
       <c r="K14">
-        <v>1.044526797354758</v>
+        <v>1.051195945671111</v>
       </c>
       <c r="L14">
-        <v>1.027781838324816</v>
+        <v>1.044225489563767</v>
       </c>
       <c r="M14">
-        <v>1.042258498900988</v>
+        <v>1.057378947397594</v>
       </c>
       <c r="N14">
-        <v>1.011278973273557</v>
+        <v>1.016133265984274</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9929698858547065</v>
+        <v>1.029945539658057</v>
       </c>
       <c r="D15">
-        <v>1.030416335481717</v>
+        <v>1.047725566329542</v>
       </c>
       <c r="E15">
-        <v>1.013409526231424</v>
+        <v>1.040740968560674</v>
       </c>
       <c r="F15">
-        <v>1.02816359838811</v>
+        <v>1.053944818664901</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047134405281392</v>
+        <v>1.040990831526109</v>
       </c>
       <c r="J15">
-        <v>1.022485200005552</v>
+        <v>1.036520416643447</v>
       </c>
       <c r="K15">
-        <v>1.044717696854398</v>
+        <v>1.051234162515205</v>
       </c>
       <c r="L15">
-        <v>1.028012364864715</v>
+        <v>1.044274889172904</v>
       </c>
       <c r="M15">
-        <v>1.042504151621414</v>
+        <v>1.057431177027988</v>
       </c>
       <c r="N15">
-        <v>1.011349312753493</v>
+        <v>1.016147765740514</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9953703653298964</v>
+        <v>1.030417201340861</v>
       </c>
       <c r="D16">
-        <v>1.032041441323373</v>
+        <v>1.048061519491511</v>
       </c>
       <c r="E16">
-        <v>1.015282046220937</v>
+        <v>1.041143309543683</v>
       </c>
       <c r="F16">
-        <v>1.030113164714461</v>
+        <v>1.054362011153564</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047752831201335</v>
+        <v>1.041085109877804</v>
       </c>
       <c r="J16">
-        <v>1.023691500488211</v>
+        <v>1.036772492779623</v>
       </c>
       <c r="K16">
-        <v>1.045820260468137</v>
+        <v>1.051456590149566</v>
       </c>
       <c r="L16">
-        <v>1.029344869801081</v>
+        <v>1.04456259137249</v>
       </c>
       <c r="M16">
-        <v>1.043924054322326</v>
+        <v>1.057735336585857</v>
       </c>
       <c r="N16">
-        <v>1.011755611462077</v>
+        <v>1.016232175053728</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9968608917809895</v>
+        <v>1.030713361362913</v>
       </c>
       <c r="D17">
-        <v>1.033052131770239</v>
+        <v>1.048272481172466</v>
       </c>
       <c r="E17">
-        <v>1.016447020606518</v>
+        <v>1.041396070106799</v>
       </c>
       <c r="F17">
-        <v>1.031325937699969</v>
+        <v>1.054624073192667</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048134715146492</v>
+        <v>1.041144003396271</v>
       </c>
       <c r="J17">
-        <v>1.024440238063897</v>
+        <v>1.036930679642094</v>
       </c>
       <c r="K17">
-        <v>1.046504435744346</v>
+        <v>1.051596102262881</v>
       </c>
       <c r="L17">
-        <v>1.030172691099396</v>
+        <v>1.044743212250778</v>
       </c>
       <c r="M17">
-        <v>1.044806133240052</v>
+        <v>1.057926267728437</v>
       </c>
       <c r="N17">
-        <v>1.012007776942016</v>
+        <v>1.016285135105215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9977249178979771</v>
+        <v>1.030886213615281</v>
       </c>
       <c r="D18">
-        <v>1.033638567909911</v>
+        <v>1.048395612711806</v>
       </c>
       <c r="E18">
-        <v>1.017123134722178</v>
+        <v>1.041543638272015</v>
       </c>
       <c r="F18">
-        <v>1.032029741569805</v>
+        <v>1.054777061481827</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048355311164644</v>
+        <v>1.041178266498971</v>
       </c>
       <c r="J18">
-        <v>1.024874151481549</v>
+        <v>1.037022970745402</v>
       </c>
       <c r="K18">
-        <v>1.046900863436942</v>
+        <v>1.051677472908295</v>
       </c>
       <c r="L18">
-        <v>1.03065270441846</v>
+        <v>1.044848619918478</v>
       </c>
       <c r="M18">
-        <v>1.045317591307183</v>
+        <v>1.058037684452847</v>
       </c>
       <c r="N18">
-        <v>1.012153905816495</v>
+        <v>1.016316030080733</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9980186279286649</v>
+        <v>1.030945169872558</v>
       </c>
       <c r="D19">
-        <v>1.033838009387681</v>
+        <v>1.048437611084818</v>
       </c>
       <c r="E19">
-        <v>1.017353102385106</v>
+        <v>1.041593978407756</v>
       </c>
       <c r="F19">
-        <v>1.032269118514196</v>
+        <v>1.054829248841131</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048430166335975</v>
+        <v>1.041189934296767</v>
       </c>
       <c r="J19">
-        <v>1.025021632314247</v>
+        <v>1.037054443549082</v>
       </c>
       <c r="K19">
-        <v>1.047035590818064</v>
+        <v>1.051705217400778</v>
       </c>
       <c r="L19">
-        <v>1.030815899411868</v>
+        <v>1.044884570413847</v>
       </c>
       <c r="M19">
-        <v>1.045491473814828</v>
+        <v>1.05807568307054</v>
       </c>
       <c r="N19">
-        <v>1.012203571508963</v>
+        <v>1.016326565178108</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9967015307027937</v>
+        <v>1.030681575100153</v>
       </c>
       <c r="D20">
-        <v>1.032944014225109</v>
+        <v>1.048249838570227</v>
       </c>
       <c r="E20">
-        <v>1.016322382599439</v>
+        <v>1.041368937082741</v>
       </c>
       <c r="F20">
-        <v>1.031196191064277</v>
+        <v>1.054595942752188</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048093965611542</v>
+        <v>1.041137693826067</v>
       </c>
       <c r="J20">
-        <v>1.024360197629653</v>
+        <v>1.036913705259894</v>
       </c>
       <c r="K20">
-        <v>1.046431304159239</v>
+        <v>1.051581134378514</v>
       </c>
       <c r="L20">
-        <v>1.030084168677223</v>
+        <v>1.044723827684007</v>
       </c>
       <c r="M20">
-        <v>1.044711810481647</v>
+        <v>1.057905777457434</v>
       </c>
       <c r="N20">
-        <v>1.011980821110968</v>
+        <v>1.016279452547145</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9923555558836404</v>
+        <v>1.02982586675714</v>
       </c>
       <c r="D21">
-        <v>1.030000960093437</v>
+        <v>1.047640330750831</v>
       </c>
       <c r="E21">
-        <v>1.012931032390387</v>
+        <v>1.040638923575002</v>
       </c>
       <c r="F21">
-        <v>1.027665376455311</v>
+        <v>1.053838998118764</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046975489496582</v>
+        <v>1.040966816832271</v>
       </c>
       <c r="J21">
-        <v>1.022176401953761</v>
+        <v>1.036456429528975</v>
       </c>
       <c r="K21">
-        <v>1.04443540622432</v>
+        <v>1.051177680108568</v>
       </c>
       <c r="L21">
-        <v>1.027671494920473</v>
+        <v>1.044201882588491</v>
       </c>
       <c r="M21">
-        <v>1.042140914697348</v>
+        <v>1.057353987584363</v>
       </c>
       <c r="N21">
-        <v>1.011245299697159</v>
+        <v>1.01612633622114</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9895721311196204</v>
+        <v>1.029288828428862</v>
       </c>
       <c r="D22">
-        <v>1.028121660269476</v>
+        <v>1.047257855081689</v>
       </c>
       <c r="E22">
-        <v>1.010766709048595</v>
+        <v>1.040181186431007</v>
       </c>
       <c r="F22">
-        <v>1.025411633625728</v>
+        <v>1.053364281921081</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046252326271174</v>
+        <v>1.04085858821011</v>
       </c>
       <c r="J22">
-        <v>1.020776936382739</v>
+        <v>1.036169142654264</v>
       </c>
       <c r="K22">
-        <v>1.043155874978015</v>
+        <v>1.050923983245567</v>
       </c>
       <c r="L22">
-        <v>1.02612785076869</v>
+        <v>1.043874217996169</v>
       </c>
       <c r="M22">
-        <v>1.040495948137864</v>
+        <v>1.05700751693059</v>
       </c>
       <c r="N22">
-        <v>1.010773890731641</v>
+        <v>1.016030107967643</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9910526323602448</v>
+        <v>1.029573429066209</v>
       </c>
       <c r="D23">
-        <v>1.029120706152926</v>
+        <v>1.047460541227653</v>
       </c>
       <c r="E23">
-        <v>1.01191716803181</v>
+        <v>1.040423722202343</v>
       </c>
       <c r="F23">
-        <v>1.026609660655553</v>
+        <v>1.053615822954206</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046637606150144</v>
+        <v>1.04091603699493</v>
       </c>
       <c r="J23">
-        <v>1.021521378874003</v>
+        <v>1.036321417480305</v>
       </c>
       <c r="K23">
-        <v>1.043836555626782</v>
+        <v>1.051058475003374</v>
       </c>
       <c r="L23">
-        <v>1.026948751910424</v>
+        <v>1.044047870963371</v>
       </c>
       <c r="M23">
-        <v>1.041370737508022</v>
+        <v>1.057191143214703</v>
       </c>
       <c r="N23">
-        <v>1.011024660300676</v>
+        <v>1.016081116226532</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9967735556919155</v>
+        <v>1.030695937613366</v>
       </c>
       <c r="D24">
-        <v>1.032992877404822</v>
+        <v>1.04826006953707</v>
       </c>
       <c r="E24">
-        <v>1.016378711629255</v>
+        <v>1.041381196904753</v>
       </c>
       <c r="F24">
-        <v>1.0312548290516</v>
+        <v>1.054608653280052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048112385212139</v>
+        <v>1.041140545122785</v>
       </c>
       <c r="J24">
-        <v>1.024396373137212</v>
+        <v>1.036921375180505</v>
       </c>
       <c r="K24">
-        <v>1.046464357325159</v>
+        <v>1.051587897735012</v>
       </c>
       <c r="L24">
-        <v>1.030124176917368</v>
+        <v>1.044732586566963</v>
       </c>
       <c r="M24">
-        <v>1.044754440270692</v>
+        <v>1.05791503597523</v>
       </c>
       <c r="N24">
-        <v>1.011993004238346</v>
+        <v>1.0162820202374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003202747856578</v>
+        <v>1.032002740940922</v>
       </c>
       <c r="D25">
-        <v>1.037365906609259</v>
+        <v>1.049191053522649</v>
       </c>
       <c r="E25">
-        <v>1.021423539816719</v>
+        <v>1.042497667264854</v>
       </c>
       <c r="F25">
-        <v>1.036505285729992</v>
+        <v>1.055765944583851</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049739680137414</v>
+        <v>1.041397600009339</v>
       </c>
       <c r="J25">
-        <v>1.027622805414691</v>
+        <v>1.037618504767872</v>
       </c>
       <c r="K25">
-        <v>1.049410590982396</v>
+        <v>1.052202084787966</v>
       </c>
       <c r="L25">
-        <v>1.033698142850112</v>
+        <v>1.045529295388852</v>
       </c>
       <c r="M25">
-        <v>1.048562153484446</v>
+        <v>1.058757020849704</v>
       </c>
       <c r="N25">
-        <v>1.013079411140248</v>
+        <v>1.016515323927864</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033048350214858</v>
+        <v>1.008174010021909</v>
       </c>
       <c r="D2">
-        <v>1.049936085579724</v>
+        <v>1.040762222379935</v>
       </c>
       <c r="E2">
-        <v>1.043392414093089</v>
+        <v>1.025347557479589</v>
       </c>
       <c r="F2">
-        <v>1.056693077107794</v>
+        <v>1.040587393783588</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041599793834862</v>
+        <v>1.050972522937891</v>
       </c>
       <c r="J2">
-        <v>1.03817521648763</v>
+        <v>1.030112956553493</v>
       </c>
       <c r="K2">
-        <v>1.052691758345476</v>
+        <v>1.05168144707911</v>
       </c>
       <c r="L2">
-        <v>1.046166408771222</v>
+        <v>1.036464703670909</v>
       </c>
       <c r="M2">
-        <v>1.059430088694119</v>
+        <v>1.051508822225597</v>
       </c>
       <c r="N2">
-        <v>1.016701521056828</v>
+        <v>1.013917578306982</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.033809436172126</v>
+        <v>1.011698458465332</v>
       </c>
       <c r="D3">
-        <v>1.050478445362427</v>
+        <v>1.043177683184746</v>
       </c>
       <c r="E3">
-        <v>1.044044506942185</v>
+        <v>1.02814223287873</v>
       </c>
       <c r="F3">
-        <v>1.0573685816333</v>
+        <v>1.043493472585408</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041744946503135</v>
+        <v>1.051831193499356</v>
       </c>
       <c r="J3">
-        <v>1.038579809084225</v>
+        <v>1.031875213569079</v>
       </c>
       <c r="K3">
-        <v>1.053047160829539</v>
+        <v>1.053286369256421</v>
       </c>
       <c r="L3">
-        <v>1.046629943025823</v>
+        <v>1.038427258879595</v>
       </c>
       <c r="M3">
-        <v>1.05991963423988</v>
+        <v>1.053598522290085</v>
       </c>
       <c r="N3">
-        <v>1.016836773943497</v>
+        <v>1.014510521176379</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.034302767882629</v>
+        <v>1.013941392821106</v>
       </c>
       <c r="D4">
-        <v>1.050830023517636</v>
+        <v>1.044718047874583</v>
       </c>
       <c r="E4">
-        <v>1.04446756476127</v>
+        <v>1.029926387923722</v>
       </c>
       <c r="F4">
-        <v>1.057806739653426</v>
+        <v>1.045348162978457</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041838097727256</v>
+        <v>1.052370320155885</v>
       </c>
       <c r="J4">
-        <v>1.038841770502437</v>
+        <v>1.032995076667435</v>
       </c>
       <c r="K4">
-        <v>1.05327705418585</v>
+        <v>1.054305136585167</v>
       </c>
       <c r="L4">
-        <v>1.046930302783533</v>
+        <v>1.039676561482789</v>
       </c>
       <c r="M4">
-        <v>1.060236780014811</v>
+        <v>1.054928430100476</v>
       </c>
       <c r="N4">
-        <v>1.016924315018851</v>
+        <v>1.014887205277766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.034510367969049</v>
+        <v>1.014875566515528</v>
       </c>
       <c r="D5">
-        <v>1.050977976941212</v>
+        <v>1.045360319562203</v>
       </c>
       <c r="E5">
-        <v>1.044645681917386</v>
+        <v>1.030670802943863</v>
       </c>
       <c r="F5">
-        <v>1.057991193119305</v>
+        <v>1.046121862243453</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041877072809386</v>
+        <v>1.052593076068799</v>
       </c>
       <c r="J5">
-        <v>1.038951936708822</v>
+        <v>1.033461082749286</v>
       </c>
       <c r="K5">
-        <v>1.053373681719965</v>
+        <v>1.054728788697872</v>
       </c>
       <c r="L5">
-        <v>1.047056673479358</v>
+        <v>1.040196946657086</v>
       </c>
       <c r="M5">
-        <v>1.060370196593117</v>
+        <v>1.055482304773064</v>
       </c>
       <c r="N5">
-        <v>1.016961122392146</v>
+        <v>1.015043924886421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034545236807876</v>
+        <v>1.01503191204089</v>
       </c>
       <c r="D6">
-        <v>1.051002827705643</v>
+        <v>1.045467852359759</v>
       </c>
       <c r="E6">
-        <v>1.044675603970403</v>
+        <v>1.030795466717974</v>
       </c>
       <c r="F6">
-        <v>1.058022178369385</v>
+        <v>1.046251421409815</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041883605984481</v>
+        <v>1.052630251041236</v>
       </c>
       <c r="J6">
-        <v>1.038970436265748</v>
+        <v>1.033539049724043</v>
       </c>
       <c r="K6">
-        <v>1.0533899047137</v>
+        <v>1.054799652195178</v>
       </c>
       <c r="L6">
-        <v>1.04707789746076</v>
+        <v>1.040284042012873</v>
       </c>
       <c r="M6">
-        <v>1.060392602961312</v>
+        <v>1.055574999942419</v>
       </c>
       <c r="N6">
-        <v>1.016967302796903</v>
+        <v>1.015070143713588</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.034305541048315</v>
+        <v>1.013953909374888</v>
       </c>
       <c r="D7">
-        <v>1.050831999891878</v>
+        <v>1.044726650608638</v>
       </c>
       <c r="E7">
-        <v>1.044469943738141</v>
+        <v>1.029936356818303</v>
       </c>
       <c r="F7">
-        <v>1.057809203342993</v>
+        <v>1.045358524616629</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041838619244869</v>
+        <v>1.052373311856004</v>
       </c>
       <c r="J7">
-        <v>1.038843242402574</v>
+        <v>1.033001322122193</v>
       </c>
       <c r="K7">
-        <v>1.053278345406699</v>
+        <v>1.054310815557861</v>
       </c>
       <c r="L7">
-        <v>1.046931990966182</v>
+        <v>1.039683533696497</v>
       </c>
       <c r="M7">
-        <v>1.060238562388175</v>
+        <v>1.054935851359517</v>
       </c>
       <c r="N7">
-        <v>1.016924806821343</v>
+        <v>1.014889305765029</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033305383865525</v>
+        <v>1.009373056963085</v>
       </c>
       <c r="D8">
-        <v>1.050119245855258</v>
+        <v>1.041583287328229</v>
       </c>
       <c r="E8">
-        <v>1.043612560788099</v>
+        <v>1.026297129064945</v>
       </c>
       <c r="F8">
-        <v>1.05692114588517</v>
+        <v>1.041574937007049</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041649008271236</v>
+        <v>1.051266162948441</v>
       </c>
       <c r="J8">
-        <v>1.038311915876606</v>
+        <v>1.030712816992485</v>
       </c>
       <c r="K8">
-        <v>1.052811883086454</v>
+        <v>1.052227973995421</v>
       </c>
       <c r="L8">
-        <v>1.046322973984301</v>
+        <v>1.037132291956928</v>
       </c>
       <c r="M8">
-        <v>1.059595453760283</v>
+        <v>1.052219725827031</v>
       </c>
       <c r="N8">
-        <v>1.016747225254732</v>
+        <v>1.014119434828307</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031549641428315</v>
+        <v>1.001001169638706</v>
       </c>
       <c r="D9">
-        <v>1.048868238231785</v>
+        <v>1.035865931083564</v>
       </c>
       <c r="E9">
-        <v>1.042110338619025</v>
+        <v>1.019692264625594</v>
       </c>
       <c r="F9">
-        <v>1.055364504875898</v>
+        <v>1.034703717833338</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041309010926926</v>
+        <v>1.049186348506625</v>
       </c>
       <c r="J9">
-        <v>1.037376959972023</v>
+        <v>1.026518623493119</v>
       </c>
       <c r="K9">
-        <v>1.051989401769398</v>
+        <v>1.048402726465784</v>
       </c>
       <c r="L9">
-        <v>1.045253111683132</v>
+        <v>1.032473728317793</v>
       </c>
       <c r="M9">
-        <v>1.058465180698677</v>
+        <v>1.047257770352117</v>
       </c>
       <c r="N9">
-        <v>1.016434505274183</v>
+        <v>1.012707655348281</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030383746951402</v>
+        <v>0.9952011862099627</v>
       </c>
       <c r="D10">
-        <v>1.048037689823383</v>
+        <v>1.031926802824137</v>
       </c>
       <c r="E10">
-        <v>1.041114763783994</v>
+        <v>1.015149928653701</v>
       </c>
       <c r="F10">
-        <v>1.054332413528241</v>
+        <v>1.029975619627981</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041078442389534</v>
+        <v>1.047709381835096</v>
       </c>
       <c r="J10">
-        <v>1.036754619339119</v>
+        <v>1.023606501806324</v>
       </c>
       <c r="K10">
-        <v>1.051440823377287</v>
+        <v>1.045742582063971</v>
       </c>
       <c r="L10">
-        <v>1.044542186896776</v>
+        <v>1.029250930004061</v>
       </c>
       <c r="M10">
-        <v>1.05771376631326</v>
+        <v>1.043823955400706</v>
       </c>
       <c r="N10">
-        <v>1.01622619064853</v>
+        <v>1.01172698395805</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02988001864528</v>
+        <v>0.9926338053092728</v>
       </c>
       <c r="D11">
-        <v>1.04767889954844</v>
+        <v>1.030189070235971</v>
       </c>
       <c r="E11">
-        <v>1.040685096876186</v>
+        <v>1.013147721094064</v>
       </c>
       <c r="F11">
-        <v>1.053886880223416</v>
+        <v>1.02789100107328</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040977688135388</v>
+        <v>1.047047499408168</v>
       </c>
       <c r="J11">
-        <v>1.036485385078916</v>
+        <v>1.02231627016704</v>
       </c>
       <c r="K11">
-        <v>1.051203240674697</v>
+        <v>1.044563270252862</v>
       </c>
       <c r="L11">
-        <v>1.044234918453614</v>
+        <v>1.027825878183733</v>
       </c>
       <c r="M11">
-        <v>1.057388916547737</v>
+        <v>1.042305428587892</v>
       </c>
       <c r="N11">
-        <v>1.016136033691413</v>
+        <v>1.011292412044824</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029693080636446</v>
+        <v>0.9916713952490052</v>
       </c>
       <c r="D12">
-        <v>1.04754575763448</v>
+        <v>1.029538621184269</v>
       </c>
       <c r="E12">
-        <v>1.040525715545588</v>
+        <v>1.012398492264202</v>
       </c>
       <c r="F12">
-        <v>1.053721597375656</v>
+        <v>1.027110861865751</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040940126649484</v>
+        <v>1.046798209006995</v>
       </c>
       <c r="J12">
-        <v>1.036385417480344</v>
+        <v>1.021832467529542</v>
       </c>
       <c r="K12">
-        <v>1.051114986711069</v>
+        <v>1.044120975273759</v>
       </c>
       <c r="L12">
-        <v>1.044120872070487</v>
+        <v>1.027291950221454</v>
       </c>
       <c r="M12">
-        <v>1.05726833249583</v>
+        <v>1.041736461668006</v>
       </c>
       <c r="N12">
-        <v>1.016102552608464</v>
+        <v>1.011129449168153</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.029733171787604</v>
+        <v>0.9918782384226393</v>
       </c>
       <c r="D13">
-        <v>1.047574311165155</v>
+        <v>1.029678372629115</v>
       </c>
       <c r="E13">
-        <v>1.040559893567994</v>
+        <v>1.012559457647473</v>
       </c>
       <c r="F13">
-        <v>1.053757041654404</v>
+        <v>1.027278471213234</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040948189895993</v>
+        <v>1.046851839550211</v>
       </c>
       <c r="J13">
-        <v>1.036406859127296</v>
+        <v>1.021936453480171</v>
       </c>
       <c r="K13">
-        <v>1.051133917695136</v>
+        <v>1.044216043211438</v>
       </c>
       <c r="L13">
-        <v>1.044145331452394</v>
+        <v>1.027406690399597</v>
       </c>
       <c r="M13">
-        <v>1.057294194551914</v>
+        <v>1.041858732254267</v>
       </c>
       <c r="N13">
-        <v>1.016109734079166</v>
+        <v>1.011164475952587</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029864562829201</v>
+        <v>0.9925544332839215</v>
       </c>
       <c r="D14">
-        <v>1.047667891356928</v>
+        <v>1.030135406413892</v>
       </c>
       <c r="E14">
-        <v>1.040671917944718</v>
+        <v>1.013085903453271</v>
       </c>
       <c r="F14">
-        <v>1.053873213633612</v>
+        <v>1.027826634490651</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040974586078532</v>
+        <v>1.047026963595793</v>
       </c>
       <c r="J14">
-        <v>1.036477120942692</v>
+        <v>1.022276372706485</v>
       </c>
       <c r="K14">
-        <v>1.051195945671111</v>
+        <v>1.044526797354759</v>
       </c>
       <c r="L14">
-        <v>1.044225489563767</v>
+        <v>1.027781838324816</v>
       </c>
       <c r="M14">
-        <v>1.057378947397594</v>
+        <v>1.042258498900988</v>
       </c>
       <c r="N14">
-        <v>1.016133265984274</v>
+        <v>1.011278973273556</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029945539658057</v>
+        <v>0.9929698858547068</v>
       </c>
       <c r="D15">
-        <v>1.047725566329542</v>
+        <v>1.030416335481717</v>
       </c>
       <c r="E15">
-        <v>1.040740968560674</v>
+        <v>1.013409526231424</v>
       </c>
       <c r="F15">
-        <v>1.053944818664901</v>
+        <v>1.02816359838811</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040990831526109</v>
+        <v>1.047134405281392</v>
       </c>
       <c r="J15">
-        <v>1.036520416643447</v>
+        <v>1.022485200005552</v>
       </c>
       <c r="K15">
-        <v>1.051234162515205</v>
+        <v>1.044717696854399</v>
       </c>
       <c r="L15">
-        <v>1.044274889172904</v>
+        <v>1.028012364864716</v>
       </c>
       <c r="M15">
-        <v>1.057431177027988</v>
+        <v>1.042504151621415</v>
       </c>
       <c r="N15">
-        <v>1.016147765740514</v>
+        <v>1.011349312753493</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030417201340861</v>
+        <v>0.9953703653298961</v>
       </c>
       <c r="D16">
-        <v>1.048061519491511</v>
+        <v>1.032041441323373</v>
       </c>
       <c r="E16">
-        <v>1.041143309543683</v>
+        <v>1.015282046220937</v>
       </c>
       <c r="F16">
-        <v>1.054362011153564</v>
+        <v>1.03011316471446</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041085109877804</v>
+        <v>1.047752831201335</v>
       </c>
       <c r="J16">
-        <v>1.036772492779623</v>
+        <v>1.023691500488211</v>
       </c>
       <c r="K16">
-        <v>1.051456590149566</v>
+        <v>1.045820260468137</v>
       </c>
       <c r="L16">
-        <v>1.04456259137249</v>
+        <v>1.029344869801081</v>
       </c>
       <c r="M16">
-        <v>1.057735336585857</v>
+        <v>1.043924054322326</v>
       </c>
       <c r="N16">
-        <v>1.016232175053728</v>
+        <v>1.011755611462077</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030713361362913</v>
+        <v>0.9968608917809896</v>
       </c>
       <c r="D17">
-        <v>1.048272481172466</v>
+        <v>1.033052131770239</v>
       </c>
       <c r="E17">
-        <v>1.041396070106799</v>
+        <v>1.016447020606518</v>
       </c>
       <c r="F17">
-        <v>1.054624073192667</v>
+        <v>1.031325937699969</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041144003396271</v>
+        <v>1.048134715146492</v>
       </c>
       <c r="J17">
-        <v>1.036930679642094</v>
+        <v>1.024440238063897</v>
       </c>
       <c r="K17">
-        <v>1.051596102262881</v>
+        <v>1.046504435744346</v>
       </c>
       <c r="L17">
-        <v>1.044743212250778</v>
+        <v>1.030172691099397</v>
       </c>
       <c r="M17">
-        <v>1.057926267728437</v>
+        <v>1.044806133240052</v>
       </c>
       <c r="N17">
-        <v>1.016285135105215</v>
+        <v>1.012007776942016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030886213615281</v>
+        <v>0.9977249178979767</v>
       </c>
       <c r="D18">
-        <v>1.048395612711806</v>
+        <v>1.03363856790991</v>
       </c>
       <c r="E18">
-        <v>1.041543638272015</v>
+        <v>1.017123134722178</v>
       </c>
       <c r="F18">
-        <v>1.054777061481827</v>
+        <v>1.032029741569805</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041178266498971</v>
+        <v>1.048355311164644</v>
       </c>
       <c r="J18">
-        <v>1.037022970745402</v>
+        <v>1.024874151481548</v>
       </c>
       <c r="K18">
-        <v>1.051677472908295</v>
+        <v>1.046900863436942</v>
       </c>
       <c r="L18">
-        <v>1.044848619918478</v>
+        <v>1.030652704418459</v>
       </c>
       <c r="M18">
-        <v>1.058037684452847</v>
+        <v>1.045317591307183</v>
       </c>
       <c r="N18">
-        <v>1.016316030080733</v>
+        <v>1.012153905816495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030945169872558</v>
+        <v>0.9980186279286647</v>
       </c>
       <c r="D19">
-        <v>1.048437611084818</v>
+        <v>1.033838009387681</v>
       </c>
       <c r="E19">
-        <v>1.041593978407756</v>
+        <v>1.017353102385107</v>
       </c>
       <c r="F19">
-        <v>1.054829248841131</v>
+        <v>1.032269118514196</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041189934296767</v>
+        <v>1.048430166335975</v>
       </c>
       <c r="J19">
-        <v>1.037054443549082</v>
+        <v>1.025021632314247</v>
       </c>
       <c r="K19">
-        <v>1.051705217400778</v>
+        <v>1.047035590818065</v>
       </c>
       <c r="L19">
-        <v>1.044884570413847</v>
+        <v>1.030815899411869</v>
       </c>
       <c r="M19">
-        <v>1.05807568307054</v>
+        <v>1.045491473814828</v>
       </c>
       <c r="N19">
-        <v>1.016326565178108</v>
+        <v>1.012203571508963</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030681575100153</v>
+        <v>0.9967015307027932</v>
       </c>
       <c r="D20">
-        <v>1.048249838570227</v>
+        <v>1.032944014225108</v>
       </c>
       <c r="E20">
-        <v>1.041368937082741</v>
+        <v>1.016322382599438</v>
       </c>
       <c r="F20">
-        <v>1.054595942752188</v>
+        <v>1.031196191064276</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041137693826067</v>
+        <v>1.048093965611542</v>
       </c>
       <c r="J20">
-        <v>1.036913705259894</v>
+        <v>1.024360197629652</v>
       </c>
       <c r="K20">
-        <v>1.051581134378514</v>
+        <v>1.046431304159239</v>
       </c>
       <c r="L20">
-        <v>1.044723827684007</v>
+        <v>1.030084168677222</v>
       </c>
       <c r="M20">
-        <v>1.057905777457434</v>
+        <v>1.044711810481647</v>
       </c>
       <c r="N20">
-        <v>1.016279452547145</v>
+        <v>1.011980821110968</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02982586675714</v>
+        <v>0.9923555558836407</v>
       </c>
       <c r="D21">
-        <v>1.047640330750831</v>
+        <v>1.030000960093437</v>
       </c>
       <c r="E21">
-        <v>1.040638923575002</v>
+        <v>1.012931032390387</v>
       </c>
       <c r="F21">
-        <v>1.053838998118764</v>
+        <v>1.027665376455311</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040966816832271</v>
+        <v>1.046975489496582</v>
       </c>
       <c r="J21">
-        <v>1.036456429528975</v>
+        <v>1.022176401953762</v>
       </c>
       <c r="K21">
-        <v>1.051177680108568</v>
+        <v>1.04443540622432</v>
       </c>
       <c r="L21">
-        <v>1.044201882588491</v>
+        <v>1.027671494920474</v>
       </c>
       <c r="M21">
-        <v>1.057353987584363</v>
+        <v>1.042140914697349</v>
       </c>
       <c r="N21">
-        <v>1.01612633622114</v>
+        <v>1.011245299697159</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029288828428862</v>
+        <v>0.9895721311196205</v>
       </c>
       <c r="D22">
-        <v>1.047257855081689</v>
+        <v>1.028121660269476</v>
       </c>
       <c r="E22">
-        <v>1.040181186431007</v>
+        <v>1.010766709048595</v>
       </c>
       <c r="F22">
-        <v>1.053364281921081</v>
+        <v>1.025411633625728</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04085858821011</v>
+        <v>1.046252326271174</v>
       </c>
       <c r="J22">
-        <v>1.036169142654264</v>
+        <v>1.02077693638274</v>
       </c>
       <c r="K22">
-        <v>1.050923983245567</v>
+        <v>1.043155874978015</v>
       </c>
       <c r="L22">
-        <v>1.043874217996169</v>
+        <v>1.02612785076869</v>
       </c>
       <c r="M22">
-        <v>1.05700751693059</v>
+        <v>1.040495948137864</v>
       </c>
       <c r="N22">
-        <v>1.016030107967643</v>
+        <v>1.010773890731641</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029573429066209</v>
+        <v>0.9910526323602449</v>
       </c>
       <c r="D23">
-        <v>1.047460541227653</v>
+        <v>1.029120706152926</v>
       </c>
       <c r="E23">
-        <v>1.040423722202343</v>
+        <v>1.01191716803181</v>
       </c>
       <c r="F23">
-        <v>1.053615822954206</v>
+        <v>1.026609660655553</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04091603699493</v>
+        <v>1.046637606150144</v>
       </c>
       <c r="J23">
-        <v>1.036321417480305</v>
+        <v>1.021521378874003</v>
       </c>
       <c r="K23">
-        <v>1.051058475003374</v>
+        <v>1.043836555626782</v>
       </c>
       <c r="L23">
-        <v>1.044047870963371</v>
+        <v>1.026948751910424</v>
       </c>
       <c r="M23">
-        <v>1.057191143214703</v>
+        <v>1.041370737508022</v>
       </c>
       <c r="N23">
-        <v>1.016081116226532</v>
+        <v>1.011024660300676</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030695937613366</v>
+        <v>0.9967735556919163</v>
       </c>
       <c r="D24">
-        <v>1.04826006953707</v>
+        <v>1.032992877404823</v>
       </c>
       <c r="E24">
-        <v>1.041381196904753</v>
+        <v>1.016378711629255</v>
       </c>
       <c r="F24">
-        <v>1.054608653280052</v>
+        <v>1.031254829051601</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041140545122785</v>
+        <v>1.048112385212139</v>
       </c>
       <c r="J24">
-        <v>1.036921375180505</v>
+        <v>1.024396373137213</v>
       </c>
       <c r="K24">
-        <v>1.051587897735012</v>
+        <v>1.046464357325159</v>
       </c>
       <c r="L24">
-        <v>1.044732586566963</v>
+        <v>1.030124176917369</v>
       </c>
       <c r="M24">
-        <v>1.05791503597523</v>
+        <v>1.044754440270693</v>
       </c>
       <c r="N24">
-        <v>1.0162820202374</v>
+        <v>1.011993004238347</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032002740940922</v>
+        <v>1.003202747856579</v>
       </c>
       <c r="D25">
-        <v>1.049191053522649</v>
+        <v>1.03736590660926</v>
       </c>
       <c r="E25">
-        <v>1.042497667264854</v>
+        <v>1.02142353981672</v>
       </c>
       <c r="F25">
-        <v>1.055765944583851</v>
+        <v>1.036505285729993</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041397600009339</v>
+        <v>1.049739680137415</v>
       </c>
       <c r="J25">
-        <v>1.037618504767872</v>
+        <v>1.027622805414692</v>
       </c>
       <c r="K25">
-        <v>1.052202084787966</v>
+        <v>1.049410590982397</v>
       </c>
       <c r="L25">
-        <v>1.045529295388852</v>
+        <v>1.033698142850112</v>
       </c>
       <c r="M25">
-        <v>1.058757020849704</v>
+        <v>1.048562153484448</v>
       </c>
       <c r="N25">
-        <v>1.016515323927864</v>
+        <v>1.013079411140249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008174010021909</v>
+        <v>1.024465135401686</v>
       </c>
       <c r="D2">
-        <v>1.040762222379935</v>
+        <v>1.052345987052317</v>
       </c>
       <c r="E2">
-        <v>1.025347557479589</v>
+        <v>1.038664743541397</v>
       </c>
       <c r="F2">
-        <v>1.040587393783588</v>
+        <v>1.052349761639021</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050972522937891</v>
+        <v>1.063714311401973</v>
       </c>
       <c r="J2">
-        <v>1.030112956553493</v>
+        <v>1.045937934808215</v>
       </c>
       <c r="K2">
-        <v>1.05168144707911</v>
+        <v>1.063121226216886</v>
       </c>
       <c r="L2">
-        <v>1.036464703670909</v>
+        <v>1.049610468392886</v>
       </c>
       <c r="M2">
-        <v>1.051508822225597</v>
+        <v>1.063124954528301</v>
       </c>
       <c r="N2">
-        <v>1.013917578306982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018673764139378</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.058531337725658</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.055702174758363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011698458465332</v>
+        <v>1.02873499054484</v>
       </c>
       <c r="D3">
-        <v>1.043177683184746</v>
+        <v>1.054676066119042</v>
       </c>
       <c r="E3">
-        <v>1.02814223287873</v>
+        <v>1.041915435007418</v>
       </c>
       <c r="F3">
-        <v>1.043493472585408</v>
+        <v>1.055164297135139</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051831193499356</v>
+        <v>1.064887055382395</v>
       </c>
       <c r="J3">
-        <v>1.031875213569079</v>
+        <v>1.048471824720252</v>
       </c>
       <c r="K3">
-        <v>1.053286369256421</v>
+        <v>1.064654075494996</v>
       </c>
       <c r="L3">
-        <v>1.038427258879595</v>
+        <v>1.052038683270222</v>
       </c>
       <c r="M3">
-        <v>1.053598522290085</v>
+        <v>1.06513683548105</v>
       </c>
       <c r="N3">
-        <v>1.014510521176379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01956039193593</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.060123566402719</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.056783378666649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013941392821106</v>
+        <v>1.03144662081666</v>
       </c>
       <c r="D4">
-        <v>1.044718047874583</v>
+        <v>1.056161710530795</v>
       </c>
       <c r="E4">
-        <v>1.029926387923722</v>
+        <v>1.043985952267973</v>
       </c>
       <c r="F4">
-        <v>1.045348162978457</v>
+        <v>1.056958861738613</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052370320155885</v>
+        <v>1.065623482184907</v>
       </c>
       <c r="J4">
-        <v>1.032995076667435</v>
+        <v>1.050078746398781</v>
       </c>
       <c r="K4">
-        <v>1.054305136585167</v>
+        <v>1.065626462533498</v>
       </c>
       <c r="L4">
-        <v>1.039676561482789</v>
+        <v>1.053580979288266</v>
       </c>
       <c r="M4">
-        <v>1.054928430100476</v>
+        <v>1.06641521261068</v>
       </c>
       <c r="N4">
-        <v>1.014887205277766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.020122473846184</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.061135288937803</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.057471783544285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014875566515528</v>
+        <v>1.032577543550188</v>
       </c>
       <c r="D5">
-        <v>1.045360319562203</v>
+        <v>1.056786335857511</v>
       </c>
       <c r="E5">
-        <v>1.030670802943863</v>
+        <v>1.044851752515039</v>
       </c>
       <c r="F5">
-        <v>1.046121862243453</v>
+        <v>1.057710281265891</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052593076068799</v>
+        <v>1.065930420435334</v>
       </c>
       <c r="J5">
-        <v>1.033461082749286</v>
+        <v>1.050749447593471</v>
       </c>
       <c r="K5">
-        <v>1.054728788697872</v>
+        <v>1.066035857951687</v>
       </c>
       <c r="L5">
-        <v>1.040196946657086</v>
+        <v>1.054225589880645</v>
       </c>
       <c r="M5">
-        <v>1.055482304773064</v>
+        <v>1.066950321843826</v>
       </c>
       <c r="N5">
-        <v>1.015043924886421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020357901495669</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.061558780219534</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.057768250309633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01503191204089</v>
+        <v>1.032770181611196</v>
       </c>
       <c r="D6">
-        <v>1.045467852359759</v>
+        <v>1.056897250250142</v>
       </c>
       <c r="E6">
-        <v>1.030795466717974</v>
+        <v>1.045000327768862</v>
       </c>
       <c r="F6">
-        <v>1.046251421409815</v>
+        <v>1.057839954093831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052630251041236</v>
+        <v>1.065984821712727</v>
       </c>
       <c r="J6">
-        <v>1.033539049724043</v>
+        <v>1.050864979506959</v>
       </c>
       <c r="K6">
-        <v>1.054799652195178</v>
+        <v>1.066110604046721</v>
       </c>
       <c r="L6">
-        <v>1.040284042012873</v>
+        <v>1.054337040108718</v>
       </c>
       <c r="M6">
-        <v>1.055574999942419</v>
+        <v>1.067043677634749</v>
       </c>
       <c r="N6">
-        <v>1.015070143713588</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020399519599053</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.061632662986746</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.057829639870209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013953909374888</v>
+        <v>1.031471049966676</v>
       </c>
       <c r="D7">
-        <v>1.044726650608638</v>
+        <v>1.056187063591099</v>
       </c>
       <c r="E7">
-        <v>1.029936356818303</v>
+        <v>1.044007386636375</v>
       </c>
       <c r="F7">
-        <v>1.045358524616629</v>
+        <v>1.056979304609751</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052373311856004</v>
+        <v>1.065636108386054</v>
       </c>
       <c r="J7">
-        <v>1.033001322122193</v>
+        <v>1.050096791399554</v>
       </c>
       <c r="K7">
-        <v>1.054310815557861</v>
+        <v>1.065648758229862</v>
       </c>
       <c r="L7">
-        <v>1.039683533696497</v>
+        <v>1.053599347892701</v>
       </c>
       <c r="M7">
-        <v>1.054935851359517</v>
+        <v>1.06643265307308</v>
       </c>
       <c r="N7">
-        <v>1.014889305765029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.020131718103268</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061149091513551</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.057507191113381</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009373056963085</v>
+        <v>1.025930715425917</v>
       </c>
       <c r="D8">
-        <v>1.041583287328229</v>
+        <v>1.053159097797977</v>
       </c>
       <c r="E8">
-        <v>1.026297129064945</v>
+        <v>1.039782703387397</v>
       </c>
       <c r="F8">
-        <v>1.041574937007049</v>
+        <v>1.053319464403206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051266162948441</v>
+        <v>1.064125867601119</v>
       </c>
       <c r="J8">
-        <v>1.030712816992485</v>
+        <v>1.04681256010067</v>
       </c>
       <c r="K8">
-        <v>1.052227973995421</v>
+        <v>1.063664104326607</v>
       </c>
       <c r="L8">
-        <v>1.037132291956928</v>
+        <v>1.050449464541697</v>
       </c>
       <c r="M8">
-        <v>1.052219725827031</v>
+        <v>1.063822562588076</v>
       </c>
       <c r="N8">
-        <v>1.014119434828307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018983658484172</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.059083434163406</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.056108401688392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001001169638706</v>
+        <v>1.015741478399724</v>
       </c>
       <c r="D9">
-        <v>1.035865931083564</v>
+        <v>1.0476210232416</v>
       </c>
       <c r="E9">
-        <v>1.019692264625594</v>
+        <v>1.03205924867397</v>
       </c>
       <c r="F9">
-        <v>1.034703717833338</v>
+        <v>1.04664131935965</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049186348506625</v>
+        <v>1.061274551873714</v>
       </c>
       <c r="J9">
-        <v>1.026518623493119</v>
+        <v>1.040750353225709</v>
       </c>
       <c r="K9">
-        <v>1.048402726465784</v>
+        <v>1.059985999910072</v>
       </c>
       <c r="L9">
-        <v>1.032473728317793</v>
+        <v>1.044652751893057</v>
       </c>
       <c r="M9">
-        <v>1.047257770352117</v>
+        <v>1.059020429076964</v>
       </c>
       <c r="N9">
-        <v>1.012707655348281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.016858269179125</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.055282952812896</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.053504748042224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9952011862099627</v>
+        <v>1.008717500999613</v>
       </c>
       <c r="D10">
-        <v>1.031926802824137</v>
+        <v>1.043867095218601</v>
       </c>
       <c r="E10">
-        <v>1.015149928653701</v>
+        <v>1.026798279635649</v>
       </c>
       <c r="F10">
-        <v>1.029975619627981</v>
+        <v>1.042135213859103</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047709381835096</v>
+        <v>1.059292392075857</v>
       </c>
       <c r="J10">
-        <v>1.023606501806324</v>
+        <v>1.036589466125655</v>
       </c>
       <c r="K10">
-        <v>1.045742582063971</v>
+        <v>1.057487047843423</v>
       </c>
       <c r="L10">
-        <v>1.029250930004061</v>
+        <v>1.040699972573362</v>
       </c>
       <c r="M10">
-        <v>1.043823955400706</v>
+        <v>1.055783212852075</v>
       </c>
       <c r="N10">
-        <v>1.01172698395805</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.015414196142708</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.052771521537181</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.051754352512668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9926338053092728</v>
+        <v>1.006171280531911</v>
       </c>
       <c r="D11">
-        <v>1.030189070235971</v>
+        <v>1.042711770501336</v>
       </c>
       <c r="E11">
-        <v>1.013147721094064</v>
+        <v>1.025104573733032</v>
       </c>
       <c r="F11">
-        <v>1.02789100107328</v>
+        <v>1.040937251574914</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047047499408168</v>
+        <v>1.058747853323887</v>
       </c>
       <c r="J11">
-        <v>1.02231627016704</v>
+        <v>1.035289561675875</v>
       </c>
       <c r="K11">
-        <v>1.044563270252862</v>
+        <v>1.056870782488404</v>
       </c>
       <c r="L11">
-        <v>1.027825878183733</v>
+        <v>1.039568091178904</v>
       </c>
       <c r="M11">
-        <v>1.042305428587892</v>
+        <v>1.055126350105102</v>
       </c>
       <c r="N11">
-        <v>1.011292412044824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.015085821800623</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.0526808714404</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.05135078128437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9916713952490052</v>
+        <v>1.005415749124771</v>
       </c>
       <c r="D12">
-        <v>1.029538621184269</v>
+        <v>1.042446065330964</v>
       </c>
       <c r="E12">
-        <v>1.012398492264202</v>
+        <v>1.024690694875436</v>
       </c>
       <c r="F12">
-        <v>1.027110861865751</v>
+        <v>1.040766686638318</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046798209006995</v>
+        <v>1.058658651696238</v>
       </c>
       <c r="J12">
-        <v>1.021832467529542</v>
+        <v>1.034992660199256</v>
       </c>
       <c r="K12">
-        <v>1.044120975273759</v>
+        <v>1.056802871702208</v>
       </c>
       <c r="L12">
-        <v>1.027291950221454</v>
+        <v>1.039359670181476</v>
       </c>
       <c r="M12">
-        <v>1.041736461668006</v>
+        <v>1.055152429377939</v>
       </c>
       <c r="N12">
-        <v>1.011129449168153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015078218132469</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.053023136826219</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.051302768078437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9918782384226393</v>
+        <v>1.006005108611345</v>
       </c>
       <c r="D13">
-        <v>1.029678372629115</v>
+        <v>1.042871334873079</v>
       </c>
       <c r="E13">
-        <v>1.012559457647473</v>
+        <v>1.025251016220021</v>
       </c>
       <c r="F13">
-        <v>1.027278471213234</v>
+        <v>1.041398815055615</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046851839550211</v>
+        <v>1.058931596014677</v>
       </c>
       <c r="J13">
-        <v>1.021936453480171</v>
+        <v>1.035465778081318</v>
       </c>
       <c r="K13">
-        <v>1.044216043211438</v>
+        <v>1.057179396802389</v>
       </c>
       <c r="L13">
-        <v>1.027406690399597</v>
+        <v>1.039867459795557</v>
       </c>
       <c r="M13">
-        <v>1.041858732254267</v>
+        <v>1.055732131682653</v>
       </c>
       <c r="N13">
-        <v>1.011164475952587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015326898089643</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.053754595647752</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.051566534304296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9925544332839215</v>
+        <v>1.007025667290798</v>
       </c>
       <c r="D14">
-        <v>1.030135406413892</v>
+        <v>1.043483498095196</v>
       </c>
       <c r="E14">
-        <v>1.013085903453271</v>
+        <v>1.026083194599951</v>
       </c>
       <c r="F14">
-        <v>1.027826634490651</v>
+        <v>1.042204679187435</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047026963595793</v>
+        <v>1.059286458806978</v>
       </c>
       <c r="J14">
-        <v>1.022276372706485</v>
+        <v>1.036144304020352</v>
       </c>
       <c r="K14">
-        <v>1.044526797354759</v>
+        <v>1.057645423379785</v>
       </c>
       <c r="L14">
-        <v>1.027781838324816</v>
+        <v>1.040545778557499</v>
       </c>
       <c r="M14">
-        <v>1.042258498900988</v>
+        <v>1.056388259895134</v>
       </c>
       <c r="N14">
-        <v>1.011278973273556</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015616474518486</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.054444623517761</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.051897410735761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9929698858547068</v>
+        <v>1.007572794257605</v>
       </c>
       <c r="D15">
-        <v>1.030416335481717</v>
+        <v>1.043792881880163</v>
       </c>
       <c r="E15">
-        <v>1.013409526231424</v>
+        <v>1.026506635599383</v>
       </c>
       <c r="F15">
-        <v>1.02816359838811</v>
+        <v>1.042588602253666</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047134405281392</v>
+        <v>1.05945768640876</v>
       </c>
       <c r="J15">
-        <v>1.022485200005552</v>
+        <v>1.036484690407866</v>
       </c>
       <c r="K15">
-        <v>1.044717696854399</v>
+        <v>1.057866018109675</v>
       </c>
       <c r="L15">
-        <v>1.028012364864716</v>
+        <v>1.040876157992851</v>
       </c>
       <c r="M15">
-        <v>1.042504151621415</v>
+        <v>1.056681976037818</v>
       </c>
       <c r="N15">
-        <v>1.011349312753493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015746700771994</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.054713928712802</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.052059114654268</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9953703653298961</v>
+        <v>1.010441156249624</v>
       </c>
       <c r="D16">
-        <v>1.032041441323373</v>
+        <v>1.045313018656964</v>
       </c>
       <c r="E16">
-        <v>1.015282046220937</v>
+        <v>1.028634249416451</v>
       </c>
       <c r="F16">
-        <v>1.03011316471446</v>
+        <v>1.044402419947022</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047752831201335</v>
+        <v>1.060266613964858</v>
       </c>
       <c r="J16">
-        <v>1.023691500488211</v>
+        <v>1.038171073492123</v>
       </c>
       <c r="K16">
-        <v>1.045820260468137</v>
+        <v>1.058875226536767</v>
       </c>
       <c r="L16">
-        <v>1.029344869801081</v>
+        <v>1.042469840857257</v>
       </c>
       <c r="M16">
-        <v>1.043924054322326</v>
+        <v>1.057979264419351</v>
       </c>
       <c r="N16">
-        <v>1.011755611462077</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016315875120984</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.055701011117369</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.052775729387652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9968608917809896</v>
+        <v>1.012107757241406</v>
       </c>
       <c r="D17">
-        <v>1.033052131770239</v>
+        <v>1.046159289435013</v>
       </c>
       <c r="E17">
-        <v>1.016447020606518</v>
+        <v>1.029831679314197</v>
       </c>
       <c r="F17">
-        <v>1.031325937699969</v>
+        <v>1.045368768120349</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048134715146492</v>
+        <v>1.060698467662091</v>
       </c>
       <c r="J17">
-        <v>1.024440238063897</v>
+        <v>1.039108473943096</v>
       </c>
       <c r="K17">
-        <v>1.046504435744346</v>
+        <v>1.059403649771448</v>
       </c>
       <c r="L17">
-        <v>1.030172691099397</v>
+        <v>1.043336115819312</v>
       </c>
       <c r="M17">
-        <v>1.044806133240052</v>
+        <v>1.058625481017191</v>
       </c>
       <c r="N17">
-        <v>1.012007776942016</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016600620980847</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.056084251162625</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.053151860549757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9977249178979767</v>
+        <v>1.012882652203442</v>
       </c>
       <c r="D18">
-        <v>1.03363856790991</v>
+        <v>1.046476945699341</v>
       </c>
       <c r="E18">
-        <v>1.017123134722178</v>
+        <v>1.030314401651636</v>
       </c>
       <c r="F18">
-        <v>1.032029741569805</v>
+        <v>1.045656897018489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048355311164644</v>
+        <v>1.060830922968669</v>
       </c>
       <c r="J18">
-        <v>1.024874151481548</v>
+        <v>1.039467650045572</v>
       </c>
       <c r="K18">
-        <v>1.046900863436942</v>
+        <v>1.059538912700321</v>
       </c>
       <c r="L18">
-        <v>1.030652704418459</v>
+        <v>1.043629610128148</v>
       </c>
       <c r="M18">
-        <v>1.045317591307183</v>
+        <v>1.058731472223307</v>
       </c>
       <c r="N18">
-        <v>1.012153905816495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01665476507761</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.05593346798754</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.053236113428706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9980186279286647</v>
+        <v>1.012852379811173</v>
       </c>
       <c r="D19">
-        <v>1.033838009387681</v>
+        <v>1.046333710827944</v>
       </c>
       <c r="E19">
-        <v>1.017353102385107</v>
+        <v>1.030151693975339</v>
       </c>
       <c r="F19">
-        <v>1.032269118514196</v>
+        <v>1.045334583372821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048430166335975</v>
+        <v>1.060700080980347</v>
       </c>
       <c r="J19">
-        <v>1.025021632314247</v>
+        <v>1.039306637753339</v>
       </c>
       <c r="K19">
-        <v>1.047035590818065</v>
+        <v>1.059337359742496</v>
       </c>
       <c r="L19">
-        <v>1.030815899411869</v>
+        <v>1.043407638167968</v>
       </c>
       <c r="M19">
-        <v>1.045491473814828</v>
+        <v>1.058353521101429</v>
       </c>
       <c r="N19">
-        <v>1.012203571508963</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016510213837665</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.05531398462875</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.053099869013314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9967015307027932</v>
+        <v>1.010565301562119</v>
       </c>
       <c r="D20">
-        <v>1.032944014225108</v>
+        <v>1.044881806378352</v>
       </c>
       <c r="E20">
-        <v>1.016322382599438</v>
+        <v>1.028188248251158</v>
       </c>
       <c r="F20">
-        <v>1.031196191064276</v>
+        <v>1.043330260921324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048093965611542</v>
+        <v>1.059831877468497</v>
       </c>
       <c r="J20">
-        <v>1.024360197629652</v>
+        <v>1.037694937191077</v>
       </c>
       <c r="K20">
-        <v>1.046431304159239</v>
+        <v>1.058178846128868</v>
       </c>
       <c r="L20">
-        <v>1.030084168677222</v>
+        <v>1.041752911601942</v>
       </c>
       <c r="M20">
-        <v>1.044711810481647</v>
+        <v>1.056651712261675</v>
       </c>
       <c r="N20">
-        <v>1.011980821110968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015807216526878</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.053448465249005</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.052284625564292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9923555558836407</v>
+        <v>1.00517343500367</v>
       </c>
       <c r="D21">
-        <v>1.030000960093437</v>
+        <v>1.041971163352388</v>
       </c>
       <c r="E21">
-        <v>1.012931032390387</v>
+        <v>1.024122950037726</v>
       </c>
       <c r="F21">
-        <v>1.027665376455311</v>
+        <v>1.039802609158667</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046975489496582</v>
+        <v>1.058258816204623</v>
       </c>
       <c r="J21">
-        <v>1.022176401953762</v>
+        <v>1.034456438229512</v>
       </c>
       <c r="K21">
-        <v>1.04443540622432</v>
+        <v>1.056198740495765</v>
       </c>
       <c r="L21">
-        <v>1.027671494920474</v>
+        <v>1.038661277822385</v>
       </c>
       <c r="M21">
-        <v>1.042140914697349</v>
+        <v>1.054067206759114</v>
       </c>
       <c r="N21">
-        <v>1.011245299697159</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014659834706133</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.051362877581854</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.050887831092463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9895721311196205</v>
+        <v>1.001735278049903</v>
       </c>
       <c r="D22">
-        <v>1.028121660269476</v>
+        <v>1.040124689356436</v>
       </c>
       <c r="E22">
-        <v>1.010766709048595</v>
+        <v>1.021549129424165</v>
       </c>
       <c r="F22">
-        <v>1.025411633625728</v>
+        <v>1.037586405231152</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.046252326271174</v>
+        <v>1.057253666189462</v>
       </c>
       <c r="J22">
-        <v>1.02077693638274</v>
+        <v>1.03239949636596</v>
       </c>
       <c r="K22">
-        <v>1.043155874978015</v>
+        <v>1.054941082077406</v>
       </c>
       <c r="L22">
-        <v>1.02612785076869</v>
+        <v>1.036705449214348</v>
       </c>
       <c r="M22">
-        <v>1.040495948137864</v>
+        <v>1.05244831479915</v>
       </c>
       <c r="N22">
-        <v>1.010773890731641</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013934324855779</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.050081650975948</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.049985425921415</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9910526323602449</v>
+        <v>1.003555947222391</v>
       </c>
       <c r="D23">
-        <v>1.029120706152926</v>
+        <v>1.041091357157216</v>
       </c>
       <c r="E23">
-        <v>1.01191716803181</v>
+        <v>1.022908419979468</v>
       </c>
       <c r="F23">
-        <v>1.026609660655553</v>
+        <v>1.038755397316278</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046637606150144</v>
+        <v>1.057781726718132</v>
       </c>
       <c r="J23">
-        <v>1.021521378874003</v>
+        <v>1.033485565004482</v>
       </c>
       <c r="K23">
-        <v>1.043836555626782</v>
+        <v>1.055595481990261</v>
       </c>
       <c r="L23">
-        <v>1.026948751910424</v>
+        <v>1.037736688230347</v>
       </c>
       <c r="M23">
-        <v>1.041370737508022</v>
+        <v>1.053300341709008</v>
       </c>
       <c r="N23">
-        <v>1.011024660300676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014314127213146</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.05075596403433</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.050438663500778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9967735556919163</v>
+        <v>1.010584383531473</v>
       </c>
       <c r="D24">
-        <v>1.032992877404823</v>
+        <v>1.044857519227789</v>
       </c>
       <c r="E24">
-        <v>1.016378711629255</v>
+        <v>1.028178478426703</v>
       </c>
       <c r="F24">
-        <v>1.031254829051601</v>
+        <v>1.04329506828535</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048112385212139</v>
+        <v>1.0598119793456</v>
       </c>
       <c r="J24">
-        <v>1.024396373137213</v>
+        <v>1.037680997148088</v>
       </c>
       <c r="K24">
-        <v>1.046464357325159</v>
+        <v>1.058140161678486</v>
       </c>
       <c r="L24">
-        <v>1.030124176917369</v>
+        <v>1.04172818178872</v>
       </c>
       <c r="M24">
-        <v>1.044754440270693</v>
+        <v>1.056602264402562</v>
       </c>
       <c r="N24">
-        <v>1.011993004238347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.01578654386494</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.053369173409843</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.05223046013478</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003202747856579</v>
+        <v>1.018442337537178</v>
       </c>
       <c r="D25">
-        <v>1.03736590660926</v>
+        <v>1.049100962503426</v>
       </c>
       <c r="E25">
-        <v>1.02142353981672</v>
+        <v>1.034104835046091</v>
       </c>
       <c r="F25">
-        <v>1.036505285729993</v>
+        <v>1.048410568990255</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049739680137415</v>
+        <v>1.062046594311326</v>
       </c>
       <c r="J25">
-        <v>1.027622805414692</v>
+        <v>1.042364593883161</v>
       </c>
       <c r="K25">
-        <v>1.049410590982397</v>
+        <v>1.060982033216661</v>
       </c>
       <c r="L25">
-        <v>1.033698142850112</v>
+        <v>1.046195820369099</v>
       </c>
       <c r="M25">
-        <v>1.048562153484448</v>
+        <v>1.060301137571336</v>
       </c>
       <c r="N25">
-        <v>1.013079411140249</v>
+        <v>1.017429464184038</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.056296526801666</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.054236926167839</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_23/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024465135401686</v>
+        <v>1.022871940405775</v>
       </c>
       <c r="D2">
-        <v>1.052345987052317</v>
+        <v>1.048073699855061</v>
       </c>
       <c r="E2">
-        <v>1.038664743541397</v>
+        <v>1.037006423303955</v>
       </c>
       <c r="F2">
-        <v>1.052349761639021</v>
+        <v>1.049938944467374</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.063714311401973</v>
+        <v>1.061668779586452</v>
       </c>
       <c r="J2">
-        <v>1.045937934808215</v>
+        <v>1.044389432085803</v>
       </c>
       <c r="K2">
-        <v>1.063121226216886</v>
+        <v>1.058901582015769</v>
       </c>
       <c r="L2">
-        <v>1.049610468392886</v>
+        <v>1.047973194613383</v>
       </c>
       <c r="M2">
-        <v>1.063124954528301</v>
+        <v>1.060743777565436</v>
       </c>
       <c r="N2">
-        <v>1.018673764139378</v>
+        <v>1.018598271273301</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.058531337725658</v>
+        <v>1.056646839136699</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.055702174758363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.052727231643334</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.027530396506262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02873499054484</v>
+        <v>1.026989731675497</v>
       </c>
       <c r="D3">
-        <v>1.054676066119042</v>
+        <v>1.050190574898013</v>
       </c>
       <c r="E3">
-        <v>1.041915435007418</v>
+        <v>1.040116012699698</v>
       </c>
       <c r="F3">
-        <v>1.055164297135139</v>
+        <v>1.052608908804874</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.064887055382395</v>
+        <v>1.062720314521008</v>
       </c>
       <c r="J3">
-        <v>1.048471824720252</v>
+        <v>1.046770725992055</v>
       </c>
       <c r="K3">
-        <v>1.064654075494996</v>
+        <v>1.060219141297439</v>
       </c>
       <c r="L3">
-        <v>1.052038683270222</v>
+        <v>1.050260095899425</v>
       </c>
       <c r="M3">
-        <v>1.06513683548105</v>
+        <v>1.062610151651121</v>
       </c>
       <c r="N3">
-        <v>1.01956039193593</v>
+        <v>1.019255423973387</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.060123566402719</v>
+        <v>1.058123915523623</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.056783378666649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.053655940500972</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027788906300892</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03144662081666</v>
+        <v>1.029605779062807</v>
       </c>
       <c r="D4">
-        <v>1.056161710530795</v>
+        <v>1.051541181337524</v>
       </c>
       <c r="E4">
-        <v>1.043985952267973</v>
+        <v>1.042097688462363</v>
       </c>
       <c r="F4">
-        <v>1.056958861738613</v>
+        <v>1.054312116678486</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.065623482184907</v>
+        <v>1.06337988424317</v>
       </c>
       <c r="J4">
-        <v>1.050078746398781</v>
+        <v>1.048281331591835</v>
       </c>
       <c r="K4">
-        <v>1.065626462533498</v>
+        <v>1.061054935959762</v>
       </c>
       <c r="L4">
-        <v>1.053580979288266</v>
+        <v>1.051713253622204</v>
       </c>
       <c r="M4">
-        <v>1.06641521261068</v>
+        <v>1.063796421311071</v>
       </c>
       <c r="N4">
-        <v>1.020122473846184</v>
+        <v>1.019672290578432</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061135288937803</v>
+        <v>1.059062745610957</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.057471783544285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.054247854524519</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027950662654687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032577543550188</v>
+        <v>1.030696722804024</v>
       </c>
       <c r="D5">
-        <v>1.056786335857511</v>
+        <v>1.052109395291118</v>
       </c>
       <c r="E5">
-        <v>1.044851752515039</v>
+        <v>1.04292628606324</v>
       </c>
       <c r="F5">
-        <v>1.057710281265891</v>
+        <v>1.055025316607514</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.065930420435334</v>
+        <v>1.063654638641488</v>
       </c>
       <c r="J5">
-        <v>1.050749447593471</v>
+        <v>1.048911671763072</v>
       </c>
       <c r="K5">
-        <v>1.066035857951687</v>
+        <v>1.061407223949949</v>
       </c>
       <c r="L5">
-        <v>1.054225589880645</v>
+        <v>1.052320505921936</v>
       </c>
       <c r="M5">
-        <v>1.066950321843826</v>
+        <v>1.064292966358303</v>
       </c>
       <c r="N5">
-        <v>1.020357901495669</v>
+        <v>1.019846831484804</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.061558780219534</v>
+        <v>1.059455717835352</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.057768250309633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.054504664931581</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.028019110669639</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032770181611196</v>
+        <v>1.030882153050396</v>
       </c>
       <c r="D6">
-        <v>1.056897250250142</v>
+        <v>1.052210492610682</v>
       </c>
       <c r="E6">
-        <v>1.045000327768862</v>
+        <v>1.043068137079015</v>
       </c>
       <c r="F6">
-        <v>1.057839954093831</v>
+        <v>1.055148216256856</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.065984821712727</v>
+        <v>1.063703370660062</v>
       </c>
       <c r="J6">
-        <v>1.050864979506959</v>
+        <v>1.049019938784237</v>
       </c>
       <c r="K6">
-        <v>1.066110604046721</v>
+        <v>1.061472036801979</v>
       </c>
       <c r="L6">
-        <v>1.054337040108718</v>
+        <v>1.052425208993991</v>
       </c>
       <c r="M6">
-        <v>1.067043677634749</v>
+        <v>1.064379493000692</v>
       </c>
       <c r="N6">
-        <v>1.020399519599053</v>
+        <v>1.0198775376967</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.061632662986746</v>
+        <v>1.059524196127804</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.057829639870209</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.054559911164835</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.028032650348162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031471049966676</v>
+        <v>1.029640107962605</v>
       </c>
       <c r="D7">
-        <v>1.056187063591099</v>
+        <v>1.051569286822207</v>
       </c>
       <c r="E7">
-        <v>1.044007386636375</v>
+        <v>1.042127064053464</v>
       </c>
       <c r="F7">
-        <v>1.056979304609751</v>
+        <v>1.054337664083542</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.065636108386054</v>
+        <v>1.063396198805775</v>
       </c>
       <c r="J7">
-        <v>1.050096791399554</v>
+        <v>1.048309023825047</v>
       </c>
       <c r="K7">
-        <v>1.065648758229862</v>
+        <v>1.061079935623532</v>
       </c>
       <c r="L7">
-        <v>1.053599347892701</v>
+        <v>1.051739469056803</v>
       </c>
       <c r="M7">
-        <v>1.06643265307308</v>
+        <v>1.063818901668884</v>
       </c>
       <c r="N7">
-        <v>1.020131718103268</v>
+        <v>1.019708620098229</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061149091513551</v>
+        <v>1.05908053686356</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.057507191113381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05428719756254</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027958997829996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025930715425917</v>
+        <v>1.0243202445211</v>
       </c>
       <c r="D8">
-        <v>1.053159097797977</v>
+        <v>1.048826947790606</v>
       </c>
       <c r="E8">
-        <v>1.039782703387397</v>
+        <v>1.03810476635915</v>
       </c>
       <c r="F8">
-        <v>1.053319464403206</v>
+        <v>1.050878614169501</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.064125867601119</v>
+        <v>1.062053164655423</v>
       </c>
       <c r="J8">
-        <v>1.04681256010067</v>
+        <v>1.045245743638374</v>
       </c>
       <c r="K8">
-        <v>1.063664104326607</v>
+        <v>1.059383780394252</v>
       </c>
       <c r="L8">
-        <v>1.050449464541697</v>
+        <v>1.048792184177912</v>
       </c>
       <c r="M8">
-        <v>1.063822562588076</v>
+        <v>1.061410836358857</v>
       </c>
       <c r="N8">
-        <v>1.018983658484172</v>
+        <v>1.018918576079908</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.059083434163406</v>
+        <v>1.057174759777338</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.056108401688392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.053092850730883</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.027631389286431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015741478399724</v>
+        <v>1.014507138918506</v>
       </c>
       <c r="D9">
-        <v>1.0476210232416</v>
+        <v>1.043803018537068</v>
       </c>
       <c r="E9">
-        <v>1.03205924867397</v>
+        <v>1.030728951196346</v>
       </c>
       <c r="F9">
-        <v>1.04664131935965</v>
+        <v>1.044552645642002</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.061274551873714</v>
+        <v>1.05949493136937</v>
       </c>
       <c r="J9">
-        <v>1.040750353225709</v>
+        <v>1.039557811822168</v>
       </c>
       <c r="K9">
-        <v>1.059985999910072</v>
+        <v>1.056223263041568</v>
       </c>
       <c r="L9">
-        <v>1.044652751893057</v>
+        <v>1.043342397456615</v>
       </c>
       <c r="M9">
-        <v>1.059020429076964</v>
+        <v>1.056961998444026</v>
       </c>
       <c r="N9">
-        <v>1.016858269179125</v>
+        <v>1.017357099721067</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.055282952812896</v>
+        <v>1.053653873764237</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.053504748042224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.05085485361939</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026996259338361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.008717500999613</v>
+        <v>1.007795415092102</v>
       </c>
       <c r="D10">
-        <v>1.043867095218601</v>
+        <v>1.040421529112903</v>
       </c>
       <c r="E10">
-        <v>1.026798279635649</v>
+        <v>1.025750094575479</v>
       </c>
       <c r="F10">
-        <v>1.042135213859103</v>
+        <v>1.040318064590216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.059292392075857</v>
+        <v>1.057734331037816</v>
       </c>
       <c r="J10">
-        <v>1.036589466125655</v>
+        <v>1.035703123432966</v>
       </c>
       <c r="K10">
-        <v>1.057487047843423</v>
+        <v>1.054097397879564</v>
       </c>
       <c r="L10">
-        <v>1.040699972573362</v>
+        <v>1.03966948327524</v>
       </c>
       <c r="M10">
-        <v>1.055783212852075</v>
+        <v>1.053995619784062</v>
       </c>
       <c r="N10">
-        <v>1.015414196142708</v>
+        <v>1.01642459280982</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052771521537181</v>
+        <v>1.051356869063948</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.051754352512668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.049369930708526</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.026570384471486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.006171280531911</v>
+        <v>1.005393207883253</v>
       </c>
       <c r="D11">
-        <v>1.042711770501336</v>
+        <v>1.039390982896486</v>
       </c>
       <c r="E11">
-        <v>1.025104573733032</v>
+        <v>1.02417389177999</v>
       </c>
       <c r="F11">
-        <v>1.040937251574914</v>
+        <v>1.039229116321211</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.058747853323887</v>
+        <v>1.057277188496687</v>
       </c>
       <c r="J11">
-        <v>1.035289561675875</v>
+        <v>1.034543331602487</v>
       </c>
       <c r="K11">
-        <v>1.056870782488404</v>
+        <v>1.053606406227118</v>
       </c>
       <c r="L11">
-        <v>1.039568091178904</v>
+        <v>1.038653882730737</v>
       </c>
       <c r="M11">
-        <v>1.055126350105102</v>
+        <v>1.053447301236533</v>
       </c>
       <c r="N11">
-        <v>1.015085821800623</v>
+        <v>1.016423810326166</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.0526808714404</v>
+        <v>1.051352765249878</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.05135078128437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.049058174415715</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02654093061422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.005415749124771</v>
+        <v>1.004672071264378</v>
       </c>
       <c r="D12">
-        <v>1.042446065330964</v>
+        <v>1.039148099193536</v>
       </c>
       <c r="E12">
-        <v>1.024690694875436</v>
+        <v>1.023782667573183</v>
       </c>
       <c r="F12">
-        <v>1.040766686638318</v>
+        <v>1.039083125544075</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.058658651696238</v>
+        <v>1.057208158097724</v>
       </c>
       <c r="J12">
-        <v>1.034992660199256</v>
+        <v>1.034280008434182</v>
       </c>
       <c r="K12">
-        <v>1.056802871702208</v>
+        <v>1.053561845379507</v>
       </c>
       <c r="L12">
-        <v>1.039359670181476</v>
+        <v>1.0384679857865</v>
       </c>
       <c r="M12">
-        <v>1.055152429377939</v>
+        <v>1.053497998206691</v>
       </c>
       <c r="N12">
-        <v>1.015078218132469</v>
+        <v>1.016517382120025</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.053023136826219</v>
+        <v>1.051714933517626</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.051302768078437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.049026670176718</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.026578074166805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.006005108611345</v>
+        <v>1.005193922564316</v>
       </c>
       <c r="D13">
-        <v>1.042871334873079</v>
+        <v>1.039511381662235</v>
       </c>
       <c r="E13">
-        <v>1.025251016220021</v>
+        <v>1.024278058212722</v>
       </c>
       <c r="F13">
-        <v>1.041398815055615</v>
+        <v>1.03966519173165</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.058931596014677</v>
+        <v>1.057442546589314</v>
       </c>
       <c r="J13">
-        <v>1.035465778081318</v>
+        <v>1.034688257966273</v>
       </c>
       <c r="K13">
-        <v>1.057179396802389</v>
+        <v>1.053877204358948</v>
       </c>
       <c r="L13">
-        <v>1.039867459795557</v>
+        <v>1.038911931547815</v>
       </c>
       <c r="M13">
-        <v>1.055732131682653</v>
+        <v>1.054028359742158</v>
       </c>
       <c r="N13">
-        <v>1.015326898089643</v>
+        <v>1.016657754258721</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.053754595647752</v>
+        <v>1.052407707774591</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.051566534304296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.049246943497661</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026677403965104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.007025667290798</v>
+        <v>1.006122580265796</v>
       </c>
       <c r="D14">
-        <v>1.043483498095196</v>
+        <v>1.040043013906174</v>
       </c>
       <c r="E14">
-        <v>1.026083194599951</v>
+        <v>1.025026974595243</v>
       </c>
       <c r="F14">
-        <v>1.042204679187435</v>
+        <v>1.04040354740879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.059286458806978</v>
+        <v>1.057744667271373</v>
       </c>
       <c r="J14">
-        <v>1.036144304020352</v>
+        <v>1.035278145875749</v>
       </c>
       <c r="K14">
-        <v>1.057645423379785</v>
+        <v>1.054263356487933</v>
       </c>
       <c r="L14">
-        <v>1.040545778557499</v>
+        <v>1.039508235168592</v>
       </c>
       <c r="M14">
-        <v>1.056388259895134</v>
+        <v>1.054617744950786</v>
       </c>
       <c r="N14">
-        <v>1.015616474518486</v>
+        <v>1.016779039908332</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054444623517761</v>
+        <v>1.053045158526767</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.051897410735761</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.049521484398553</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026776020497525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007572794257605</v>
+        <v>1.006625278081944</v>
       </c>
       <c r="D15">
-        <v>1.043792881880163</v>
+        <v>1.04031407581219</v>
       </c>
       <c r="E15">
-        <v>1.026506635599383</v>
+        <v>1.025411253038289</v>
       </c>
       <c r="F15">
-        <v>1.042588602253666</v>
+        <v>1.040754783664738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.05945768640876</v>
+        <v>1.057890177239073</v>
       </c>
       <c r="J15">
-        <v>1.036484690407866</v>
+        <v>1.035575574073784</v>
       </c>
       <c r="K15">
-        <v>1.057866018109675</v>
+        <v>1.054445837265623</v>
       </c>
       <c r="L15">
-        <v>1.040876157992851</v>
+        <v>1.039799992941585</v>
       </c>
       <c r="M15">
-        <v>1.056681976037818</v>
+        <v>1.054879090287196</v>
       </c>
       <c r="N15">
-        <v>1.015746700771994</v>
+        <v>1.016824895835298</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054713928712802</v>
+        <v>1.053288913860352</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.052059114654268</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.049656816870048</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026817385723749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010441156249624</v>
+        <v>1.009293907220249</v>
       </c>
       <c r="D16">
-        <v>1.045313018656964</v>
+        <v>1.041657955490715</v>
       </c>
       <c r="E16">
-        <v>1.028634249416451</v>
+        <v>1.027366685342343</v>
       </c>
       <c r="F16">
-        <v>1.044402419947022</v>
+        <v>1.042418404915436</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.060266613964858</v>
+        <v>1.05857971420683</v>
       </c>
       <c r="J16">
-        <v>1.038171073492123</v>
+        <v>1.037067954305344</v>
       </c>
       <c r="K16">
-        <v>1.058875226536767</v>
+        <v>1.055279112109352</v>
       </c>
       <c r="L16">
-        <v>1.042469840857257</v>
+        <v>1.041223521455632</v>
       </c>
       <c r="M16">
-        <v>1.057979264419351</v>
+        <v>1.056027253312348</v>
       </c>
       <c r="N16">
-        <v>1.016315875120984</v>
+        <v>1.017009896076342</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055701011117369</v>
+        <v>1.054158082881074</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.052775729387652</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.050249350572757</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026979344570666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012107757241406</v>
+        <v>1.010868692714811</v>
       </c>
       <c r="D17">
-        <v>1.046159289435013</v>
+        <v>1.042415535847428</v>
       </c>
       <c r="E17">
-        <v>1.029831679314197</v>
+        <v>1.028485881555184</v>
       </c>
       <c r="F17">
-        <v>1.045368768120349</v>
+        <v>1.043311843505655</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.060698467662091</v>
+        <v>1.058952760769177</v>
       </c>
       <c r="J17">
-        <v>1.039108473943096</v>
+        <v>1.037915516390836</v>
       </c>
       <c r="K17">
-        <v>1.059403649771448</v>
+        <v>1.055718607592989</v>
       </c>
       <c r="L17">
-        <v>1.043336115819312</v>
+        <v>1.042012228054305</v>
       </c>
       <c r="M17">
-        <v>1.058625481017191</v>
+        <v>1.056600809820684</v>
       </c>
       <c r="N17">
-        <v>1.016600620980847</v>
+        <v>1.017118790801425</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.056084251162625</v>
+        <v>1.054483733580278</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.053151860549757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.050562861076017</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.027051913435352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012882652203442</v>
+        <v>1.011622484230821</v>
       </c>
       <c r="D18">
-        <v>1.046476945699341</v>
+        <v>1.042708338669227</v>
       </c>
       <c r="E18">
-        <v>1.030314401651636</v>
+        <v>1.028953343530769</v>
       </c>
       <c r="F18">
-        <v>1.045656897018489</v>
+        <v>1.043579947137299</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.060830922968669</v>
+        <v>1.059068295106735</v>
       </c>
       <c r="J18">
-        <v>1.039467650045572</v>
+        <v>1.038253486314342</v>
       </c>
       <c r="K18">
-        <v>1.059538912700321</v>
+        <v>1.055828457106906</v>
       </c>
       <c r="L18">
-        <v>1.043629610128148</v>
+        <v>1.042290343381943</v>
       </c>
       <c r="M18">
-        <v>1.058731472223307</v>
+        <v>1.056686568548905</v>
       </c>
       <c r="N18">
-        <v>1.01665476507761</v>
+        <v>1.017123318852028</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.05593346798754</v>
+        <v>1.054316627371784</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.053236113428706</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.050627999712468</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.027042751646863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012852379811173</v>
+        <v>1.011626008263955</v>
       </c>
       <c r="D19">
-        <v>1.046333710827944</v>
+        <v>1.042594517979973</v>
       </c>
       <c r="E19">
-        <v>1.030151693975339</v>
+        <v>1.028825059327056</v>
       </c>
       <c r="F19">
-        <v>1.045334583372821</v>
+        <v>1.043280886851106</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.060700080980347</v>
+        <v>1.058955069610806</v>
       </c>
       <c r="J19">
-        <v>1.039306637753339</v>
+        <v>1.038124777376477</v>
       </c>
       <c r="K19">
-        <v>1.059337359742496</v>
+        <v>1.055655576630337</v>
       </c>
       <c r="L19">
-        <v>1.043407638167968</v>
+        <v>1.042102138337597</v>
       </c>
       <c r="M19">
-        <v>1.058353521101429</v>
+        <v>1.056331367967134</v>
       </c>
       <c r="N19">
-        <v>1.016510213837665</v>
+        <v>1.017018808601808</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.05531398462875</v>
+        <v>1.053714624348777</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.053099869013314</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.050512658622649</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026965020042281</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010565301562119</v>
+        <v>1.009523202392623</v>
       </c>
       <c r="D20">
-        <v>1.044881806378352</v>
+        <v>1.041322619043258</v>
       </c>
       <c r="E20">
-        <v>1.028188248251158</v>
+        <v>1.02703350814329</v>
       </c>
       <c r="F20">
-        <v>1.043330260921324</v>
+        <v>1.041419582132246</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.059831877468497</v>
+        <v>1.058199660751763</v>
       </c>
       <c r="J20">
-        <v>1.037694937191077</v>
+        <v>1.036691892943716</v>
       </c>
       <c r="K20">
-        <v>1.058178846128868</v>
+        <v>1.054675796335444</v>
       </c>
       <c r="L20">
-        <v>1.041752911601942</v>
+        <v>1.040617097439578</v>
       </c>
       <c r="M20">
-        <v>1.056651712261675</v>
+        <v>1.054771223555803</v>
       </c>
       <c r="N20">
-        <v>1.015807216526878</v>
+        <v>1.016598370746612</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.053448465249005</v>
+        <v>1.051960280503656</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.052284625564292</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04982417337036</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026691628087556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00517343500367</v>
+        <v>1.004547898642065</v>
       </c>
       <c r="D21">
-        <v>1.041971163352388</v>
+        <v>1.038772810357021</v>
       </c>
       <c r="E21">
-        <v>1.024122950037726</v>
+        <v>1.023335731728034</v>
       </c>
       <c r="F21">
-        <v>1.039802609158667</v>
+        <v>1.038203733881168</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.058258816204623</v>
+        <v>1.056871120174408</v>
       </c>
       <c r="J21">
-        <v>1.034456438229512</v>
+        <v>1.033856697070466</v>
       </c>
       <c r="K21">
-        <v>1.056198740495765</v>
+        <v>1.053055058122526</v>
       </c>
       <c r="L21">
-        <v>1.038661277822385</v>
+        <v>1.037888089610466</v>
       </c>
       <c r="M21">
-        <v>1.054067206759114</v>
+        <v>1.052495754711474</v>
       </c>
       <c r="N21">
-        <v>1.014659834706133</v>
+        <v>1.016246299555832</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.051362877581854</v>
+        <v>1.050119195994345</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.050887831092463</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.048681781255121</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.026361931240662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.001735278049903</v>
+        <v>1.001373733661546</v>
       </c>
       <c r="D22">
-        <v>1.040124689356436</v>
+        <v>1.037155778415161</v>
       </c>
       <c r="E22">
-        <v>1.021549129424165</v>
+        <v>1.020995594661826</v>
       </c>
       <c r="F22">
-        <v>1.037586405231152</v>
+        <v>1.036186169008703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.057253666189462</v>
+        <v>1.056021020088104</v>
       </c>
       <c r="J22">
-        <v>1.03239949636596</v>
+        <v>1.032053750220917</v>
       </c>
       <c r="K22">
-        <v>1.054941082077406</v>
+        <v>1.05202543876962</v>
       </c>
       <c r="L22">
-        <v>1.036705449214348</v>
+        <v>1.036162291796393</v>
       </c>
       <c r="M22">
-        <v>1.05244831479915</v>
+        <v>1.051073311874737</v>
       </c>
       <c r="N22">
-        <v>1.013934324855779</v>
+        <v>1.016019157045496</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.050081650975948</v>
+        <v>1.048993441775084</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.049985425921415</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.047939287109322</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.026152120787835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.003555947222391</v>
+        <v>1.003036166242948</v>
       </c>
       <c r="D23">
-        <v>1.041091357157216</v>
+        <v>1.037993601500226</v>
       </c>
       <c r="E23">
-        <v>1.022908419979468</v>
+        <v>1.022215578804522</v>
       </c>
       <c r="F23">
-        <v>1.038755397316278</v>
+        <v>1.037239268779371</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.057781726718132</v>
+        <v>1.056459265568528</v>
       </c>
       <c r="J23">
-        <v>1.033485565004482</v>
+        <v>1.032987815040595</v>
       </c>
       <c r="K23">
-        <v>1.055595481990261</v>
+        <v>1.05255190932226</v>
       </c>
       <c r="L23">
-        <v>1.037736688230347</v>
+        <v>1.037056495107398</v>
       </c>
       <c r="M23">
-        <v>1.053300341709008</v>
+        <v>1.05181083418402</v>
       </c>
       <c r="N23">
-        <v>1.014314127213146</v>
+        <v>1.016089494337943</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.05075596403433</v>
+        <v>1.049577134231563</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.050438663500778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.048301126677836</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.026255639031261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010584383531473</v>
+        <v>1.009547729584588</v>
       </c>
       <c r="D24">
-        <v>1.044857519227789</v>
+        <v>1.041302154673231</v>
       </c>
       <c r="E24">
-        <v>1.028178478426703</v>
+        <v>1.027029466426664</v>
       </c>
       <c r="F24">
-        <v>1.04329506828535</v>
+        <v>1.041388122767671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.0598119793456</v>
+        <v>1.058182418024618</v>
       </c>
       <c r="J24">
-        <v>1.037680997148088</v>
+        <v>1.036683137279111</v>
       </c>
       <c r="K24">
-        <v>1.058140161678486</v>
+        <v>1.054640806032255</v>
       </c>
       <c r="L24">
-        <v>1.04172818178872</v>
+        <v>1.040597978088442</v>
       </c>
       <c r="M24">
-        <v>1.056602264402562</v>
+        <v>1.054725414063872</v>
       </c>
       <c r="N24">
-        <v>1.01578654386494</v>
+        <v>1.01658162407064</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.053369173409843</v>
+        <v>1.051883796653309</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.05223046013478</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.049769919251986</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026674608759741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018442337537178</v>
+        <v>1.01709042445627</v>
       </c>
       <c r="D25">
-        <v>1.049100962503426</v>
+        <v>1.045139423620602</v>
       </c>
       <c r="E25">
-        <v>1.034104835046091</v>
+        <v>1.032667248350488</v>
       </c>
       <c r="F25">
-        <v>1.048410568990255</v>
+        <v>1.046218273639914</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.062046594311326</v>
+        <v>1.060182064978958</v>
       </c>
       <c r="J25">
-        <v>1.042364593883161</v>
+        <v>1.04105600578538</v>
       </c>
       <c r="K25">
-        <v>1.060982033216661</v>
+        <v>1.05707520908639</v>
       </c>
       <c r="L25">
-        <v>1.046195820369099</v>
+        <v>1.044778762189465</v>
       </c>
       <c r="M25">
-        <v>1.060301137571336</v>
+        <v>1.058139106808755</v>
       </c>
       <c r="N25">
-        <v>1.017429464184038</v>
+        <v>1.017740144636135</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.056296526801666</v>
+        <v>1.054585458937084</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.054236926167839</v>
+        <v>1.051487995377714</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02717253763557</v>
       </c>
     </row>
   </sheetData>
